--- a/public/translation/EngTranslate.xlsx
+++ b/public/translation/EngTranslate.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="688">
   <si>
     <t>year</t>
   </si>
@@ -2103,6 +2103,12 @@
   </si>
   <si>
     <t>My Virtual ClassRoom</t>
+  </si>
+  <si>
+    <t>no_teacher</t>
+  </si>
+  <si>
+    <t>No Teachers</t>
   </si>
 </sst>
 </file>
@@ -2451,10 +2457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C355"/>
+  <dimension ref="A1:C356"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A345" workbookViewId="0">
-      <selection activeCell="A355" sqref="A355"/>
+      <selection activeCell="C356" sqref="C356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6367,6 +6373,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="B356" t="s">
+        <v>687</v>
+      </c>
+      <c r="C356">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/translation/EngTranslate.xlsx
+++ b/public/translation/EngTranslate.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bailsan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="English_File__1__.txt_Edited" localSheetId="0">Sheet1!$A$1:$F$320</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="690">
   <si>
     <t>year</t>
   </si>
@@ -2109,12 +2109,18 @@
   </si>
   <si>
     <t>No Teachers</t>
+  </si>
+  <si>
+    <t>msg_bbb</t>
+  </si>
+  <si>
+    <t>Please note that if no one enters the classroom, it will end after 5 minutes from the start date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2457,21 +2463,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C356"/>
+  <dimension ref="A1:C357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A345" workbookViewId="0">
-      <selection activeCell="C356" sqref="C356"/>
+    <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
+      <selection activeCell="B357" sqref="B357"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>622</v>
       </c>
@@ -2482,7 +2488,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2493,7 +2499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2504,7 +2510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2515,7 +2521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2526,7 +2532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2537,7 +2543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2548,7 +2554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2559,7 +2565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2570,7 +2576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2581,7 +2587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2592,7 +2598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2603,7 +2609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2614,7 +2620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -2625,7 +2631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -2636,7 +2642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2647,7 +2653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -2658,7 +2664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -2669,7 +2675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -2680,7 +2686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -2691,7 +2697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -2702,7 +2708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -2713,7 +2719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -2724,7 +2730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -2735,7 +2741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -2746,7 +2752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -2757,7 +2763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -2768,7 +2774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -2779,7 +2785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -2790,7 +2796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -2801,7 +2807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -2812,7 +2818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -2823,7 +2829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -2834,7 +2840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -2845,7 +2851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -2856,7 +2862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>67</v>
       </c>
@@ -2867,7 +2873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>69</v>
       </c>
@@ -2878,7 +2884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>71</v>
       </c>
@@ -2889,7 +2895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -2900,7 +2906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>75</v>
       </c>
@@ -2911,7 +2917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -2922,7 +2928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -2933,7 +2939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>81</v>
       </c>
@@ -2944,7 +2950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>83</v>
       </c>
@@ -2955,7 +2961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>85</v>
       </c>
@@ -2966,7 +2972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>87</v>
       </c>
@@ -2977,7 +2983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>89</v>
       </c>
@@ -2988,7 +2994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -2999,7 +3005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>93</v>
       </c>
@@ -3010,7 +3016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>94</v>
       </c>
@@ -3021,7 +3027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>95</v>
       </c>
@@ -3032,7 +3038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>625</v>
       </c>
@@ -3043,7 +3049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -3054,7 +3060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>99</v>
       </c>
@@ -3065,7 +3071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>101</v>
       </c>
@@ -3076,7 +3082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>103</v>
       </c>
@@ -3087,7 +3093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>105</v>
       </c>
@@ -3098,7 +3104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>107</v>
       </c>
@@ -3109,7 +3115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>109</v>
       </c>
@@ -3120,7 +3126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>111</v>
       </c>
@@ -3131,7 +3137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>113</v>
       </c>
@@ -3142,7 +3148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>115</v>
       </c>
@@ -3153,7 +3159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>117</v>
       </c>
@@ -3164,7 +3170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>119</v>
       </c>
@@ -3175,7 +3181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>121</v>
       </c>
@@ -3186,7 +3192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>123</v>
       </c>
@@ -3197,7 +3203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>125</v>
       </c>
@@ -3208,7 +3214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>127</v>
       </c>
@@ -3219,7 +3225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>129</v>
       </c>
@@ -3230,7 +3236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>131</v>
       </c>
@@ -3241,7 +3247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>133</v>
       </c>
@@ -3252,7 +3258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>135</v>
       </c>
@@ -3263,7 +3269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>137</v>
       </c>
@@ -3274,7 +3280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>139</v>
       </c>
@@ -3285,7 +3291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="b">
         <v>1</v>
       </c>
@@ -3296,7 +3302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="b">
         <v>0</v>
       </c>
@@ -3307,7 +3313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>141</v>
       </c>
@@ -3318,7 +3324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>143</v>
       </c>
@@ -3329,7 +3335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>145</v>
       </c>
@@ -3340,7 +3346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>147</v>
       </c>
@@ -3351,7 +3357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>149</v>
       </c>
@@ -3362,7 +3368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>151</v>
       </c>
@@ -3373,7 +3379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>153</v>
       </c>
@@ -3384,7 +3390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>155</v>
       </c>
@@ -3395,7 +3401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>157</v>
       </c>
@@ -3406,7 +3412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>159</v>
       </c>
@@ -3417,7 +3423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>161</v>
       </c>
@@ -3428,7 +3434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>163</v>
       </c>
@@ -3439,7 +3445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>165</v>
       </c>
@@ -3450,7 +3456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>167</v>
       </c>
@@ -3461,7 +3467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>169</v>
       </c>
@@ -3472,7 +3478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>171</v>
       </c>
@@ -3483,7 +3489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>173</v>
       </c>
@@ -3494,7 +3500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>175</v>
       </c>
@@ -3505,7 +3511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>177</v>
       </c>
@@ -3516,7 +3522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>179</v>
       </c>
@@ -3527,7 +3533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>181</v>
       </c>
@@ -3538,7 +3544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>183</v>
       </c>
@@ -3549,7 +3555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>185</v>
       </c>
@@ -3560,7 +3566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>187</v>
       </c>
@@ -3571,7 +3577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>189</v>
       </c>
@@ -3582,7 +3588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>191</v>
       </c>
@@ -3593,7 +3599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>193</v>
       </c>
@@ -3604,7 +3610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>195</v>
       </c>
@@ -3615,7 +3621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>197</v>
       </c>
@@ -3626,7 +3632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>199</v>
       </c>
@@ -3637,7 +3643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>201</v>
       </c>
@@ -3648,7 +3654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>203</v>
       </c>
@@ -3659,7 +3665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>205</v>
       </c>
@@ -3670,7 +3676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>207</v>
       </c>
@@ -3681,7 +3687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>209</v>
       </c>
@@ -3692,7 +3698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>211</v>
       </c>
@@ -3703,7 +3709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>213</v>
       </c>
@@ -3714,7 +3720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>215</v>
       </c>
@@ -3725,7 +3731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>217</v>
       </c>
@@ -3736,7 +3742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>219</v>
       </c>
@@ -3747,7 +3753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>221</v>
       </c>
@@ -3758,7 +3764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>223</v>
       </c>
@@ -3769,7 +3775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>224</v>
       </c>
@@ -3780,7 +3786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>226</v>
       </c>
@@ -3791,7 +3797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>228</v>
       </c>
@@ -3802,7 +3808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>230</v>
       </c>
@@ -3813,7 +3819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>232</v>
       </c>
@@ -3824,7 +3830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>234</v>
       </c>
@@ -3835,7 +3841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>236</v>
       </c>
@@ -3846,7 +3852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>238</v>
       </c>
@@ -3857,7 +3863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>240</v>
       </c>
@@ -3868,7 +3874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>242</v>
       </c>
@@ -3879,7 +3885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>244</v>
       </c>
@@ -3890,7 +3896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>246</v>
       </c>
@@ -3901,7 +3907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>248</v>
       </c>
@@ -3912,7 +3918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>250</v>
       </c>
@@ -3923,7 +3929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>252</v>
       </c>
@@ -3934,7 +3940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>254</v>
       </c>
@@ -3945,7 +3951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>256</v>
       </c>
@@ -3956,7 +3962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>258</v>
       </c>
@@ -3967,7 +3973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>259</v>
       </c>
@@ -3978,7 +3984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>260</v>
       </c>
@@ -3989,7 +3995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>261</v>
       </c>
@@ -4000,7 +4006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>262</v>
       </c>
@@ -4011,7 +4017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>263</v>
       </c>
@@ -4022,7 +4028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>265</v>
       </c>
@@ -4033,7 +4039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>267</v>
       </c>
@@ -4044,7 +4050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>269</v>
       </c>
@@ -4055,7 +4061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>271</v>
       </c>
@@ -4066,7 +4072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>273</v>
       </c>
@@ -4077,7 +4083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>275</v>
       </c>
@@ -4088,7 +4094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>277</v>
       </c>
@@ -4099,7 +4105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>279</v>
       </c>
@@ -4110,7 +4116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>281</v>
       </c>
@@ -4121,7 +4127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>283</v>
       </c>
@@ -4132,7 +4138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>285</v>
       </c>
@@ -4143,7 +4149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>287</v>
       </c>
@@ -4154,7 +4160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>289</v>
       </c>
@@ -4165,7 +4171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>291</v>
       </c>
@@ -4176,7 +4182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>293</v>
       </c>
@@ -4187,7 +4193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>295</v>
       </c>
@@ -4198,7 +4204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>297</v>
       </c>
@@ -4209,7 +4215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>299</v>
       </c>
@@ -4220,7 +4226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>301</v>
       </c>
@@ -4231,7 +4237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>303</v>
       </c>
@@ -4242,7 +4248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>305</v>
       </c>
@@ -4253,7 +4259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>307</v>
       </c>
@@ -4264,7 +4270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>309</v>
       </c>
@@ -4275,7 +4281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>311</v>
       </c>
@@ -4286,7 +4292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>313</v>
       </c>
@@ -4297,7 +4303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>315</v>
       </c>
@@ -4308,7 +4314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>317</v>
       </c>
@@ -4319,7 +4325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>319</v>
       </c>
@@ -4330,7 +4336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>321</v>
       </c>
@@ -4341,7 +4347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>323</v>
       </c>
@@ -4352,7 +4358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>325</v>
       </c>
@@ -4363,7 +4369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>327</v>
       </c>
@@ -4374,7 +4380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>329</v>
       </c>
@@ -4385,7 +4391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>331</v>
       </c>
@@ -4396,7 +4402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>333</v>
       </c>
@@ -4407,7 +4413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>335</v>
       </c>
@@ -4418,7 +4424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>337</v>
       </c>
@@ -4429,7 +4435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>339</v>
       </c>
@@ -4440,7 +4446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>341</v>
       </c>
@@ -4451,7 +4457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>343</v>
       </c>
@@ -4462,7 +4468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>345</v>
       </c>
@@ -4473,7 +4479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>347</v>
       </c>
@@ -4484,7 +4490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>349</v>
       </c>
@@ -4495,7 +4501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>351</v>
       </c>
@@ -4506,7 +4512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>353</v>
       </c>
@@ -4517,7 +4523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>355</v>
       </c>
@@ -4528,7 +4534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>357</v>
       </c>
@@ -4539,7 +4545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>359</v>
       </c>
@@ -4550,7 +4556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>361</v>
       </c>
@@ -4561,7 +4567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>363</v>
       </c>
@@ -4572,7 +4578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>365</v>
       </c>
@@ -4583,7 +4589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>367</v>
       </c>
@@ -4594,7 +4600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>369</v>
       </c>
@@ -4605,7 +4611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>371</v>
       </c>
@@ -4616,7 +4622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>372</v>
       </c>
@@ -4627,7 +4633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>374</v>
       </c>
@@ -4638,7 +4644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>375</v>
       </c>
@@ -4649,7 +4655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>377</v>
       </c>
@@ -4660,7 +4666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>379</v>
       </c>
@@ -4671,7 +4677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>381</v>
       </c>
@@ -4682,7 +4688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>383</v>
       </c>
@@ -4693,7 +4699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>385</v>
       </c>
@@ -4704,7 +4710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>387</v>
       </c>
@@ -4715,7 +4721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>389</v>
       </c>
@@ -4726,7 +4732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>391</v>
       </c>
@@ -4737,7 +4743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>393</v>
       </c>
@@ -4748,7 +4754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>395</v>
       </c>
@@ -4759,7 +4765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>397</v>
       </c>
@@ -4770,7 +4776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>399</v>
       </c>
@@ -4781,7 +4787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>401</v>
       </c>
@@ -4792,7 +4798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>403</v>
       </c>
@@ -4803,7 +4809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>405</v>
       </c>
@@ -4814,7 +4820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>407</v>
       </c>
@@ -4825,7 +4831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>409</v>
       </c>
@@ -4836,7 +4842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>411</v>
       </c>
@@ -4847,7 +4853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>413</v>
       </c>
@@ -4858,7 +4864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>415</v>
       </c>
@@ -4869,7 +4875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>417</v>
       </c>
@@ -4880,7 +4886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>419</v>
       </c>
@@ -4891,7 +4897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>421</v>
       </c>
@@ -4902,7 +4908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>423</v>
       </c>
@@ -4913,7 +4919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>425</v>
       </c>
@@ -4924,7 +4930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>427</v>
       </c>
@@ -4935,7 +4941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>429</v>
       </c>
@@ -4946,7 +4952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>431</v>
       </c>
@@ -4957,7 +4963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>433</v>
       </c>
@@ -4968,7 +4974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>435</v>
       </c>
@@ -4979,7 +4985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>437</v>
       </c>
@@ -4990,7 +4996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>439</v>
       </c>
@@ -5001,7 +5007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>441</v>
       </c>
@@ -5012,7 +5018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>443</v>
       </c>
@@ -5023,7 +5029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>445</v>
       </c>
@@ -5034,7 +5040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>447</v>
       </c>
@@ -5045,7 +5051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>449</v>
       </c>
@@ -5056,7 +5062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>451</v>
       </c>
@@ -5067,7 +5073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>453</v>
       </c>
@@ -5078,7 +5084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>455</v>
       </c>
@@ -5089,7 +5095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>457</v>
       </c>
@@ -5100,7 +5106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>459</v>
       </c>
@@ -5111,7 +5117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>461</v>
       </c>
@@ -5122,7 +5128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>463</v>
       </c>
@@ -5133,7 +5139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>464</v>
       </c>
@@ -5144,7 +5150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>466</v>
       </c>
@@ -5155,7 +5161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>468</v>
       </c>
@@ -5166,7 +5172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>470</v>
       </c>
@@ -5177,7 +5183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>472</v>
       </c>
@@ -5188,7 +5194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>474</v>
       </c>
@@ -5199,7 +5205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>476</v>
       </c>
@@ -5210,7 +5216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>478</v>
       </c>
@@ -5221,7 +5227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>480</v>
       </c>
@@ -5232,7 +5238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>482</v>
       </c>
@@ -5243,7 +5249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>484</v>
       </c>
@@ -5254,7 +5260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>486</v>
       </c>
@@ -5265,7 +5271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>488</v>
       </c>
@@ -5276,7 +5282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>490</v>
       </c>
@@ -5287,7 +5293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>492</v>
       </c>
@@ -5298,7 +5304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>494</v>
       </c>
@@ -5309,7 +5315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>496</v>
       </c>
@@ -5320,7 +5326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>498</v>
       </c>
@@ -5331,7 +5337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>500</v>
       </c>
@@ -5342,7 +5348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>502</v>
       </c>
@@ -5353,7 +5359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>504</v>
       </c>
@@ -5364,7 +5370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>506</v>
       </c>
@@ -5375,7 +5381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>508</v>
       </c>
@@ -5386,7 +5392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>510</v>
       </c>
@@ -5397,7 +5403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>512</v>
       </c>
@@ -5408,7 +5414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>514</v>
       </c>
@@ -5419,7 +5425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>516</v>
       </c>
@@ -5430,7 +5436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>518</v>
       </c>
@@ -5441,7 +5447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>520</v>
       </c>
@@ -5452,7 +5458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>522</v>
       </c>
@@ -5463,7 +5469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>524</v>
       </c>
@@ -5474,7 +5480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>525</v>
       </c>
@@ -5485,7 +5491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>527</v>
       </c>
@@ -5496,7 +5502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>529</v>
       </c>
@@ -5507,7 +5513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>531</v>
       </c>
@@ -5518,7 +5524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>533</v>
       </c>
@@ -5529,7 +5535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>535</v>
       </c>
@@ -5540,7 +5546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>537</v>
       </c>
@@ -5551,7 +5557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>539</v>
       </c>
@@ -5562,7 +5568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>541</v>
       </c>
@@ -5573,7 +5579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>543</v>
       </c>
@@ -5584,7 +5590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>545</v>
       </c>
@@ -5595,7 +5601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>547</v>
       </c>
@@ -5606,7 +5612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>549</v>
       </c>
@@ -5617,7 +5623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>551</v>
       </c>
@@ -5628,7 +5634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>553</v>
       </c>
@@ -5639,7 +5645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>555</v>
       </c>
@@ -5650,7 +5656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>557</v>
       </c>
@@ -5661,7 +5667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>559</v>
       </c>
@@ -5672,7 +5678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>561</v>
       </c>
@@ -5683,7 +5689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>563</v>
       </c>
@@ -5694,7 +5700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>565</v>
       </c>
@@ -5705,7 +5711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>567</v>
       </c>
@@ -5716,7 +5722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>569</v>
       </c>
@@ -5727,7 +5733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>571</v>
       </c>
@@ -5738,7 +5744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>573</v>
       </c>
@@ -5749,7 +5755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>575</v>
       </c>
@@ -5760,7 +5766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>577</v>
       </c>
@@ -5771,7 +5777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>579</v>
       </c>
@@ -5782,7 +5788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>581</v>
       </c>
@@ -5793,7 +5799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>583</v>
       </c>
@@ -5804,7 +5810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>585</v>
       </c>
@@ -5815,7 +5821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>587</v>
       </c>
@@ -5826,7 +5832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>589</v>
       </c>
@@ -5837,7 +5843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>591</v>
       </c>
@@ -5848,7 +5854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>593</v>
       </c>
@@ -5859,7 +5865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>595</v>
       </c>
@@ -5870,7 +5876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>597</v>
       </c>
@@ -5881,7 +5887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>599</v>
       </c>
@@ -5892,7 +5898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>601</v>
       </c>
@@ -5903,7 +5909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>603</v>
       </c>
@@ -5914,7 +5920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>605</v>
       </c>
@@ -5925,7 +5931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>607</v>
       </c>
@@ -5936,7 +5942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>609</v>
       </c>
@@ -5947,7 +5953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>611</v>
       </c>
@@ -5958,7 +5964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>612</v>
       </c>
@@ -5969,7 +5975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>614</v>
       </c>
@@ -5980,7 +5986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>616</v>
       </c>
@@ -5991,7 +5997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>623</v>
       </c>
@@ -6002,7 +6008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>626</v>
       </c>
@@ -6013,7 +6019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>628</v>
       </c>
@@ -6024,7 +6030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>630</v>
       </c>
@@ -6035,7 +6041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>632</v>
       </c>
@@ -6046,7 +6052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>634</v>
       </c>
@@ -6057,7 +6063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>636</v>
       </c>
@@ -6068,7 +6074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>673</v>
       </c>
@@ -6079,7 +6085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>638</v>
       </c>
@@ -6090,7 +6096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>640</v>
       </c>
@@ -6101,7 +6107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>644</v>
       </c>
@@ -6112,7 +6118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>645</v>
       </c>
@@ -6123,7 +6129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>647</v>
       </c>
@@ -6134,7 +6140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>649</v>
       </c>
@@ -6145,7 +6151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>651</v>
       </c>
@@ -6156,7 +6162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>652</v>
       </c>
@@ -6167,7 +6173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>655</v>
       </c>
@@ -6178,7 +6184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>0</v>
       </c>
@@ -6189,7 +6195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>1</v>
       </c>
@@ -6200,7 +6206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>657</v>
       </c>
@@ -6211,7 +6217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>659</v>
       </c>
@@ -6222,7 +6228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>661</v>
       </c>
@@ -6233,7 +6239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>663</v>
       </c>
@@ -6244,7 +6250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>665</v>
       </c>
@@ -6255,7 +6261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>667</v>
       </c>
@@ -6266,7 +6272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>669</v>
       </c>
@@ -6277,7 +6283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>671</v>
       </c>
@@ -6288,7 +6294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>674</v>
       </c>
@@ -6299,7 +6305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
         <v>675</v>
       </c>
@@ -6310,7 +6316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B350" s="3" t="s">
         <v>676</v>
       </c>
@@ -6318,7 +6324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>677</v>
       </c>
@@ -6329,7 +6335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>681</v>
       </c>
@@ -6340,7 +6346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>684</v>
       </c>
@@ -6351,7 +6357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>681</v>
       </c>
@@ -6362,7 +6368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="5" t="s">
         <v>91</v>
       </c>
@@ -6373,7 +6379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="5" t="s">
         <v>686</v>
       </c>
@@ -6381,6 +6387,17 @@
         <v>687</v>
       </c>
       <c r="C356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>688</v>
+      </c>
+      <c r="B357" t="s">
+        <v>689</v>
+      </c>
+      <c r="C357">
         <v>1</v>
       </c>
     </row>

--- a/public/translation/EngTranslate.xlsx
+++ b/public/translation/EngTranslate.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCE26FC-8A40-4CBD-A406-CDE40A5A6517}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="English_File__1__.txt_Edited" localSheetId="0">Sheet1!$A$1:$F$320</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,8 +28,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="English File (1) .txt Edited" type="6" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="English File (1) .txt Edited" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="D:\Learnovia\English File (1) .txt Edited.txt" comma="1" delimiter="&quot;">
       <textFields count="6">
         <textField/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="798">
   <si>
     <t>year</t>
   </si>
@@ -2115,12 +2116,336 @@
   </si>
   <si>
     <t>Please note that if no one enters the classroom, it will end after 5 minutes from the start date</t>
+  </si>
+  <si>
+    <t>repeated</t>
+  </si>
+  <si>
+    <t>Repeated</t>
+  </si>
+  <si>
+    <t>deleted</t>
+  </si>
+  <si>
+    <t>approved_attempt</t>
+  </si>
+  <si>
+    <t>first_attempt</t>
+  </si>
+  <si>
+    <t>Approved Attempt</t>
+  </si>
+  <si>
+    <t>First Attempt</t>
+  </si>
+  <si>
+    <t>last_attempt</t>
+  </si>
+  <si>
+    <t>Last Attempt</t>
+  </si>
+  <si>
+    <t>average_attempt</t>
+  </si>
+  <si>
+    <t>Average Attempts</t>
+  </si>
+  <si>
+    <t>first_highest_attempt</t>
+  </si>
+  <si>
+    <t>First Highest Attempt</t>
+  </si>
+  <si>
+    <t>first_lowest_attempt</t>
+  </si>
+  <si>
+    <t>First Lowest Attempt</t>
+  </si>
+  <si>
+    <t>take_attendance</t>
+  </si>
+  <si>
+    <t>Take Attendance</t>
+  </si>
+  <si>
+    <t>get_attendance</t>
+  </si>
+  <si>
+    <t>View Attendance</t>
+  </si>
+  <si>
+    <t>attendance_sheet</t>
+  </si>
+  <si>
+    <t>Attendnace Sheet</t>
+  </si>
+  <si>
+    <t>full_name</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>attend_duration</t>
+  </si>
+  <si>
+    <t>Attend Duration</t>
+  </si>
+  <si>
+    <t>first_log_in</t>
+  </si>
+  <si>
+    <t>First Login</t>
+  </si>
+  <si>
+    <t>last_log_out</t>
+  </si>
+  <si>
+    <t>Last Logout</t>
+  </si>
+  <si>
+    <t>enter_date</t>
+  </si>
+  <si>
+    <t>Date of entry</t>
+  </si>
+  <si>
+    <t>left_date</t>
+  </si>
+  <si>
+    <t>Checkout date</t>
+  </si>
+  <si>
+    <t>presence</t>
+  </si>
+  <si>
+    <t>Presence</t>
+  </si>
+  <si>
+    <t>absence</t>
+  </si>
+  <si>
+    <t>Absence</t>
+  </si>
+  <si>
+    <t>minute/s</t>
+  </si>
+  <si>
+    <t>Minutes (s)</t>
+  </si>
+  <si>
+    <t>attendance</t>
+  </si>
+  <si>
+    <t>dashbord</t>
+  </si>
+  <si>
+    <t>session</t>
+  </si>
+  <si>
+    <t>Session</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>is_it_graded_?</t>
+  </si>
+  <si>
+    <t>Is It Graded?</t>
+  </si>
+  <si>
+    <t>sunday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>monday</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>tuesday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>wednesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>thursday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>general_details</t>
+  </si>
+  <si>
+    <t>General Details</t>
+  </si>
+  <si>
+    <t>sessions</t>
+  </si>
+  <si>
+    <t>Sessions</t>
+  </si>
+  <si>
+    <t>total_percentage</t>
+  </si>
+  <si>
+    <t>Total Percentage</t>
+  </si>
+  <si>
+    <t>present</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>late</t>
+  </si>
+  <si>
+    <t>Late</t>
+  </si>
+  <si>
+    <t>excuse</t>
+  </si>
+  <si>
+    <t>Excuse</t>
+  </si>
+  <si>
+    <t>absent</t>
+  </si>
+  <si>
+    <t>Absent</t>
+  </si>
+  <si>
+    <t>your_submission</t>
+  </si>
+  <si>
+    <t>Your Submission</t>
+  </si>
+  <si>
+    <t>you_didnot_answer_to_this_assignment</t>
+  </si>
+  <si>
+    <t>You didn't answer this assignment</t>
+  </si>
+  <si>
+    <t>created</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>Updated</t>
+  </si>
+  <si>
+    <t>Deleted</t>
+  </si>
+  <si>
+    <t>announcements/get</t>
+  </si>
+  <si>
+    <t>View Announcements</t>
+  </si>
+  <si>
+    <t>announcements/my</t>
+  </si>
+  <si>
+    <t>My Announcements</t>
+  </si>
+  <si>
+    <t>attendance/get-attendance</t>
+  </si>
+  <si>
+    <t>All Sessions</t>
+  </si>
+  <si>
+    <t>attendance/get-daily</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>course/get-all</t>
+  </si>
+  <si>
+    <t>enroll/user</t>
+  </si>
+  <si>
+    <t>Staff Enrollment</t>
+  </si>
+  <si>
+    <t>enroll/mandatory</t>
+  </si>
+  <si>
+    <t>Student Enrollment</t>
+  </si>
+  <si>
+    <t>management/get</t>
+  </si>
+  <si>
+    <t>Course Management</t>
+  </si>
+  <si>
+    <t>roles/add</t>
+  </si>
+  <si>
+    <t>Add Role</t>
+  </si>
+  <si>
+    <t>roles/get</t>
+  </si>
+  <si>
+    <t>Roles Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users </t>
+  </si>
+  <si>
+    <t>user/get-all</t>
+  </si>
+  <si>
+    <t>user/logs</t>
+  </si>
+  <si>
+    <t>Logs</t>
+  </si>
+  <si>
+    <t>Home Page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2197,7 +2522,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="English File (1) .txt Edited" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="English File (1) .txt Edited" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2462,11 +2787,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C357"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
-      <selection activeCell="B357" sqref="B357"/>
+    <sheetView tabSelected="1" topLeftCell="A369" workbookViewId="0">
+      <selection activeCell="B378" sqref="B378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6401,6 +6726,611 @@
         <v>1</v>
       </c>
     </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>690</v>
+      </c>
+      <c r="B358" t="s">
+        <v>691</v>
+      </c>
+      <c r="C358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>693</v>
+      </c>
+      <c r="B359" t="s">
+        <v>695</v>
+      </c>
+      <c r="C359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>694</v>
+      </c>
+      <c r="B360" t="s">
+        <v>696</v>
+      </c>
+      <c r="C360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>697</v>
+      </c>
+      <c r="B361" t="s">
+        <v>698</v>
+      </c>
+      <c r="C361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>699</v>
+      </c>
+      <c r="B362" t="s">
+        <v>700</v>
+      </c>
+      <c r="C362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>701</v>
+      </c>
+      <c r="B363" t="s">
+        <v>702</v>
+      </c>
+      <c r="C363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>703</v>
+      </c>
+      <c r="B364" t="s">
+        <v>704</v>
+      </c>
+      <c r="C364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>705</v>
+      </c>
+      <c r="B365" t="s">
+        <v>706</v>
+      </c>
+      <c r="C365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>707</v>
+      </c>
+      <c r="B366" t="s">
+        <v>708</v>
+      </c>
+      <c r="C366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>709</v>
+      </c>
+      <c r="B367" t="s">
+        <v>710</v>
+      </c>
+      <c r="C367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>711</v>
+      </c>
+      <c r="B368" t="s">
+        <v>712</v>
+      </c>
+      <c r="C368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>713</v>
+      </c>
+      <c r="B369" t="s">
+        <v>714</v>
+      </c>
+      <c r="C369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>715</v>
+      </c>
+      <c r="B370" t="s">
+        <v>716</v>
+      </c>
+      <c r="C370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>717</v>
+      </c>
+      <c r="B371" t="s">
+        <v>718</v>
+      </c>
+      <c r="C371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>719</v>
+      </c>
+      <c r="B372" t="s">
+        <v>720</v>
+      </c>
+      <c r="C372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>721</v>
+      </c>
+      <c r="B373" t="s">
+        <v>722</v>
+      </c>
+      <c r="C373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>723</v>
+      </c>
+      <c r="B374" t="s">
+        <v>724</v>
+      </c>
+      <c r="C374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>725</v>
+      </c>
+      <c r="B375" t="s">
+        <v>726</v>
+      </c>
+      <c r="C375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>727</v>
+      </c>
+      <c r="B376" t="s">
+        <v>728</v>
+      </c>
+      <c r="C376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>729</v>
+      </c>
+      <c r="B377" t="s">
+        <v>675</v>
+      </c>
+      <c r="C377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>730</v>
+      </c>
+      <c r="B378" t="s">
+        <v>797</v>
+      </c>
+      <c r="C378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>731</v>
+      </c>
+      <c r="B379" t="s">
+        <v>732</v>
+      </c>
+      <c r="C379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>733</v>
+      </c>
+      <c r="B380" t="s">
+        <v>734</v>
+      </c>
+      <c r="C380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>735</v>
+      </c>
+      <c r="B381" t="s">
+        <v>736</v>
+      </c>
+      <c r="C381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>737</v>
+      </c>
+      <c r="B382" t="s">
+        <v>738</v>
+      </c>
+      <c r="C382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>739</v>
+      </c>
+      <c r="B383" t="s">
+        <v>740</v>
+      </c>
+      <c r="C383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>741</v>
+      </c>
+      <c r="B384" t="s">
+        <v>742</v>
+      </c>
+      <c r="C384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>743</v>
+      </c>
+      <c r="B385" t="s">
+        <v>744</v>
+      </c>
+      <c r="C385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>745</v>
+      </c>
+      <c r="B386" t="s">
+        <v>746</v>
+      </c>
+      <c r="C386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>747</v>
+      </c>
+      <c r="B387" t="s">
+        <v>748</v>
+      </c>
+      <c r="C387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>749</v>
+      </c>
+      <c r="B388" t="s">
+        <v>750</v>
+      </c>
+      <c r="C388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>751</v>
+      </c>
+      <c r="B389" t="s">
+        <v>752</v>
+      </c>
+      <c r="C389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>753</v>
+      </c>
+      <c r="B390" t="s">
+        <v>754</v>
+      </c>
+      <c r="C390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>755</v>
+      </c>
+      <c r="B391" t="s">
+        <v>756</v>
+      </c>
+      <c r="C391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>757</v>
+      </c>
+      <c r="B392" t="s">
+        <v>758</v>
+      </c>
+      <c r="C392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>759</v>
+      </c>
+      <c r="B393" t="s">
+        <v>760</v>
+      </c>
+      <c r="C393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>761</v>
+      </c>
+      <c r="B394" t="s">
+        <v>762</v>
+      </c>
+      <c r="C394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>763</v>
+      </c>
+      <c r="B395" t="s">
+        <v>764</v>
+      </c>
+      <c r="C395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>765</v>
+      </c>
+      <c r="B396" t="s">
+        <v>766</v>
+      </c>
+      <c r="C396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>767</v>
+      </c>
+      <c r="B397" t="s">
+        <v>768</v>
+      </c>
+      <c r="C397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>769</v>
+      </c>
+      <c r="B398" t="s">
+        <v>770</v>
+      </c>
+      <c r="C398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>771</v>
+      </c>
+      <c r="B399" t="s">
+        <v>772</v>
+      </c>
+      <c r="C399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>692</v>
+      </c>
+      <c r="B400" t="s">
+        <v>773</v>
+      </c>
+      <c r="C400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>774</v>
+      </c>
+      <c r="B401" t="s">
+        <v>775</v>
+      </c>
+      <c r="C401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>776</v>
+      </c>
+      <c r="B402" t="s">
+        <v>777</v>
+      </c>
+      <c r="C402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>778</v>
+      </c>
+      <c r="B403" t="s">
+        <v>779</v>
+      </c>
+      <c r="C403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>780</v>
+      </c>
+      <c r="B404" t="s">
+        <v>781</v>
+      </c>
+      <c r="C404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>782</v>
+      </c>
+      <c r="B405" t="s">
+        <v>58</v>
+      </c>
+      <c r="C405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>783</v>
+      </c>
+      <c r="B406" t="s">
+        <v>784</v>
+      </c>
+      <c r="C406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>785</v>
+      </c>
+      <c r="B407" t="s">
+        <v>786</v>
+      </c>
+      <c r="C407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>787</v>
+      </c>
+      <c r="B408" t="s">
+        <v>788</v>
+      </c>
+      <c r="C408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>789</v>
+      </c>
+      <c r="B409" t="s">
+        <v>790</v>
+      </c>
+      <c r="C409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>791</v>
+      </c>
+      <c r="B410" t="s">
+        <v>792</v>
+      </c>
+      <c r="C410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>794</v>
+      </c>
+      <c r="B411" t="s">
+        <v>793</v>
+      </c>
+      <c r="C411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>795</v>
+      </c>
+      <c r="B412" t="s">
+        <v>796</v>
+      </c>
+      <c r="C412">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/translation/EngTranslate.xlsx
+++ b/public/translation/EngTranslate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCE26FC-8A40-4CBD-A406-CDE40A5A6517}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36CEED2-7C35-423A-AFFA-DCB8FB63E422}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="803">
   <si>
     <t>year</t>
   </si>
@@ -2440,6 +2440,21 @@
   </si>
   <si>
     <t>Home Page</t>
+  </si>
+  <si>
+    <t>records</t>
+  </si>
+  <si>
+    <t>Records</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>please_select_course_and_class</t>
+  </si>
+  <si>
+    <t>Please select class and course</t>
   </si>
 </sst>
 </file>
@@ -2788,10 +2803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C412"/>
+  <dimension ref="A1:C415"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A369" workbookViewId="0">
-      <selection activeCell="B378" sqref="B378"/>
+    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
+      <selection activeCell="A420" sqref="A420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7331,6 +7346,39 @@
         <v>1</v>
       </c>
     </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>798</v>
+      </c>
+      <c r="B413" t="s">
+        <v>799</v>
+      </c>
+      <c r="C413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>800</v>
+      </c>
+      <c r="B414" t="s">
+        <v>781</v>
+      </c>
+      <c r="C414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>801</v>
+      </c>
+      <c r="B415" t="s">
+        <v>802</v>
+      </c>
+      <c r="C415">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/translation/EngTranslate.xlsx
+++ b/public/translation/EngTranslate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnoiva\Tasks\20-9-2020\learnovia-backend\public\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36CEED2-7C35-423A-AFFA-DCB8FB63E422}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0B5CDD-761B-4B84-A4D9-0605B2C63847}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="805">
   <si>
     <t>year</t>
   </si>
@@ -2232,9 +2232,6 @@
     <t>minute/s</t>
   </si>
   <si>
-    <t>Minutes (s)</t>
-  </si>
-  <si>
     <t>attendance</t>
   </si>
   <si>
@@ -2455,6 +2452,15 @@
   </si>
   <si>
     <t>Please select class and course</t>
+  </si>
+  <si>
+    <t>Minute/s</t>
+  </si>
+  <si>
+    <t>last_action</t>
+  </si>
+  <si>
+    <t>Last Action</t>
   </si>
 </sst>
 </file>
@@ -2803,10 +2809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C415"/>
+  <dimension ref="A1:C416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="A420" sqref="A420"/>
+    <sheetView tabSelected="1" topLeftCell="A402" workbookViewId="0">
+      <selection activeCell="C416" sqref="C416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6944,7 +6950,7 @@
         <v>727</v>
       </c>
       <c r="B376" t="s">
-        <v>728</v>
+        <v>802</v>
       </c>
       <c r="C376">
         <v>1</v>
@@ -6952,7 +6958,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B377" t="s">
         <v>675</v>
@@ -6963,10 +6969,10 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B378" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C378">
         <v>1</v>
@@ -6974,10 +6980,10 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
+        <v>730</v>
+      </c>
+      <c r="B379" t="s">
         <v>731</v>
-      </c>
-      <c r="B379" t="s">
-        <v>732</v>
       </c>
       <c r="C379">
         <v>1</v>
@@ -6985,10 +6991,10 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
+        <v>732</v>
+      </c>
+      <c r="B380" t="s">
         <v>733</v>
-      </c>
-      <c r="B380" t="s">
-        <v>734</v>
       </c>
       <c r="C380">
         <v>1</v>
@@ -6996,10 +7002,10 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
+        <v>734</v>
+      </c>
+      <c r="B381" t="s">
         <v>735</v>
-      </c>
-      <c r="B381" t="s">
-        <v>736</v>
       </c>
       <c r="C381">
         <v>1</v>
@@ -7007,10 +7013,10 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
+        <v>736</v>
+      </c>
+      <c r="B382" t="s">
         <v>737</v>
-      </c>
-      <c r="B382" t="s">
-        <v>738</v>
       </c>
       <c r="C382">
         <v>1</v>
@@ -7018,10 +7024,10 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
+        <v>738</v>
+      </c>
+      <c r="B383" t="s">
         <v>739</v>
-      </c>
-      <c r="B383" t="s">
-        <v>740</v>
       </c>
       <c r="C383">
         <v>1</v>
@@ -7029,10 +7035,10 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
+        <v>740</v>
+      </c>
+      <c r="B384" t="s">
         <v>741</v>
-      </c>
-      <c r="B384" t="s">
-        <v>742</v>
       </c>
       <c r="C384">
         <v>1</v>
@@ -7040,10 +7046,10 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
+        <v>742</v>
+      </c>
+      <c r="B385" t="s">
         <v>743</v>
-      </c>
-      <c r="B385" t="s">
-        <v>744</v>
       </c>
       <c r="C385">
         <v>1</v>
@@ -7051,10 +7057,10 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
+        <v>744</v>
+      </c>
+      <c r="B386" t="s">
         <v>745</v>
-      </c>
-      <c r="B386" t="s">
-        <v>746</v>
       </c>
       <c r="C386">
         <v>1</v>
@@ -7062,10 +7068,10 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
+        <v>746</v>
+      </c>
+      <c r="B387" t="s">
         <v>747</v>
-      </c>
-      <c r="B387" t="s">
-        <v>748</v>
       </c>
       <c r="C387">
         <v>1</v>
@@ -7073,10 +7079,10 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
+        <v>748</v>
+      </c>
+      <c r="B388" t="s">
         <v>749</v>
-      </c>
-      <c r="B388" t="s">
-        <v>750</v>
       </c>
       <c r="C388">
         <v>1</v>
@@ -7084,10 +7090,10 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
+        <v>750</v>
+      </c>
+      <c r="B389" t="s">
         <v>751</v>
-      </c>
-      <c r="B389" t="s">
-        <v>752</v>
       </c>
       <c r="C389">
         <v>1</v>
@@ -7095,10 +7101,10 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
+        <v>752</v>
+      </c>
+      <c r="B390" t="s">
         <v>753</v>
-      </c>
-      <c r="B390" t="s">
-        <v>754</v>
       </c>
       <c r="C390">
         <v>1</v>
@@ -7106,10 +7112,10 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
+        <v>754</v>
+      </c>
+      <c r="B391" t="s">
         <v>755</v>
-      </c>
-      <c r="B391" t="s">
-        <v>756</v>
       </c>
       <c r="C391">
         <v>1</v>
@@ -7117,10 +7123,10 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
+        <v>756</v>
+      </c>
+      <c r="B392" t="s">
         <v>757</v>
-      </c>
-      <c r="B392" t="s">
-        <v>758</v>
       </c>
       <c r="C392">
         <v>1</v>
@@ -7128,10 +7134,10 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
+        <v>758</v>
+      </c>
+      <c r="B393" t="s">
         <v>759</v>
-      </c>
-      <c r="B393" t="s">
-        <v>760</v>
       </c>
       <c r="C393">
         <v>1</v>
@@ -7139,10 +7145,10 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
+        <v>760</v>
+      </c>
+      <c r="B394" t="s">
         <v>761</v>
-      </c>
-      <c r="B394" t="s">
-        <v>762</v>
       </c>
       <c r="C394">
         <v>1</v>
@@ -7150,10 +7156,10 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
+        <v>762</v>
+      </c>
+      <c r="B395" t="s">
         <v>763</v>
-      </c>
-      <c r="B395" t="s">
-        <v>764</v>
       </c>
       <c r="C395">
         <v>1</v>
@@ -7161,10 +7167,10 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
+        <v>764</v>
+      </c>
+      <c r="B396" t="s">
         <v>765</v>
-      </c>
-      <c r="B396" t="s">
-        <v>766</v>
       </c>
       <c r="C396">
         <v>1</v>
@@ -7172,10 +7178,10 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
+        <v>766</v>
+      </c>
+      <c r="B397" t="s">
         <v>767</v>
-      </c>
-      <c r="B397" t="s">
-        <v>768</v>
       </c>
       <c r="C397">
         <v>1</v>
@@ -7183,10 +7189,10 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
+        <v>768</v>
+      </c>
+      <c r="B398" t="s">
         <v>769</v>
-      </c>
-      <c r="B398" t="s">
-        <v>770</v>
       </c>
       <c r="C398">
         <v>1</v>
@@ -7194,10 +7200,10 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
+        <v>770</v>
+      </c>
+      <c r="B399" t="s">
         <v>771</v>
-      </c>
-      <c r="B399" t="s">
-        <v>772</v>
       </c>
       <c r="C399">
         <v>1</v>
@@ -7208,7 +7214,7 @@
         <v>692</v>
       </c>
       <c r="B400" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C400">
         <v>1</v>
@@ -7216,10 +7222,10 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
+        <v>773</v>
+      </c>
+      <c r="B401" t="s">
         <v>774</v>
-      </c>
-      <c r="B401" t="s">
-        <v>775</v>
       </c>
       <c r="C401">
         <v>1</v>
@@ -7227,10 +7233,10 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
+        <v>775</v>
+      </c>
+      <c r="B402" t="s">
         <v>776</v>
-      </c>
-      <c r="B402" t="s">
-        <v>777</v>
       </c>
       <c r="C402">
         <v>1</v>
@@ -7238,10 +7244,10 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
+        <v>777</v>
+      </c>
+      <c r="B403" t="s">
         <v>778</v>
-      </c>
-      <c r="B403" t="s">
-        <v>779</v>
       </c>
       <c r="C403">
         <v>1</v>
@@ -7249,10 +7255,10 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
+        <v>779</v>
+      </c>
+      <c r="B404" t="s">
         <v>780</v>
-      </c>
-      <c r="B404" t="s">
-        <v>781</v>
       </c>
       <c r="C404">
         <v>1</v>
@@ -7260,7 +7266,7 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B405" t="s">
         <v>58</v>
@@ -7271,10 +7277,10 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
+        <v>782</v>
+      </c>
+      <c r="B406" t="s">
         <v>783</v>
-      </c>
-      <c r="B406" t="s">
-        <v>784</v>
       </c>
       <c r="C406">
         <v>1</v>
@@ -7282,10 +7288,10 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
+        <v>784</v>
+      </c>
+      <c r="B407" t="s">
         <v>785</v>
-      </c>
-      <c r="B407" t="s">
-        <v>786</v>
       </c>
       <c r="C407">
         <v>1</v>
@@ -7293,10 +7299,10 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
+        <v>786</v>
+      </c>
+      <c r="B408" t="s">
         <v>787</v>
-      </c>
-      <c r="B408" t="s">
-        <v>788</v>
       </c>
       <c r="C408">
         <v>1</v>
@@ -7304,10 +7310,10 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
+        <v>788</v>
+      </c>
+      <c r="B409" t="s">
         <v>789</v>
-      </c>
-      <c r="B409" t="s">
-        <v>790</v>
       </c>
       <c r="C409">
         <v>1</v>
@@ -7315,10 +7321,10 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
+        <v>790</v>
+      </c>
+      <c r="B410" t="s">
         <v>791</v>
-      </c>
-      <c r="B410" t="s">
-        <v>792</v>
       </c>
       <c r="C410">
         <v>1</v>
@@ -7326,10 +7332,10 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B411" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C411">
         <v>1</v>
@@ -7337,10 +7343,10 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
+        <v>794</v>
+      </c>
+      <c r="B412" t="s">
         <v>795</v>
-      </c>
-      <c r="B412" t="s">
-        <v>796</v>
       </c>
       <c r="C412">
         <v>1</v>
@@ -7348,10 +7354,10 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
+        <v>797</v>
+      </c>
+      <c r="B413" t="s">
         <v>798</v>
-      </c>
-      <c r="B413" t="s">
-        <v>799</v>
       </c>
       <c r="C413">
         <v>1</v>
@@ -7359,10 +7365,10 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B414" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C414">
         <v>1</v>
@@ -7370,12 +7376,23 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
+        <v>800</v>
+      </c>
+      <c r="B415" t="s">
         <v>801</v>
       </c>
-      <c r="B415" t="s">
-        <v>802</v>
-      </c>
       <c r="C415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>803</v>
+      </c>
+      <c r="B416" t="s">
+        <v>804</v>
+      </c>
+      <c r="C416">
         <v>1</v>
       </c>
     </row>

--- a/public/translation/EngTranslate.xlsx
+++ b/public/translation/EngTranslate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnoiva\Tasks\20-9-2020\learnovia-backend\public\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0B5CDD-761B-4B84-A4D9-0605B2C63847}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2E861E-990C-47AA-9A03-2C171FCDEB21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="809">
   <si>
     <t>year</t>
   </si>
@@ -2461,6 +2461,18 @@
   </si>
   <si>
     <t>Last Action</t>
+  </si>
+  <si>
+    <t>drag</t>
+  </si>
+  <si>
+    <t>Drag</t>
+  </si>
+  <si>
+    <t>there_is_no_data_to_show</t>
+  </si>
+  <si>
+    <t>There is no data to show</t>
   </si>
 </sst>
 </file>
@@ -2809,10 +2821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C416"/>
+  <dimension ref="A1:C418"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A402" workbookViewId="0">
-      <selection activeCell="C416" sqref="C416"/>
+      <selection activeCell="B418" sqref="B418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7396,6 +7408,28 @@
         <v>1</v>
       </c>
     </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>805</v>
+      </c>
+      <c r="B417" t="s">
+        <v>806</v>
+      </c>
+      <c r="C417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>807</v>
+      </c>
+      <c r="B418" t="s">
+        <v>808</v>
+      </c>
+      <c r="C418">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/translation/EngTranslate.xlsx
+++ b/public/translation/EngTranslate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnoiva\Tasks\20-9-2020\learnovia-backend\public\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2E861E-990C-47AA-9A03-2C171FCDEB21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16304859-D1E8-4E90-A272-A6F3F32F195D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="815">
   <si>
     <t>year</t>
   </si>
@@ -2473,6 +2473,24 @@
   </si>
   <si>
     <t>There is no data to show</t>
+  </si>
+  <si>
+    <t>msq_duration_finish_quiz</t>
+  </si>
+  <si>
+    <t>Quiz duration finished</t>
+  </si>
+  <si>
+    <t>continue_last_attemp</t>
+  </si>
+  <si>
+    <t>Continue last attempt</t>
+  </si>
+  <si>
+    <t>answer_quiz_submitted_automatic</t>
+  </si>
+  <si>
+    <t>Quiz answer submitted automatically</t>
   </si>
 </sst>
 </file>
@@ -2821,10 +2839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C418"/>
+  <dimension ref="A1:C421"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A402" workbookViewId="0">
-      <selection activeCell="B418" sqref="B418"/>
+      <selection activeCell="B425" sqref="B425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7430,6 +7448,39 @@
         <v>1</v>
       </c>
     </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>809</v>
+      </c>
+      <c r="B419" t="s">
+        <v>810</v>
+      </c>
+      <c r="C419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>811</v>
+      </c>
+      <c r="B420" t="s">
+        <v>812</v>
+      </c>
+      <c r="C420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>813</v>
+      </c>
+      <c r="B421" t="s">
+        <v>814</v>
+      </c>
+      <c r="C421">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/translation/EngTranslate.xlsx
+++ b/public/translation/EngTranslate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnoiva\Tasks\20-9-2020\learnovia-backend\public\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16304859-D1E8-4E90-A272-A6F3F32F195D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA48CEB1-B960-4531-B222-B1822B2BAF3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="817">
   <si>
     <t>year</t>
   </si>
@@ -2491,6 +2491,12 @@
   </si>
   <si>
     <t>Quiz answer submitted automatically</t>
+  </si>
+  <si>
+    <t>msq_max_attemp</t>
+  </si>
+  <si>
+    <t>You have reached maximum attempt number</t>
   </si>
 </sst>
 </file>
@@ -2839,10 +2845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C421"/>
+  <dimension ref="A1:C422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A402" workbookViewId="0">
-      <selection activeCell="B425" sqref="B425"/>
+    <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0">
+      <selection activeCell="B422" sqref="B422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7481,6 +7487,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>815</v>
+      </c>
+      <c r="B422" t="s">
+        <v>816</v>
+      </c>
+      <c r="C422">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/translation/EngTranslate.xlsx
+++ b/public/translation/EngTranslate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnoiva\Tasks\20-9-2020\learnovia-backend\public\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA48CEB1-B960-4531-B222-B1822B2BAF3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F639F4A-C4F5-43D2-B327-876DD2D0F659}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="819">
   <si>
     <t>year</t>
   </si>
@@ -2497,6 +2497,12 @@
   </si>
   <si>
     <t>You have reached maximum attempt number</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>Items</t>
   </si>
 </sst>
 </file>
@@ -2845,10 +2851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C422"/>
+  <dimension ref="A1:C423"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0">
-      <selection activeCell="B422" sqref="B422"/>
+      <selection activeCell="B423" sqref="B423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7498,6 +7504,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>817</v>
+      </c>
+      <c r="B423" t="s">
+        <v>818</v>
+      </c>
+      <c r="C423">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/translation/EngTranslate.xlsx
+++ b/public/translation/EngTranslate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnoiva\Tasks\20-9-2020\learnovia-backend\public\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F639F4A-C4F5-43D2-B327-876DD2D0F659}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCD19AF-4A4B-4D14-91C9-A0FC7B8523B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="825">
   <si>
     <t>year</t>
   </si>
@@ -2503,6 +2503,24 @@
   </si>
   <si>
     <t>Items</t>
+  </si>
+  <si>
+    <t>content_answer</t>
+  </si>
+  <si>
+    <t>Content of Answer</t>
+  </si>
+  <si>
+    <t>msg_student_not_do_ass</t>
+  </si>
+  <si>
+    <t>Student didn't submit this assignment</t>
+  </si>
+  <si>
+    <t>birthdate</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
   </si>
 </sst>
 </file>
@@ -2851,10 +2869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C423"/>
+  <dimension ref="A1:C426"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0">
-      <selection activeCell="B423" sqref="B423"/>
+      <selection activeCell="B426" sqref="B426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7515,6 +7533,39 @@
         <v>1</v>
       </c>
     </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>819</v>
+      </c>
+      <c r="B424" t="s">
+        <v>820</v>
+      </c>
+      <c r="C424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>821</v>
+      </c>
+      <c r="B425" t="s">
+        <v>822</v>
+      </c>
+      <c r="C425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>823</v>
+      </c>
+      <c r="B426" t="s">
+        <v>824</v>
+      </c>
+      <c r="C426">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/translation/EngTranslate.xlsx
+++ b/public/translation/EngTranslate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnoiva\Tasks\20-9-2020\learnovia-backend\public\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCD19AF-4A4B-4D14-91C9-A0FC7B8523B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CB0FD1-3B56-4F2D-B704-EFCC7B858D8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="827">
   <si>
     <t>year</t>
   </si>
@@ -2521,6 +2521,12 @@
   </si>
   <si>
     <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>Parent</t>
   </si>
 </sst>
 </file>
@@ -2869,10 +2875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C426"/>
+  <dimension ref="A1:C427"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0">
-      <selection activeCell="B426" sqref="B426"/>
+      <selection activeCell="B427" sqref="B427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7566,6 +7572,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>825</v>
+      </c>
+      <c r="B427" t="s">
+        <v>826</v>
+      </c>
+      <c r="C427">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/translation/EngTranslate.xlsx
+++ b/public/translation/EngTranslate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnoiva\Tasks\20-9-2020\learnovia-backend\public\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CB0FD1-3B56-4F2D-B704-EFCC7B858D8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C69D15-A8DD-4558-BB2E-9C64870DD82F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="3060" yWindow="1392" windowWidth="15672" windowHeight="10752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="840">
   <si>
     <t>year</t>
   </si>
@@ -2527,6 +2527,45 @@
   </si>
   <si>
     <t>Parent</t>
+  </si>
+  <si>
+    <t>enrollment</t>
+  </si>
+  <si>
+    <t>Enrollment</t>
+  </si>
+  <si>
+    <t>msg_character</t>
+  </si>
+  <si>
+    <t>Please, enter characters only</t>
+  </si>
+  <si>
+    <t>delete_import</t>
+  </si>
+  <si>
+    <t>Delete imported users</t>
+  </si>
+  <si>
+    <t>user_import</t>
+  </si>
+  <si>
+    <t>Add imported users</t>
+  </si>
+  <si>
+    <t>notification</t>
+  </si>
+  <si>
+    <t>Notifications</t>
+  </si>
+  <si>
+    <t>types</t>
+  </si>
+  <si>
+    <t>Types</t>
+  </si>
+  <si>
+    <t>h5p</t>
   </si>
 </sst>
 </file>
@@ -2875,10 +2914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C427"/>
+  <dimension ref="A1:C434"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0">
-      <selection activeCell="B427" sqref="B427"/>
+      <selection activeCell="A434" sqref="A434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7583,6 +7622,83 @@
         <v>1</v>
       </c>
     </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>827</v>
+      </c>
+      <c r="B428" t="s">
+        <v>828</v>
+      </c>
+      <c r="C428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>829</v>
+      </c>
+      <c r="B429" t="s">
+        <v>830</v>
+      </c>
+      <c r="C429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>831</v>
+      </c>
+      <c r="B430" t="s">
+        <v>832</v>
+      </c>
+      <c r="C430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>833</v>
+      </c>
+      <c r="B431" t="s">
+        <v>834</v>
+      </c>
+      <c r="C431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>835</v>
+      </c>
+      <c r="B432" t="s">
+        <v>836</v>
+      </c>
+      <c r="C432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>837</v>
+      </c>
+      <c r="B433" t="s">
+        <v>838</v>
+      </c>
+      <c r="C433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>839</v>
+      </c>
+      <c r="B434" t="s">
+        <v>92</v>
+      </c>
+      <c r="C434">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/translation/EngTranslate.xlsx
+++ b/public/translation/EngTranslate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnoiva\Tasks\20-9-2020\learnovia-backend\public\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C69D15-A8DD-4558-BB2E-9C64870DD82F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C48E8A-CC5B-434C-88DC-32020432F272}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="3060" yWindow="1392" windowWidth="15672" windowHeight="10752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="844">
   <si>
     <t>year</t>
   </si>
@@ -2566,6 +2566,18 @@
   </si>
   <si>
     <t>h5p</t>
+  </si>
+  <si>
+    <t>hide</t>
+  </si>
+  <si>
+    <t>Hide</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>Show</t>
   </si>
 </sst>
 </file>
@@ -2914,10 +2926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C434"/>
+  <dimension ref="A1:C436"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0">
-      <selection activeCell="A434" sqref="A434"/>
+      <selection activeCell="C436" sqref="C436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7699,6 +7711,28 @@
         <v>1</v>
       </c>
     </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>840</v>
+      </c>
+      <c r="B435" t="s">
+        <v>841</v>
+      </c>
+      <c r="C435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>842</v>
+      </c>
+      <c r="B436" t="s">
+        <v>843</v>
+      </c>
+      <c r="C436">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/translation/EngTranslate.xlsx
+++ b/public/translation/EngTranslate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnoiva\Tasks\20-9-2020\learnovia-backend\public\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C48E8A-CC5B-434C-88DC-32020432F272}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A77C232-5266-4C3D-84F8-A3E058843622}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="846">
   <si>
     <t>year</t>
   </si>
@@ -2578,6 +2578,12 @@
   </si>
   <si>
     <t>Show</t>
+  </si>
+  <si>
+    <t>user/set-parent-child</t>
+  </si>
+  <si>
+    <t>Set parents and childs</t>
   </si>
 </sst>
 </file>
@@ -2926,10 +2932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C436"/>
+  <dimension ref="A1:C437"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0">
-      <selection activeCell="C436" sqref="C436"/>
+      <selection activeCell="B437" sqref="B437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7733,6 +7739,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>844</v>
+      </c>
+      <c r="B437" t="s">
+        <v>845</v>
+      </c>
+      <c r="C437">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/translation/EngTranslate.xlsx
+++ b/public/translation/EngTranslate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnoiva\Tasks\20-9-2020\learnovia-backend\public\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A77C232-5266-4C3D-84F8-A3E058843622}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECECB096-5FCD-4034-B94B-62829D40E279}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="858">
   <si>
     <t>year</t>
   </si>
@@ -2584,6 +2584,42 @@
   </si>
   <si>
     <t>Set parents and childs</t>
+  </si>
+  <si>
+    <t>short_name</t>
+  </si>
+  <si>
+    <t>Short name</t>
+  </si>
+  <si>
+    <t>Full name</t>
+  </si>
+  <si>
+    <t>logs</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>add_question_error</t>
+  </si>
+  <si>
+    <t>Note question assign to all classes and lessons in selected course only</t>
+  </si>
+  <si>
+    <t>item_per_page</t>
+  </si>
+  <si>
+    <t>Items per page</t>
+  </si>
+  <si>
+    <t>this_record_is_hide</t>
+  </si>
+  <si>
+    <t>The recording availability time for this virtual classroom has expired</t>
   </si>
 </sst>
 </file>
@@ -2932,10 +2968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C437"/>
+  <dimension ref="A1:C445"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0">
-      <selection activeCell="B437" sqref="B437"/>
+      <selection activeCell="B435" sqref="B435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7750,6 +7786,94 @@
         <v>1</v>
       </c>
     </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>846</v>
+      </c>
+      <c r="B438" t="s">
+        <v>847</v>
+      </c>
+      <c r="C438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>711</v>
+      </c>
+      <c r="B439" t="s">
+        <v>848</v>
+      </c>
+      <c r="C439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>849</v>
+      </c>
+      <c r="B440" t="s">
+        <v>795</v>
+      </c>
+      <c r="C440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>850</v>
+      </c>
+      <c r="B441" t="s">
+        <v>851</v>
+      </c>
+      <c r="C441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>852</v>
+      </c>
+      <c r="B442" t="s">
+        <v>853</v>
+      </c>
+      <c r="C442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>677</v>
+      </c>
+      <c r="B443" t="s">
+        <v>677</v>
+      </c>
+      <c r="C443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>854</v>
+      </c>
+      <c r="B444" t="s">
+        <v>855</v>
+      </c>
+      <c r="C444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>856</v>
+      </c>
+      <c r="B445" t="s">
+        <v>857</v>
+      </c>
+      <c r="C445">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/translation/EngTranslate.xlsx
+++ b/public/translation/EngTranslate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnoiva\Tasks\20-9-2020\learnovia-backend\public\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECECB096-5FCD-4034-B94B-62829D40E279}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32917382-F9E3-43A2-AD85-48C74075A85A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="864">
   <si>
     <t>year</t>
   </si>
@@ -2620,6 +2620,24 @@
   </si>
   <si>
     <t>The recording availability time for this virtual classroom has expired</t>
+  </si>
+  <si>
+    <t>shuffling</t>
+  </si>
+  <si>
+    <t>Shuffling</t>
+  </si>
+  <si>
+    <t>questions_answers</t>
+  </si>
+  <si>
+    <t>Questions and Answers</t>
+  </si>
+  <si>
+    <t>no_shuffle</t>
+  </si>
+  <si>
+    <t>Without shuffle</t>
   </si>
 </sst>
 </file>
@@ -2968,10 +2986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C445"/>
+  <dimension ref="A1:C448"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0">
-      <selection activeCell="B435" sqref="B435"/>
+    <sheetView tabSelected="1" topLeftCell="A423" workbookViewId="0">
+      <selection activeCell="B448" sqref="B448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7874,6 +7892,39 @@
         <v>1</v>
       </c>
     </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>858</v>
+      </c>
+      <c r="B446" t="s">
+        <v>859</v>
+      </c>
+      <c r="C446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>860</v>
+      </c>
+      <c r="B447" t="s">
+        <v>861</v>
+      </c>
+      <c r="C447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>862</v>
+      </c>
+      <c r="B448" t="s">
+        <v>863</v>
+      </c>
+      <c r="C448">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/translation/EngTranslate.xlsx
+++ b/public/translation/EngTranslate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnoiva\Tasks\20-9-2020\learnovia-backend\public\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32917382-F9E3-43A2-AD85-48C74075A85A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E855743-0074-4BBB-A800-C79182D66A0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="872">
   <si>
     <t>year</t>
   </si>
@@ -2638,6 +2638,30 @@
   </si>
   <si>
     <t>Without shuffle</t>
+  </si>
+  <si>
+    <t>choose_your_son!</t>
+  </si>
+  <si>
+    <t>to_see_his/her_progress_and_overview</t>
+  </si>
+  <si>
+    <t>To see his/her progress and overview</t>
+  </si>
+  <si>
+    <t>you_don`t_have_any_children</t>
+  </si>
+  <si>
+    <t>switch_son</t>
+  </si>
+  <si>
+    <t>Switch son</t>
+  </si>
+  <si>
+    <t>You don't have available children</t>
+  </si>
+  <si>
+    <t>Please choose your son!</t>
   </si>
 </sst>
 </file>
@@ -2986,10 +3010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C448"/>
+  <dimension ref="A1:C452"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A423" workbookViewId="0">
-      <selection activeCell="B448" sqref="B448"/>
+    <sheetView tabSelected="1" topLeftCell="A429" workbookViewId="0">
+      <selection activeCell="B450" sqref="B450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7925,6 +7949,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>864</v>
+      </c>
+      <c r="B449" t="s">
+        <v>871</v>
+      </c>
+      <c r="C449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>865</v>
+      </c>
+      <c r="B450" t="s">
+        <v>866</v>
+      </c>
+      <c r="C450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>867</v>
+      </c>
+      <c r="B451" t="s">
+        <v>870</v>
+      </c>
+      <c r="C451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>868</v>
+      </c>
+      <c r="B452" t="s">
+        <v>869</v>
+      </c>
+      <c r="C452">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/translation/EngTranslate.xlsx
+++ b/public/translation/EngTranslate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnoiva\Tasks\20-9-2020\learnovia-backend\public\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E855743-0074-4BBB-A800-C79182D66A0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B463F42-E35A-4DD7-A60B-CED13F3F1996}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="884">
   <si>
     <t>year</t>
   </si>
@@ -2662,6 +2662,42 @@
   </si>
   <si>
     <t>Please choose your son!</t>
+  </si>
+  <si>
+    <t>you_chating_about</t>
+  </si>
+  <si>
+    <t>You are chatting with/about</t>
+  </si>
+  <si>
+    <t>messages</t>
+  </si>
+  <si>
+    <t>Messages</t>
+  </si>
+  <si>
+    <t>type_something_here</t>
+  </si>
+  <si>
+    <t>compose_message</t>
+  </si>
+  <si>
+    <t>Bulk message</t>
+  </si>
+  <si>
+    <t>Type something here</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>Month</t>
   </si>
 </sst>
 </file>
@@ -3010,10 +3046,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C452"/>
+  <dimension ref="A1:C459"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A429" workbookViewId="0">
-      <selection activeCell="B450" sqref="B450"/>
+    <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
+      <selection activeCell="B459" sqref="B459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7993,6 +8029,83 @@
         <v>1</v>
       </c>
     </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>83</v>
+      </c>
+      <c r="B453" t="s">
+        <v>84</v>
+      </c>
+      <c r="C453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>872</v>
+      </c>
+      <c r="B454" t="s">
+        <v>873</v>
+      </c>
+      <c r="C454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>874</v>
+      </c>
+      <c r="B455" t="s">
+        <v>875</v>
+      </c>
+      <c r="C455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>876</v>
+      </c>
+      <c r="B456" t="s">
+        <v>879</v>
+      </c>
+      <c r="C456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>877</v>
+      </c>
+      <c r="B457" t="s">
+        <v>878</v>
+      </c>
+      <c r="C457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>880</v>
+      </c>
+      <c r="B458" t="s">
+        <v>881</v>
+      </c>
+      <c r="C458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>882</v>
+      </c>
+      <c r="B459" t="s">
+        <v>883</v>
+      </c>
+      <c r="C459">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/translation/EngTranslate.xlsx
+++ b/public/translation/EngTranslate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnoiva\Tasks\20-9-2020\learnovia-backend\public\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B463F42-E35A-4DD7-A60B-CED13F3F1996}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D7CF44-C104-40DD-A374-7816B10D17CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="896">
   <si>
     <t>year</t>
   </si>
@@ -2661,9 +2661,6 @@
     <t>You don't have available children</t>
   </si>
   <si>
-    <t>Please choose your son!</t>
-  </si>
-  <si>
     <t>you_chating_about</t>
   </si>
   <si>
@@ -2698,6 +2695,45 @@
   </si>
   <si>
     <t>Month</t>
+  </si>
+  <si>
+    <t>Please, choose your son/daughter!</t>
+  </si>
+  <si>
+    <t>view_attemps</t>
+  </si>
+  <si>
+    <t>View attempts</t>
+  </si>
+  <si>
+    <t>write_here</t>
+  </si>
+  <si>
+    <t>Write here</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>audio</t>
+  </si>
+  <si>
+    <t>Audio</t>
+  </si>
+  <si>
+    <t>finsh_recording</t>
+  </si>
+  <si>
+    <t>Finish recording</t>
+  </si>
+  <si>
+    <t>pause</t>
+  </si>
+  <si>
+    <t>Pause</t>
   </si>
 </sst>
 </file>
@@ -3046,10 +3082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C459"/>
+  <dimension ref="A1:C465"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="B459" sqref="B459"/>
+    <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
+      <selection activeCell="A459" sqref="A459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7990,7 +8026,7 @@
         <v>864</v>
       </c>
       <c r="B449" t="s">
-        <v>871</v>
+        <v>883</v>
       </c>
       <c r="C449">
         <v>1</v>
@@ -8042,10 +8078,10 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
+        <v>871</v>
+      </c>
+      <c r="B454" t="s">
         <v>872</v>
-      </c>
-      <c r="B454" t="s">
-        <v>873</v>
       </c>
       <c r="C454">
         <v>1</v>
@@ -8053,10 +8089,10 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
+        <v>873</v>
+      </c>
+      <c r="B455" t="s">
         <v>874</v>
-      </c>
-      <c r="B455" t="s">
-        <v>875</v>
       </c>
       <c r="C455">
         <v>1</v>
@@ -8064,10 +8100,10 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B456" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C456">
         <v>1</v>
@@ -8075,10 +8111,10 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
+        <v>876</v>
+      </c>
+      <c r="B457" t="s">
         <v>877</v>
-      </c>
-      <c r="B457" t="s">
-        <v>878</v>
       </c>
       <c r="C457">
         <v>1</v>
@@ -8086,10 +8122,10 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
+        <v>879</v>
+      </c>
+      <c r="B458" t="s">
         <v>880</v>
-      </c>
-      <c r="B458" t="s">
-        <v>881</v>
       </c>
       <c r="C458">
         <v>1</v>
@@ -8097,12 +8133,78 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
+        <v>881</v>
+      </c>
+      <c r="B459" t="s">
         <v>882</v>
       </c>
-      <c r="B459" t="s">
-        <v>883</v>
-      </c>
       <c r="C459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>884</v>
+      </c>
+      <c r="B460" t="s">
+        <v>885</v>
+      </c>
+      <c r="C460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>886</v>
+      </c>
+      <c r="B461" t="s">
+        <v>887</v>
+      </c>
+      <c r="C461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>888</v>
+      </c>
+      <c r="B462" t="s">
+        <v>889</v>
+      </c>
+      <c r="C462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>890</v>
+      </c>
+      <c r="B463" t="s">
+        <v>891</v>
+      </c>
+      <c r="C463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>892</v>
+      </c>
+      <c r="B464" t="s">
+        <v>893</v>
+      </c>
+      <c r="C464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>894</v>
+      </c>
+      <c r="B465" t="s">
+        <v>895</v>
+      </c>
+      <c r="C465">
         <v>1</v>
       </c>
     </row>

--- a/public/translation/EngTranslate.xlsx
+++ b/public/translation/EngTranslate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnoiva\Tasks\20-9-2020\learnovia-backend\public\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D7CF44-C104-40DD-A374-7816B10D17CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA451F0-36AD-4482-8DF6-2B5AAF33A759}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="901">
   <si>
     <t>year</t>
   </si>
@@ -2734,6 +2734,21 @@
   </si>
   <si>
     <t>Pause</t>
+  </si>
+  <si>
+    <t>You did not answer this assignment</t>
+  </si>
+  <si>
+    <t>teacher</t>
+  </si>
+  <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>write_your_comment</t>
+  </si>
+  <si>
+    <t>Write your comment</t>
   </si>
 </sst>
 </file>
@@ -3082,10 +3097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C465"/>
+  <dimension ref="A1:C468"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
-      <selection activeCell="A459" sqref="A459"/>
+    <sheetView tabSelected="1" topLeftCell="A442" workbookViewId="0">
+      <selection activeCell="B468" sqref="B468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8208,6 +8223,39 @@
         <v>1</v>
       </c>
     </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>766</v>
+      </c>
+      <c r="B466" t="s">
+        <v>896</v>
+      </c>
+      <c r="C466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>897</v>
+      </c>
+      <c r="B467" t="s">
+        <v>898</v>
+      </c>
+      <c r="C467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>899</v>
+      </c>
+      <c r="B468" t="s">
+        <v>900</v>
+      </c>
+      <c r="C468">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/translation/EngTranslate.xlsx
+++ b/public/translation/EngTranslate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnoiva\Tasks\20-9-2020\learnovia-backend\public\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA451F0-36AD-4482-8DF6-2B5AAF33A759}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4329DC0-D175-4CE6-971E-4DC5604ABAEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="903">
   <si>
     <t>year</t>
   </si>
@@ -2749,6 +2749,12 @@
   </si>
   <si>
     <t>Write your comment</t>
+  </si>
+  <si>
+    <t>there_are_no_parents</t>
+  </si>
+  <si>
+    <t>There are no parents</t>
   </si>
 </sst>
 </file>
@@ -3097,10 +3103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C468"/>
+  <dimension ref="A1:C469"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A442" workbookViewId="0">
-      <selection activeCell="B468" sqref="B468"/>
+      <selection activeCell="B469" sqref="B469"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8256,6 +8262,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>901</v>
+      </c>
+      <c r="B469" t="s">
+        <v>902</v>
+      </c>
+      <c r="C469">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/translation/EngTranslate.xlsx
+++ b/public/translation/EngTranslate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnoiva\Tasks\20-9-2020\learnovia-backend\public\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4329DC0-D175-4CE6-971E-4DC5604ABAEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F9552C-F209-468C-A153-34E0F900D29C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="927">
   <si>
     <t>year</t>
   </si>
@@ -2755,6 +2755,78 @@
   </si>
   <si>
     <t>There are no parents</t>
+  </si>
+  <si>
+    <t>attendance_report</t>
+  </si>
+  <si>
+    <t>Attendance report</t>
+  </si>
+  <si>
+    <t>teacher_name</t>
+  </si>
+  <si>
+    <t>Teacher name</t>
+  </si>
+  <si>
+    <t>lesson_name</t>
+  </si>
+  <si>
+    <t>Classroom name</t>
+  </si>
+  <si>
+    <t>student_count</t>
+  </si>
+  <si>
+    <t>Students count</t>
+  </si>
+  <si>
+    <t>attend_count</t>
+  </si>
+  <si>
+    <t>Presence count</t>
+  </si>
+  <si>
+    <t>absent_count</t>
+  </si>
+  <si>
+    <t>Absence count</t>
+  </si>
+  <si>
+    <t>class_start</t>
+  </si>
+  <si>
+    <t>class_end</t>
+  </si>
+  <si>
+    <t>Starting virtual classroom</t>
+  </si>
+  <si>
+    <t>Ending virtual classroom</t>
+  </si>
+  <si>
+    <t>late_time</t>
+  </si>
+  <si>
+    <t>Delay period</t>
+  </si>
+  <si>
+    <t>actutal_end_date</t>
+  </si>
+  <si>
+    <t>Actual end date</t>
+  </si>
+  <si>
+    <t>Actual start date</t>
+  </si>
+  <si>
+    <t>actutal_start_date</t>
+  </si>
+  <si>
+    <t>mark_all_as_read</t>
+  </si>
+  <si>
+    <t>Mark all read</t>
   </si>
 </sst>
 </file>
@@ -3103,10 +3175,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C469"/>
+  <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A442" workbookViewId="0">
-      <selection activeCell="B469" sqref="B469"/>
+    <sheetView tabSelected="1" topLeftCell="A459" workbookViewId="0">
+      <selection activeCell="H476" sqref="H476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8273,6 +8345,138 @@
         <v>1</v>
       </c>
     </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>903</v>
+      </c>
+      <c r="B470" t="s">
+        <v>904</v>
+      </c>
+      <c r="C470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>905</v>
+      </c>
+      <c r="B471" t="s">
+        <v>906</v>
+      </c>
+      <c r="C471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>907</v>
+      </c>
+      <c r="B472" t="s">
+        <v>908</v>
+      </c>
+      <c r="C472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>909</v>
+      </c>
+      <c r="B473" t="s">
+        <v>910</v>
+      </c>
+      <c r="C473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>911</v>
+      </c>
+      <c r="B474" t="s">
+        <v>912</v>
+      </c>
+      <c r="C474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>913</v>
+      </c>
+      <c r="B475" t="s">
+        <v>914</v>
+      </c>
+      <c r="C475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>915</v>
+      </c>
+      <c r="B476" t="s">
+        <v>917</v>
+      </c>
+      <c r="C476">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>916</v>
+      </c>
+      <c r="B477" t="s">
+        <v>918</v>
+      </c>
+      <c r="C477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>919</v>
+      </c>
+      <c r="B478" t="s">
+        <v>920</v>
+      </c>
+      <c r="C478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>921</v>
+      </c>
+      <c r="B479" t="s">
+        <v>922</v>
+      </c>
+      <c r="C479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>924</v>
+      </c>
+      <c r="B480" t="s">
+        <v>923</v>
+      </c>
+      <c r="C480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>925</v>
+      </c>
+      <c r="B481" t="s">
+        <v>926</v>
+      </c>
+      <c r="C481">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/translation/EngTranslate.xlsx
+++ b/public/translation/EngTranslate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnoiva\Tasks\20-9-2020\learnovia-backend\public\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F9552C-F209-468C-A153-34E0F900D29C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADF3CAD-91AF-41F9-9829-5062701AB734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="955">
   <si>
     <t>year</t>
   </si>
@@ -2827,6 +2827,90 @@
   </si>
   <si>
     <t>Mark all read</t>
+  </si>
+  <si>
+    <t>report/active_users</t>
+  </si>
+  <si>
+    <t>Active users report</t>
+  </si>
+  <si>
+    <t>Reports</t>
+  </si>
+  <si>
+    <t>reports</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>offline</t>
+  </si>
+  <si>
+    <t>Offline</t>
+  </si>
+  <si>
+    <t>true/false</t>
+  </si>
+  <si>
+    <t>True/False</t>
+  </si>
+  <si>
+    <t>no_file</t>
+  </si>
+  <si>
+    <t>No file</t>
+  </si>
+  <si>
+    <t>active_user_report</t>
+  </si>
+  <si>
+    <t>total_active_student</t>
+  </si>
+  <si>
+    <t>Active students number</t>
+  </si>
+  <si>
+    <t>specific_time</t>
+  </si>
+  <si>
+    <t>Specific time</t>
+  </si>
+  <si>
+    <t>chart</t>
+  </si>
+  <si>
+    <t>Chart</t>
+  </si>
+  <si>
+    <t>reload</t>
+  </si>
+  <si>
+    <t>Reload</t>
+  </si>
+  <si>
+    <t>since</t>
+  </si>
+  <si>
+    <t>Since</t>
+  </si>
+  <si>
+    <t>report/in_active_users</t>
+  </si>
+  <si>
+    <t>Inactive users report</t>
+  </si>
+  <si>
+    <t>send</t>
+  </si>
+  <si>
+    <t>Send</t>
+  </si>
+  <si>
+    <t>inactive_user_report</t>
   </si>
 </sst>
 </file>
@@ -3175,10 +3259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C481"/>
+  <dimension ref="A1:C497"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A459" workbookViewId="0">
-      <selection activeCell="H476" sqref="H476"/>
+    <sheetView tabSelected="1" topLeftCell="A470" workbookViewId="0">
+      <selection activeCell="H479" sqref="H479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8477,6 +8561,182 @@
         <v>1</v>
       </c>
     </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>927</v>
+      </c>
+      <c r="B482" t="s">
+        <v>928</v>
+      </c>
+      <c r="C482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>930</v>
+      </c>
+      <c r="B483" t="s">
+        <v>929</v>
+      </c>
+      <c r="C483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>931</v>
+      </c>
+      <c r="B484" t="s">
+        <v>932</v>
+      </c>
+      <c r="C484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>933</v>
+      </c>
+      <c r="B485" t="s">
+        <v>934</v>
+      </c>
+      <c r="C485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>935</v>
+      </c>
+      <c r="B486" t="s">
+        <v>936</v>
+      </c>
+      <c r="C486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>937</v>
+      </c>
+      <c r="B487" t="s">
+        <v>938</v>
+      </c>
+      <c r="C487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>939</v>
+      </c>
+      <c r="B488" t="s">
+        <v>928</v>
+      </c>
+      <c r="C488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>940</v>
+      </c>
+      <c r="B489" t="s">
+        <v>941</v>
+      </c>
+      <c r="C489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>942</v>
+      </c>
+      <c r="B490" t="s">
+        <v>943</v>
+      </c>
+      <c r="C490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>944</v>
+      </c>
+      <c r="B491" t="s">
+        <v>945</v>
+      </c>
+      <c r="C491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>946</v>
+      </c>
+      <c r="B492" t="s">
+        <v>947</v>
+      </c>
+      <c r="C492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>948</v>
+      </c>
+      <c r="B493" t="s">
+        <v>949</v>
+      </c>
+      <c r="C493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>950</v>
+      </c>
+      <c r="B494" t="s">
+        <v>951</v>
+      </c>
+      <c r="C494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>952</v>
+      </c>
+      <c r="B495" t="s">
+        <v>953</v>
+      </c>
+      <c r="C495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>277</v>
+      </c>
+      <c r="B496" t="s">
+        <v>278</v>
+      </c>
+      <c r="C496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>954</v>
+      </c>
+      <c r="B497" t="s">
+        <v>951</v>
+      </c>
+      <c r="C497">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/translation/EngTranslate.xlsx
+++ b/public/translation/EngTranslate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnoiva\Tasks\20-9-2020\learnovia-backend\public\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADF3CAD-91AF-41F9-9829-5062701AB734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD7ABF5-20CA-4869-91E0-B8B69862ABB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2829,9 +2829,6 @@
     <t>Mark all read</t>
   </si>
   <si>
-    <t>report/active_users</t>
-  </si>
-  <si>
     <t>Active users report</t>
   </si>
   <si>
@@ -2898,9 +2895,6 @@
     <t>Since</t>
   </si>
   <si>
-    <t>report/in_active_users</t>
-  </si>
-  <si>
     <t>Inactive users report</t>
   </si>
   <si>
@@ -2911,6 +2905,12 @@
   </si>
   <si>
     <t>inactive_user_report</t>
+  </si>
+  <si>
+    <t>reports/in_active_users</t>
+  </si>
+  <si>
+    <t>reports/active_users</t>
   </si>
 </sst>
 </file>
@@ -3262,7 +3262,7 @@
   <dimension ref="A1:C497"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A470" workbookViewId="0">
-      <selection activeCell="H479" sqref="H479"/>
+      <selection activeCell="A482" sqref="A482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8563,10 +8563,10 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
+        <v>954</v>
+      </c>
+      <c r="B482" t="s">
         <v>927</v>
-      </c>
-      <c r="B482" t="s">
-        <v>928</v>
       </c>
       <c r="C482">
         <v>1</v>
@@ -8574,10 +8574,10 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B483" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C483">
         <v>1</v>
@@ -8585,10 +8585,10 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
+        <v>930</v>
+      </c>
+      <c r="B484" t="s">
         <v>931</v>
-      </c>
-      <c r="B484" t="s">
-        <v>932</v>
       </c>
       <c r="C484">
         <v>1</v>
@@ -8596,10 +8596,10 @@
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
+        <v>932</v>
+      </c>
+      <c r="B485" t="s">
         <v>933</v>
-      </c>
-      <c r="B485" t="s">
-        <v>934</v>
       </c>
       <c r="C485">
         <v>1</v>
@@ -8607,10 +8607,10 @@
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
+        <v>934</v>
+      </c>
+      <c r="B486" t="s">
         <v>935</v>
-      </c>
-      <c r="B486" t="s">
-        <v>936</v>
       </c>
       <c r="C486">
         <v>1</v>
@@ -8618,10 +8618,10 @@
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
+        <v>936</v>
+      </c>
+      <c r="B487" t="s">
         <v>937</v>
-      </c>
-      <c r="B487" t="s">
-        <v>938</v>
       </c>
       <c r="C487">
         <v>1</v>
@@ -8629,10 +8629,10 @@
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B488" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C488">
         <v>1</v>
@@ -8640,10 +8640,10 @@
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
+        <v>939</v>
+      </c>
+      <c r="B489" t="s">
         <v>940</v>
-      </c>
-      <c r="B489" t="s">
-        <v>941</v>
       </c>
       <c r="C489">
         <v>1</v>
@@ -8651,10 +8651,10 @@
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
+        <v>941</v>
+      </c>
+      <c r="B490" t="s">
         <v>942</v>
-      </c>
-      <c r="B490" t="s">
-        <v>943</v>
       </c>
       <c r="C490">
         <v>1</v>
@@ -8662,10 +8662,10 @@
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
+        <v>943</v>
+      </c>
+      <c r="B491" t="s">
         <v>944</v>
-      </c>
-      <c r="B491" t="s">
-        <v>945</v>
       </c>
       <c r="C491">
         <v>1</v>
@@ -8673,10 +8673,10 @@
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
+        <v>945</v>
+      </c>
+      <c r="B492" t="s">
         <v>946</v>
-      </c>
-      <c r="B492" t="s">
-        <v>947</v>
       </c>
       <c r="C492">
         <v>1</v>
@@ -8684,10 +8684,10 @@
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
+        <v>947</v>
+      </c>
+      <c r="B493" t="s">
         <v>948</v>
-      </c>
-      <c r="B493" t="s">
-        <v>949</v>
       </c>
       <c r="C493">
         <v>1</v>
@@ -8695,10 +8695,10 @@
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="B494" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C494">
         <v>1</v>
@@ -8706,10 +8706,10 @@
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B495" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C495">
         <v>1</v>
@@ -8728,10 +8728,10 @@
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B497" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C497">
         <v>1</v>

--- a/public/translation/EngTranslate.xlsx
+++ b/public/translation/EngTranslate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnoiva\Tasks\20-9-2020\learnovia-backend\public\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD7ABF5-20CA-4869-91E0-B8B69862ABB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9796DEB9-D778-4CC4-A8AE-C3502D3252D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="965">
   <si>
     <t>year</t>
   </si>
@@ -2911,6 +2911,36 @@
   </si>
   <si>
     <t>reports/active_users</t>
+  </si>
+  <si>
+    <t>bulk</t>
+  </si>
+  <si>
+    <t>Bulk</t>
+  </si>
+  <si>
+    <t>reports/overall_seen_report</t>
+  </si>
+  <si>
+    <t>Overall seen report</t>
+  </si>
+  <si>
+    <t>seen_report</t>
+  </si>
+  <si>
+    <t>Seen report</t>
+  </si>
+  <si>
+    <t>seen_item</t>
+  </si>
+  <si>
+    <t>Seen item</t>
+  </si>
+  <si>
+    <t>number_of_users</t>
+  </si>
+  <si>
+    <t>Number of users</t>
   </si>
 </sst>
 </file>
@@ -3259,10 +3289,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C497"/>
+  <dimension ref="A1:C502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A470" workbookViewId="0">
-      <selection activeCell="A482" sqref="A482"/>
+    <sheetView tabSelected="1" topLeftCell="A478" workbookViewId="0">
+      <selection activeCell="D496" sqref="D496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8737,6 +8767,61 @@
         <v>1</v>
       </c>
     </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>955</v>
+      </c>
+      <c r="B498" t="s">
+        <v>956</v>
+      </c>
+      <c r="C498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>957</v>
+      </c>
+      <c r="B499" t="s">
+        <v>958</v>
+      </c>
+      <c r="C499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>959</v>
+      </c>
+      <c r="B500" t="s">
+        <v>960</v>
+      </c>
+      <c r="C500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>961</v>
+      </c>
+      <c r="B501" t="s">
+        <v>962</v>
+      </c>
+      <c r="C501">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>963</v>
+      </c>
+      <c r="B502" t="s">
+        <v>964</v>
+      </c>
+      <c r="C502">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/translation/EngTranslate.xlsx
+++ b/public/translation/EngTranslate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnoiva\Tasks\20-9-2020\learnovia-backend\public\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9796DEB9-D778-4CC4-A8AE-C3502D3252D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B2C65B-3D8B-453F-834D-E3ABE53C7F9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="965">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="974">
   <si>
     <t>year</t>
   </si>
@@ -2941,6 +2941,33 @@
   </si>
   <si>
     <t>Number of users</t>
+  </si>
+  <si>
+    <t>viewed</t>
+  </si>
+  <si>
+    <t>Viewed</t>
+  </si>
+  <si>
+    <t>must_choose_file_or_content</t>
+  </si>
+  <si>
+    <t>You must choose file or content</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>publish_date</t>
+  </si>
+  <si>
+    <t>Publish date</t>
+  </si>
+  <si>
+    <t>embedded link</t>
   </si>
 </sst>
 </file>
@@ -3289,10 +3316,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C502"/>
+  <dimension ref="A1:C508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A478" workbookViewId="0">
-      <selection activeCell="D496" sqref="D496"/>
+    <sheetView tabSelected="1" topLeftCell="A491" workbookViewId="0">
+      <selection activeCell="B510" sqref="B510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8822,6 +8849,72 @@
         <v>1</v>
       </c>
     </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>965</v>
+      </c>
+      <c r="B503" t="s">
+        <v>966</v>
+      </c>
+      <c r="C503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>967</v>
+      </c>
+      <c r="B504" t="s">
+        <v>968</v>
+      </c>
+      <c r="C504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>969</v>
+      </c>
+      <c r="B505" t="s">
+        <v>970</v>
+      </c>
+      <c r="C505">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>766</v>
+      </c>
+      <c r="B506" t="s">
+        <v>767</v>
+      </c>
+      <c r="C506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>971</v>
+      </c>
+      <c r="B507" t="s">
+        <v>972</v>
+      </c>
+      <c r="C507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>585</v>
+      </c>
+      <c r="B508" t="s">
+        <v>973</v>
+      </c>
+      <c r="C508">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/translation/EngTranslate.xlsx
+++ b/public/translation/EngTranslate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnoiva\Tasks\20-9-2020\learnovia-backend\public\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B2C65B-3D8B-453F-834D-E3ABE53C7F9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3B1472-8E85-407E-94FF-029059537BE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="732" yWindow="732" windowWidth="15672" windowHeight="10752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="982">
   <si>
     <t>year</t>
   </si>
@@ -2968,6 +2968,30 @@
   </si>
   <si>
     <t>embedded link</t>
+  </si>
+  <si>
+    <t>invalid</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>you_didn't_answer_this_quiz</t>
+  </si>
+  <si>
+    <t>You didn't answer this quiz</t>
+  </si>
+  <si>
+    <t>allow_edit_answer</t>
+  </si>
+  <si>
+    <t>Allow students to edit answer</t>
+  </si>
+  <si>
+    <t>msg_confirm_edit_answer</t>
+  </si>
+  <si>
+    <t>Are you sure you want to edit your answer?</t>
   </si>
 </sst>
 </file>
@@ -3316,10 +3340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C508"/>
+  <dimension ref="A1:C512"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A491" workbookViewId="0">
-      <selection activeCell="B510" sqref="B510"/>
+      <selection activeCell="B512" sqref="B512"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8915,6 +8939,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>974</v>
+      </c>
+      <c r="B509" t="s">
+        <v>975</v>
+      </c>
+      <c r="C509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>976</v>
+      </c>
+      <c r="B510" t="s">
+        <v>977</v>
+      </c>
+      <c r="C510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>978</v>
+      </c>
+      <c r="B511" t="s">
+        <v>979</v>
+      </c>
+      <c r="C511">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>980</v>
+      </c>
+      <c r="B512" t="s">
+        <v>981</v>
+      </c>
+      <c r="C512">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/translation/EngTranslate.xlsx
+++ b/public/translation/EngTranslate.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="986">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -2976,6 +2976,12 @@
   </si>
   <si>
     <t xml:space="preserve">Attendance Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">report_card/fgl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report Card</t>
   </si>
 </sst>
 </file>
@@ -3174,13 +3180,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C513"/>
+  <dimension ref="A1:C514"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A496" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C513" activeCellId="0" sqref="C513"/>
+      <selection pane="topLeft" activeCell="C514" activeCellId="0" sqref="C514"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="56.45"/>
@@ -8832,6 +8838,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="514" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A514" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="B514" s="0" t="s">
+        <v>985</v>
+      </c>
+      <c r="C514" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/public/translation/EngTranslate.xlsx
+++ b/public/translation/EngTranslate.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="987">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -2982,6 +2982,9 @@
   </si>
   <si>
     <t xml:space="preserve">Report Card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">report_card</t>
   </si>
 </sst>
 </file>
@@ -3180,10 +3183,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C514"/>
+  <dimension ref="A1:C515"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A496" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C514" activeCellId="0" sqref="C514"/>
+      <selection pane="topLeft" activeCell="B515" activeCellId="0" sqref="B515"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8849,6 +8852,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="515" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A515" s="0" t="s">
+        <v>986</v>
+      </c>
+      <c r="B515" s="0" t="s">
+        <v>985</v>
+      </c>
+      <c r="C515" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/public/translation/EngTranslate.xlsx
+++ b/public/translation/EngTranslate.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="989">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -2985,6 +2985,12 @@
   </si>
   <si>
     <t xml:space="preserve">report_card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attendance/viewAllAttendance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View All Attendance</t>
   </si>
 </sst>
 </file>
@@ -3183,10 +3189,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C515"/>
+  <dimension ref="A1:C516"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A496" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B515" activeCellId="0" sqref="B515"/>
+      <selection pane="topLeft" activeCell="C516" activeCellId="0" sqref="C516"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8863,6 +8869,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="516" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A516" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="B516" s="0" t="s">
+        <v>988</v>
+      </c>
+      <c r="C516" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/public/translation/EngTranslate.xlsx
+++ b/public/translation/EngTranslate.xlsx
@@ -3192,7 +3192,7 @@
   <dimension ref="A1:C516"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A496" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C516" activeCellId="0" sqref="C516"/>
+      <selection pane="topLeft" activeCell="A513" activeCellId="0" sqref="A513"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/public/translation/EngTranslate.xlsx
+++ b/public/translation/EngTranslate.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="989">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -2003,12 +2003,6 @@
     <t xml:space="preserve">ID</t>
   </si>
   <si>
-    <t xml:space="preserve">False</t>
-  </si>
-  <si>
-    <t xml:space="preserve">true</t>
-  </si>
-  <si>
     <t xml:space="preserve">go</t>
   </si>
   <si>
@@ -2991,16 +2985,23 @@
   </si>
   <si>
     <t xml:space="preserve">View All Attendance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attendance/get-sessions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get All Sessions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3022,13 +3023,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3096,7 +3090,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3104,12 +3098,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -3189,10 +3183,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C516"/>
+  <dimension ref="A1:C517"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A496" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A513" activeCellId="0" sqref="A513"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A501" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C517" activeCellId="0" sqref="C517"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6918,8 +6912,9 @@
       <c r="A338" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B338" s="2" t="s">
-        <v>659</v>
+      <c r="B338" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="C338" s="0" t="n">
         <v>1</v>
@@ -6929,8 +6924,9 @@
       <c r="A339" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B339" s="2" t="s">
-        <v>660</v>
+      <c r="B339" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="C339" s="0" t="n">
         <v>1</v>
@@ -6938,10 +6934,10 @@
     </row>
     <row r="340" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C340" s="0" t="n">
         <v>1</v>
@@ -6949,10 +6945,10 @@
     </row>
     <row r="341" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C341" s="0" t="n">
         <v>1</v>
@@ -6960,10 +6956,10 @@
     </row>
     <row r="342" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C342" s="0" t="n">
         <v>1</v>
@@ -6971,10 +6967,10 @@
     </row>
     <row r="343" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C343" s="0" t="n">
         <v>1</v>
@@ -6982,10 +6978,10 @@
     </row>
     <row r="344" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C344" s="0" t="n">
         <v>1</v>
@@ -6993,10 +6989,10 @@
     </row>
     <row r="345" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C345" s="0" t="n">
         <v>1</v>
@@ -7004,10 +7000,10 @@
     </row>
     <row r="346" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B346" s="0" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C346" s="0" t="n">
         <v>1</v>
@@ -7015,10 +7011,10 @@
     </row>
     <row r="347" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C347" s="0" t="n">
         <v>1</v>
@@ -7026,29 +7022,32 @@
     </row>
     <row r="348" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
+        <v>675</v>
+      </c>
+      <c r="B348" s="0" t="s">
+        <v>675</v>
+      </c>
+      <c r="C348" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="B349" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="C349" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="B348" s="0" t="s">
+      <c r="B350" s="3" t="s">
         <v>677</v>
-      </c>
-      <c r="C348" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="349" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="B349" s="0" t="s">
-        <v>678</v>
-      </c>
-      <c r="C349" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="350" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B350" s="4" t="s">
-        <v>679</v>
       </c>
       <c r="C350" s="0" t="n">
         <v>1</v>
@@ -7056,10 +7055,10 @@
     </row>
     <row r="351" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C351" s="0" t="n">
         <v>1</v>
@@ -7067,10 +7066,10 @@
     </row>
     <row r="352" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C352" s="0" t="n">
         <v>1</v>
@@ -7078,10 +7077,10 @@
     </row>
     <row r="353" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C353" s="0" t="n">
         <v>1</v>
@@ -7089,20 +7088,20 @@
     </row>
     <row r="354" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B354" s="0" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C354" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="5" t="s">
+      <c r="A355" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B355" s="5" t="s">
+      <c r="B355" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C355" s="0" t="n">
@@ -7110,11 +7109,11 @@
       </c>
     </row>
     <row r="356" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="5" t="s">
-        <v>686</v>
+      <c r="A356" s="4" t="s">
+        <v>684</v>
       </c>
       <c r="B356" s="0" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C356" s="0" t="n">
         <v>1</v>
@@ -7122,10 +7121,10 @@
     </row>
     <row r="357" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B357" s="0" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C357" s="0" t="n">
         <v>1</v>
@@ -7133,10 +7132,10 @@
     </row>
     <row r="358" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B358" s="0" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C358" s="0" t="n">
         <v>1</v>
@@ -7144,10 +7143,10 @@
     </row>
     <row r="359" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B359" s="0" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C359" s="0" t="n">
         <v>1</v>
@@ -7155,10 +7154,10 @@
     </row>
     <row r="360" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B360" s="0" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C360" s="0" t="n">
         <v>1</v>
@@ -7166,10 +7165,10 @@
     </row>
     <row r="361" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C361" s="0" t="n">
         <v>1</v>
@@ -7177,10 +7176,10 @@
     </row>
     <row r="362" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B362" s="0" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C362" s="0" t="n">
         <v>1</v>
@@ -7188,10 +7187,10 @@
     </row>
     <row r="363" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B363" s="0" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C363" s="0" t="n">
         <v>1</v>
@@ -7199,10 +7198,10 @@
     </row>
     <row r="364" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B364" s="0" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C364" s="0" t="n">
         <v>1</v>
@@ -7210,10 +7209,10 @@
     </row>
     <row r="365" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B365" s="0" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C365" s="0" t="n">
         <v>1</v>
@@ -7221,10 +7220,10 @@
     </row>
     <row r="366" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B366" s="0" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C366" s="0" t="n">
         <v>1</v>
@@ -7232,10 +7231,10 @@
     </row>
     <row r="367" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B367" s="0" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C367" s="0" t="n">
         <v>1</v>
@@ -7243,10 +7242,10 @@
     </row>
     <row r="368" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B368" s="0" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C368" s="0" t="n">
         <v>1</v>
@@ -7254,10 +7253,10 @@
     </row>
     <row r="369" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B369" s="0" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C369" s="0" t="n">
         <v>1</v>
@@ -7265,10 +7264,10 @@
     </row>
     <row r="370" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B370" s="0" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C370" s="0" t="n">
         <v>1</v>
@@ -7276,10 +7275,10 @@
     </row>
     <row r="371" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B371" s="0" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C371" s="0" t="n">
         <v>1</v>
@@ -7287,10 +7286,10 @@
     </row>
     <row r="372" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B372" s="0" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C372" s="0" t="n">
         <v>1</v>
@@ -7298,10 +7297,10 @@
     </row>
     <row r="373" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B373" s="0" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C373" s="0" t="n">
         <v>1</v>
@@ -7309,10 +7308,10 @@
     </row>
     <row r="374" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B374" s="0" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C374" s="0" t="n">
         <v>1</v>
@@ -7320,10 +7319,10 @@
     </row>
     <row r="375" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B375" s="0" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C375" s="0" t="n">
         <v>1</v>
@@ -7331,10 +7330,10 @@
     </row>
     <row r="376" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B376" s="0" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C376" s="0" t="n">
         <v>1</v>
@@ -7342,10 +7341,10 @@
     </row>
     <row r="377" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C377" s="0" t="n">
         <v>1</v>
@@ -7353,10 +7352,10 @@
     </row>
     <row r="378" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B378" s="0" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C378" s="0" t="n">
         <v>1</v>
@@ -7364,10 +7363,10 @@
     </row>
     <row r="379" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B379" s="0" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C379" s="0" t="n">
         <v>1</v>
@@ -7375,10 +7374,10 @@
     </row>
     <row r="380" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B380" s="0" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C380" s="0" t="n">
         <v>1</v>
@@ -7386,10 +7385,10 @@
     </row>
     <row r="381" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B381" s="0" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C381" s="0" t="n">
         <v>1</v>
@@ -7397,10 +7396,10 @@
     </row>
     <row r="382" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C382" s="0" t="n">
         <v>1</v>
@@ -7408,10 +7407,10 @@
     </row>
     <row r="383" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B383" s="0" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C383" s="0" t="n">
         <v>1</v>
@@ -7419,10 +7418,10 @@
     </row>
     <row r="384" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B384" s="0" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C384" s="0" t="n">
         <v>1</v>
@@ -7430,10 +7429,10 @@
     </row>
     <row r="385" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B385" s="0" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C385" s="0" t="n">
         <v>1</v>
@@ -7441,10 +7440,10 @@
     </row>
     <row r="386" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B386" s="0" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C386" s="0" t="n">
         <v>1</v>
@@ -7452,10 +7451,10 @@
     </row>
     <row r="387" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B387" s="0" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C387" s="0" t="n">
         <v>1</v>
@@ -7463,10 +7462,10 @@
     </row>
     <row r="388" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B388" s="0" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C388" s="0" t="n">
         <v>1</v>
@@ -7474,10 +7473,10 @@
     </row>
     <row r="389" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B389" s="0" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C389" s="0" t="n">
         <v>1</v>
@@ -7485,10 +7484,10 @@
     </row>
     <row r="390" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B390" s="0" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C390" s="0" t="n">
         <v>1</v>
@@ -7496,10 +7495,10 @@
     </row>
     <row r="391" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B391" s="0" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C391" s="0" t="n">
         <v>1</v>
@@ -7507,10 +7506,10 @@
     </row>
     <row r="392" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B392" s="0" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C392" s="0" t="n">
         <v>1</v>
@@ -7518,10 +7517,10 @@
     </row>
     <row r="393" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B393" s="0" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C393" s="0" t="n">
         <v>1</v>
@@ -7529,10 +7528,10 @@
     </row>
     <row r="394" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B394" s="0" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C394" s="0" t="n">
         <v>1</v>
@@ -7540,10 +7539,10 @@
     </row>
     <row r="395" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B395" s="0" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C395" s="0" t="n">
         <v>1</v>
@@ -7551,10 +7550,10 @@
     </row>
     <row r="396" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B396" s="0" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C396" s="0" t="n">
         <v>1</v>
@@ -7562,10 +7561,10 @@
     </row>
     <row r="397" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B397" s="0" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C397" s="0" t="n">
         <v>1</v>
@@ -7573,10 +7572,10 @@
     </row>
     <row r="398" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B398" s="0" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C398" s="0" t="n">
         <v>1</v>
@@ -7584,10 +7583,10 @@
     </row>
     <row r="399" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B399" s="0" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C399" s="0" t="n">
         <v>1</v>
@@ -7595,10 +7594,10 @@
     </row>
     <row r="400" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B400" s="0" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C400" s="0" t="n">
         <v>1</v>
@@ -7606,10 +7605,10 @@
     </row>
     <row r="401" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B401" s="0" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C401" s="0" t="n">
         <v>1</v>
@@ -7617,10 +7616,10 @@
     </row>
     <row r="402" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B402" s="0" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C402" s="0" t="n">
         <v>1</v>
@@ -7628,10 +7627,10 @@
     </row>
     <row r="403" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B403" s="0" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C403" s="0" t="n">
         <v>1</v>
@@ -7639,10 +7638,10 @@
     </row>
     <row r="404" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B404" s="0" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C404" s="0" t="n">
         <v>1</v>
@@ -7650,7 +7649,7 @@
     </row>
     <row r="405" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="0" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B405" s="0" t="s">
         <v>61</v>
@@ -7661,10 +7660,10 @@
     </row>
     <row r="406" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B406" s="0" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C406" s="0" t="n">
         <v>1</v>
@@ -7672,10 +7671,10 @@
     </row>
     <row r="407" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="0" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B407" s="0" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C407" s="0" t="n">
         <v>1</v>
@@ -7683,10 +7682,10 @@
     </row>
     <row r="408" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="0" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B408" s="0" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C408" s="0" t="n">
         <v>1</v>
@@ -7694,10 +7693,10 @@
     </row>
     <row r="409" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B409" s="0" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C409" s="0" t="n">
         <v>1</v>
@@ -7705,10 +7704,10 @@
     </row>
     <row r="410" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="0" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B410" s="0" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C410" s="0" t="n">
         <v>1</v>
@@ -7716,10 +7715,10 @@
     </row>
     <row r="411" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="0" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B411" s="0" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C411" s="0" t="n">
         <v>1</v>
@@ -7727,10 +7726,10 @@
     </row>
     <row r="412" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="0" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B412" s="0" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C412" s="0" t="n">
         <v>1</v>
@@ -7738,10 +7737,10 @@
     </row>
     <row r="413" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="0" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B413" s="0" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C413" s="0" t="n">
         <v>1</v>
@@ -7749,10 +7748,10 @@
     </row>
     <row r="414" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="0" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B414" s="0" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C414" s="0" t="n">
         <v>1</v>
@@ -7760,10 +7759,10 @@
     </row>
     <row r="415" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="0" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B415" s="0" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C415" s="0" t="n">
         <v>1</v>
@@ -7771,10 +7770,10 @@
     </row>
     <row r="416" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="0" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B416" s="0" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C416" s="0" t="n">
         <v>1</v>
@@ -7782,10 +7781,10 @@
     </row>
     <row r="417" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="0" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B417" s="0" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C417" s="0" t="n">
         <v>1</v>
@@ -7793,10 +7792,10 @@
     </row>
     <row r="418" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="0" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B418" s="0" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C418" s="0" t="n">
         <v>1</v>
@@ -7804,10 +7803,10 @@
     </row>
     <row r="419" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="0" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B419" s="0" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C419" s="0" t="n">
         <v>1</v>
@@ -7815,10 +7814,10 @@
     </row>
     <row r="420" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="0" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B420" s="0" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C420" s="0" t="n">
         <v>1</v>
@@ -7826,10 +7825,10 @@
     </row>
     <row r="421" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="0" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B421" s="0" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C421" s="0" t="n">
         <v>1</v>
@@ -7837,10 +7836,10 @@
     </row>
     <row r="422" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="0" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B422" s="0" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C422" s="0" t="n">
         <v>1</v>
@@ -7848,10 +7847,10 @@
     </row>
     <row r="423" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="0" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B423" s="0" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C423" s="0" t="n">
         <v>1</v>
@@ -7859,10 +7858,10 @@
     </row>
     <row r="424" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="0" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B424" s="0" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C424" s="0" t="n">
         <v>1</v>
@@ -7870,10 +7869,10 @@
     </row>
     <row r="425" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="0" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B425" s="0" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C425" s="0" t="n">
         <v>1</v>
@@ -7881,10 +7880,10 @@
     </row>
     <row r="426" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B426" s="0" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C426" s="0" t="n">
         <v>1</v>
@@ -7892,10 +7891,10 @@
     </row>
     <row r="427" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="0" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B427" s="0" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C427" s="0" t="n">
         <v>1</v>
@@ -7903,10 +7902,10 @@
     </row>
     <row r="428" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="0" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B428" s="0" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C428" s="0" t="n">
         <v>1</v>
@@ -7914,10 +7913,10 @@
     </row>
     <row r="429" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B429" s="0" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C429" s="0" t="n">
         <v>1</v>
@@ -7925,10 +7924,10 @@
     </row>
     <row r="430" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B430" s="0" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C430" s="0" t="n">
         <v>1</v>
@@ -7936,10 +7935,10 @@
     </row>
     <row r="431" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="0" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B431" s="0" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C431" s="0" t="n">
         <v>1</v>
@@ -7947,10 +7946,10 @@
     </row>
     <row r="432" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B432" s="0" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C432" s="0" t="n">
         <v>1</v>
@@ -7958,10 +7957,10 @@
     </row>
     <row r="433" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="0" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B433" s="0" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C433" s="0" t="n">
         <v>1</v>
@@ -7969,7 +7968,7 @@
     </row>
     <row r="434" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="0" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B434" s="0" t="s">
         <v>95</v>
@@ -7980,10 +7979,10 @@
     </row>
     <row r="435" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="0" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B435" s="0" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C435" s="0" t="n">
         <v>1</v>
@@ -7991,10 +7990,10 @@
     </row>
     <row r="436" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="0" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B436" s="0" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C436" s="0" t="n">
         <v>1</v>
@@ -8002,10 +8001,10 @@
     </row>
     <row r="437" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="0" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B437" s="0" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C437" s="0" t="n">
         <v>1</v>
@@ -8013,10 +8012,10 @@
     </row>
     <row r="438" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="0" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B438" s="0" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C438" s="0" t="n">
         <v>1</v>
@@ -8024,10 +8023,10 @@
     </row>
     <row r="439" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="0" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B439" s="0" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C439" s="0" t="n">
         <v>1</v>
@@ -8035,10 +8034,10 @@
     </row>
     <row r="440" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B440" s="0" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C440" s="0" t="n">
         <v>1</v>
@@ -8046,10 +8045,10 @@
     </row>
     <row r="441" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B441" s="0" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C441" s="0" t="n">
         <v>1</v>
@@ -8057,10 +8056,10 @@
     </row>
     <row r="442" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="0" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B442" s="0" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C442" s="0" t="n">
         <v>1</v>
@@ -8068,10 +8067,10 @@
     </row>
     <row r="443" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="0" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B443" s="0" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C443" s="0" t="n">
         <v>1</v>
@@ -8079,10 +8078,10 @@
     </row>
     <row r="444" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="0" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B444" s="0" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C444" s="0" t="n">
         <v>1</v>
@@ -8090,10 +8089,10 @@
     </row>
     <row r="445" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B445" s="0" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C445" s="0" t="n">
         <v>1</v>
@@ -8101,10 +8100,10 @@
     </row>
     <row r="446" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="0" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B446" s="0" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C446" s="0" t="n">
         <v>1</v>
@@ -8112,10 +8111,10 @@
     </row>
     <row r="447" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="0" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B447" s="0" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C447" s="0" t="n">
         <v>1</v>
@@ -8123,10 +8122,10 @@
     </row>
     <row r="448" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="0" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B448" s="0" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C448" s="0" t="n">
         <v>1</v>
@@ -8134,10 +8133,10 @@
     </row>
     <row r="449" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="0" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B449" s="0" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C449" s="0" t="n">
         <v>1</v>
@@ -8145,10 +8144,10 @@
     </row>
     <row r="450" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="0" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B450" s="0" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C450" s="0" t="n">
         <v>1</v>
@@ -8156,10 +8155,10 @@
     </row>
     <row r="451" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="0" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B451" s="0" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C451" s="0" t="n">
         <v>1</v>
@@ -8167,10 +8166,10 @@
     </row>
     <row r="452" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="0" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B452" s="0" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C452" s="0" t="n">
         <v>1</v>
@@ -8189,10 +8188,10 @@
     </row>
     <row r="454" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="0" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B454" s="0" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C454" s="0" t="n">
         <v>1</v>
@@ -8200,10 +8199,10 @@
     </row>
     <row r="455" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="0" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B455" s="0" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C455" s="0" t="n">
         <v>1</v>
@@ -8211,10 +8210,10 @@
     </row>
     <row r="456" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="0" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B456" s="0" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C456" s="0" t="n">
         <v>1</v>
@@ -8222,10 +8221,10 @@
     </row>
     <row r="457" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="0" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B457" s="0" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C457" s="0" t="n">
         <v>1</v>
@@ -8233,10 +8232,10 @@
     </row>
     <row r="458" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="0" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B458" s="0" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C458" s="0" t="n">
         <v>1</v>
@@ -8244,10 +8243,10 @@
     </row>
     <row r="459" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="0" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B459" s="0" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C459" s="0" t="n">
         <v>1</v>
@@ -8255,10 +8254,10 @@
     </row>
     <row r="460" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="0" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B460" s="0" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C460" s="0" t="n">
         <v>1</v>
@@ -8266,10 +8265,10 @@
     </row>
     <row r="461" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="0" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B461" s="0" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C461" s="0" t="n">
         <v>1</v>
@@ -8277,10 +8276,10 @@
     </row>
     <row r="462" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="0" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B462" s="0" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C462" s="0" t="n">
         <v>1</v>
@@ -8288,10 +8287,10 @@
     </row>
     <row r="463" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="0" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B463" s="0" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C463" s="0" t="n">
         <v>1</v>
@@ -8299,10 +8298,10 @@
     </row>
     <row r="464" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="0" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B464" s="0" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C464" s="0" t="n">
         <v>1</v>
@@ -8310,10 +8309,10 @@
     </row>
     <row r="465" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="0" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B465" s="0" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C465" s="0" t="n">
         <v>1</v>
@@ -8321,10 +8320,10 @@
     </row>
     <row r="466" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="0" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B466" s="0" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C466" s="0" t="n">
         <v>1</v>
@@ -8332,10 +8331,10 @@
     </row>
     <row r="467" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="0" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B467" s="0" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C467" s="0" t="n">
         <v>1</v>
@@ -8343,10 +8342,10 @@
     </row>
     <row r="468" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="0" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B468" s="0" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C468" s="0" t="n">
         <v>1</v>
@@ -8354,10 +8353,10 @@
     </row>
     <row r="469" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="0" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B469" s="0" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C469" s="0" t="n">
         <v>1</v>
@@ -8365,10 +8364,10 @@
     </row>
     <row r="470" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="0" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B470" s="0" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C470" s="0" t="n">
         <v>1</v>
@@ -8376,10 +8375,10 @@
     </row>
     <row r="471" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="0" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B471" s="0" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C471" s="0" t="n">
         <v>1</v>
@@ -8387,10 +8386,10 @@
     </row>
     <row r="472" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="0" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B472" s="0" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C472" s="0" t="n">
         <v>1</v>
@@ -8398,10 +8397,10 @@
     </row>
     <row r="473" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="0" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B473" s="0" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C473" s="0" t="n">
         <v>1</v>
@@ -8409,10 +8408,10 @@
     </row>
     <row r="474" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="0" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B474" s="0" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C474" s="0" t="n">
         <v>1</v>
@@ -8420,10 +8419,10 @@
     </row>
     <row r="475" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="0" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B475" s="0" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C475" s="0" t="n">
         <v>1</v>
@@ -8431,10 +8430,10 @@
     </row>
     <row r="476" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="0" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B476" s="0" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C476" s="0" t="n">
         <v>1</v>
@@ -8442,10 +8441,10 @@
     </row>
     <row r="477" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="0" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B477" s="0" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C477" s="0" t="n">
         <v>1</v>
@@ -8453,10 +8452,10 @@
     </row>
     <row r="478" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="0" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B478" s="0" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C478" s="0" t="n">
         <v>1</v>
@@ -8464,10 +8463,10 @@
     </row>
     <row r="479" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="0" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B479" s="0" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C479" s="0" t="n">
         <v>1</v>
@@ -8475,10 +8474,10 @@
     </row>
     <row r="480" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="0" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B480" s="0" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C480" s="0" t="n">
         <v>1</v>
@@ -8486,10 +8485,10 @@
     </row>
     <row r="481" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="0" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B481" s="0" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C481" s="0" t="n">
         <v>1</v>
@@ -8497,10 +8496,10 @@
     </row>
     <row r="482" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="0" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B482" s="0" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C482" s="0" t="n">
         <v>1</v>
@@ -8508,10 +8507,10 @@
     </row>
     <row r="483" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="0" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B483" s="0" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C483" s="0" t="n">
         <v>1</v>
@@ -8519,10 +8518,10 @@
     </row>
     <row r="484" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="0" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B484" s="0" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C484" s="0" t="n">
         <v>1</v>
@@ -8530,10 +8529,10 @@
     </row>
     <row r="485" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="0" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B485" s="0" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C485" s="0" t="n">
         <v>1</v>
@@ -8541,10 +8540,10 @@
     </row>
     <row r="486" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="0" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B486" s="0" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C486" s="0" t="n">
         <v>1</v>
@@ -8552,10 +8551,10 @@
     </row>
     <row r="487" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="0" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B487" s="0" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C487" s="0" t="n">
         <v>1</v>
@@ -8563,10 +8562,10 @@
     </row>
     <row r="488" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="0" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B488" s="0" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C488" s="0" t="n">
         <v>1</v>
@@ -8574,10 +8573,10 @@
     </row>
     <row r="489" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="0" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B489" s="0" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C489" s="0" t="n">
         <v>1</v>
@@ -8585,10 +8584,10 @@
     </row>
     <row r="490" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="0" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B490" s="0" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C490" s="0" t="n">
         <v>1</v>
@@ -8596,10 +8595,10 @@
     </row>
     <row r="491" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="0" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B491" s="0" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C491" s="0" t="n">
         <v>1</v>
@@ -8607,10 +8606,10 @@
     </row>
     <row r="492" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="0" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B492" s="0" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C492" s="0" t="n">
         <v>1</v>
@@ -8618,10 +8617,10 @@
     </row>
     <row r="493" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="0" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B493" s="0" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C493" s="0" t="n">
         <v>1</v>
@@ -8629,10 +8628,10 @@
     </row>
     <row r="494" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="0" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B494" s="0" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C494" s="0" t="n">
         <v>1</v>
@@ -8640,10 +8639,10 @@
     </row>
     <row r="495" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="0" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B495" s="0" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C495" s="0" t="n">
         <v>1</v>
@@ -8662,10 +8661,10 @@
     </row>
     <row r="497" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="0" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B497" s="0" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C497" s="0" t="n">
         <v>1</v>
@@ -8673,10 +8672,10 @@
     </row>
     <row r="498" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="0" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B498" s="0" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C498" s="0" t="n">
         <v>1</v>
@@ -8684,10 +8683,10 @@
     </row>
     <row r="499" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="0" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B499" s="0" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C499" s="0" t="n">
         <v>1</v>
@@ -8695,10 +8694,10 @@
     </row>
     <row r="500" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="0" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B500" s="0" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C500" s="0" t="n">
         <v>1</v>
@@ -8706,10 +8705,10 @@
     </row>
     <row r="501" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="0" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B501" s="0" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C501" s="0" t="n">
         <v>1</v>
@@ -8717,10 +8716,10 @@
     </row>
     <row r="502" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="0" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B502" s="0" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C502" s="0" t="n">
         <v>1</v>
@@ -8728,10 +8727,10 @@
     </row>
     <row r="503" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="0" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B503" s="0" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C503" s="0" t="n">
         <v>1</v>
@@ -8739,10 +8738,10 @@
     </row>
     <row r="504" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="0" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B504" s="0" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C504" s="0" t="n">
         <v>1</v>
@@ -8750,10 +8749,10 @@
     </row>
     <row r="505" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="0" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B505" s="0" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C505" s="0" t="n">
         <v>1</v>
@@ -8761,10 +8760,10 @@
     </row>
     <row r="506" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="0" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B506" s="0" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C506" s="0" t="n">
         <v>1</v>
@@ -8772,10 +8771,10 @@
     </row>
     <row r="507" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="0" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B507" s="0" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C507" s="0" t="n">
         <v>1</v>
@@ -8786,7 +8785,7 @@
         <v>594</v>
       </c>
       <c r="B508" s="0" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C508" s="0" t="n">
         <v>1</v>
@@ -8794,10 +8793,10 @@
     </row>
     <row r="509" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="0" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B509" s="0" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C509" s="0" t="n">
         <v>1</v>
@@ -8805,10 +8804,10 @@
     </row>
     <row r="510" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="0" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B510" s="0" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C510" s="0" t="n">
         <v>1</v>
@@ -8816,10 +8815,10 @@
     </row>
     <row r="511" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="0" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B511" s="0" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C511" s="0" t="n">
         <v>1</v>
@@ -8827,10 +8826,10 @@
     </row>
     <row r="512" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="0" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B512" s="0" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C512" s="0" t="n">
         <v>1</v>
@@ -8838,21 +8837,21 @@
     </row>
     <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="0" t="s">
-        <v>982</v>
-      </c>
-      <c r="B513" s="2" t="s">
-        <v>983</v>
-      </c>
-      <c r="C513" s="2" t="n">
+        <v>980</v>
+      </c>
+      <c r="B513" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="C513" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="1" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B514" s="0" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C514" s="0" t="n">
         <v>1</v>
@@ -8860,10 +8859,10 @@
     </row>
     <row r="515" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="0" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B515" s="0" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C515" s="0" t="n">
         <v>1</v>
@@ -8871,12 +8870,23 @@
     </row>
     <row r="516" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B516" s="0" t="s">
+        <v>986</v>
+      </c>
+      <c r="C516" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A517" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="B516" s="0" t="s">
+      <c r="B517" s="0" t="s">
         <v>988</v>
       </c>
-      <c r="C516" s="0" t="n">
+      <c r="C517" s="0" t="n">
         <v>1</v>
       </c>
     </row>

--- a/public/translation/EngTranslate.xlsx
+++ b/public/translation/EngTranslate.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="English_File__1__.txt_Edited" vbProcedure="false">Sheet1!$A$1:$F$320</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="English_File__1__.txt_Edited" vbProcedure="false">Sheet1!$A$1:$F$318</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -3183,10 +3183,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C517"/>
+  <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A501" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C517" activeCellId="0" sqref="C517"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A326" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B336" activeCellId="0" sqref="B336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4012,2921 +4012,2917 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="B75" s="0" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="A75" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>147</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
+      <c r="A76" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C113" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C114" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="C115" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="C116" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="C117" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="C118" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C119" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="C120" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="C121" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C122" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C123" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="C124" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="C125" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C126" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C127" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="C128" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C129" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C130" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C131" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="C132" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C133" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="C134" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="C135" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="C136" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="C137" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="C138" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="C139" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C140" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="C141" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C142" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="C143" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="C144" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="C145" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="C146" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="C147" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C148" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="C149" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="C150" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="C151" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="C152" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="C153" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="C154" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="C155" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="C156" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="C157" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C158" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="C159" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="C160" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="C161" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="C162" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="C163" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="C164" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="C165" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="C166" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="C167" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="C168" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="C169" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="C170" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="C171" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="C172" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="C173" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="B174" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="C174" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="C175" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="C176" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="C177" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="C178" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="B179" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="C179" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="B180" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="C180" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="B181" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="C181" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="C182" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="B183" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="C183" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="C184" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="B185" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="C185" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="C186" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="B187" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="C187" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="B188" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="C188" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="B189" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="C189" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="B190" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C190" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B191" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="C191" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="B192" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="C192" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="B193" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C193" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="B194" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="C194" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="B195" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="C195" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="B196" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="C196" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="B197" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="C197" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B198" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="C198" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="B199" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="C199" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B200" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="C200" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="B201" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C201" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="B202" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="C202" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="B203" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="C203" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="B204" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="C204" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B205" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="C205" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="B206" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="C206" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B207" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="C207" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="B208" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="C208" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="B209" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="C209" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="B210" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="C210" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="B211" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="C211" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="B212" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="C212" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="B213" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="C213" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="B214" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="C214" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="B215" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="C215" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="B216" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="C216" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="B217" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="C217" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="B218" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="C218" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="B219" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="C219" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="B220" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="C220" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="B221" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="C221" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="B222" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="C222" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="B223" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="C223" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="B224" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="C224" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="B225" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="C225" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="B226" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="C226" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="B227" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="C227" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="B228" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="C228" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="B229" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="C229" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="B230" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="C230" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="B231" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="C231" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="B232" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="C232" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="B233" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="C233" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="B234" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="C234" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="B235" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="C235" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="B236" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="C236" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="B237" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="C237" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="B238" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="C238" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="B239" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="C239" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="B240" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="C240" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="B241" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="C241" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="B242" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="C242" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="B243" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="C243" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="B244" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="C244" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="B245" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="C245" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="B246" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="C246" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="B247" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="C247" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="B248" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="C248" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="B249" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="C249" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="B250" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C250" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="B251" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="C251" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="B252" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="C252" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="B253" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="C253" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="B254" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="C254" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="B255" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="C255" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="B256" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="C256" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="B257" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="C257" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="B258" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="C258" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="B259" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="C259" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="B260" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="C260" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="B261" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="C261" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="B262" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="C262" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="B263" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="C263" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="B264" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="C264" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="B265" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="C265" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B266" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="C266" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="B267" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="C267" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="B268" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="C268" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="B269" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="C269" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="B270" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="C270" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="B271" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="C271" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="B272" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="C272" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="B273" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="C273" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="B274" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="C274" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="B275" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="C275" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="B276" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="C276" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="B277" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="C277" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="B278" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="C278" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="B279" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="C279" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="B280" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="C280" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="B281" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="C281" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="B282" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="C282" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="B283" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="C283" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="B284" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="C284" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="B285" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="C285" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="B286" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="C286" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="B287" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="C287" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="B288" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="C288" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="B289" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="C289" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="B290" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="C290" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B291" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="C291" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="B292" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="C292" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="B293" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="C293" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="B294" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="C294" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="B295" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="C295" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="B296" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="C296" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="B297" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="C297" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="B298" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="C298" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="B299" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="C299" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="B300" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="C300" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="B301" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="C301" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="B302" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="C302" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="B303" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="C303" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="B304" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="C304" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="B305" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="C305" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="B306" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="C306" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="B307" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="C307" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="B308" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="C308" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="B309" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="C309" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="B310" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="C310" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="B311" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="C311" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="B312" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="C312" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="B313" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="C313" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="B314" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="C314" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="B315" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="C315" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="B316" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="C316" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="B317" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="C317" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="B318" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="C318" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="B319" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="C319" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C320" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C321" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="B322" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="C322" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="B323" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="C323" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="B324" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="C324" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="B325" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="C325" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="B326" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="C326" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="B327" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="C327" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="B328" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="C328" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="B329" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="C329" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="B330" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="C330" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="B331" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="C331" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="B332" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="C332" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="B333" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="C333" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="B334" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="C334" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="B335" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="C335" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B336" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="B76" s="0" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C76" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="C77" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="B78" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="C78" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="B79" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="C79" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="C80" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="C81" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="C82" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="C83" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="C84" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="B85" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="C85" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="C86" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="C87" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C88" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="B89" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="C89" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="B90" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="C90" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="B91" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="C91" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="B92" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="C92" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="B93" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="C93" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="B94" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="C94" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="B95" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="C95" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="B96" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="C96" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="B97" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="C97" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="B98" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="C98" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="B99" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="C99" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="B100" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="C100" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="B101" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="C101" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="B102" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="C102" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="B103" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="C103" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="B104" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="C104" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="B105" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="C105" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="B106" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="C106" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="B107" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="C107" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="B108" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="C108" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="B109" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="C109" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="B110" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="C110" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="B111" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="C111" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="B112" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="C112" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="B113" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="C113" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="B114" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="C114" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="B115" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="C115" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="B116" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="C116" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="B117" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="C117" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="B118" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="C118" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="B119" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="C119" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="B120" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="C120" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="B121" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="C121" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="B122" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="C122" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="B123" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="C123" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="B124" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="C124" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="B125" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="C125" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="B126" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="C126" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="B127" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="C127" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="B128" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="C128" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="B129" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="C129" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="B130" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="C130" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="B131" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="C131" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="B132" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="C132" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="B133" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="C133" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="B134" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="C134" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="B135" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="C135" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="B136" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="C136" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="B137" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="C137" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="B138" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="C138" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="B139" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="C139" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="B140" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="C140" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="B141" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="C141" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="B142" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="C142" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="B143" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="C143" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="B144" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="C144" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="B145" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="C145" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="B146" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="C146" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="B147" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="C147" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="B148" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="C148" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="B149" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="C149" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="B150" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="C150" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="B151" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="C151" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="B152" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="C152" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="B153" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="C153" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="B154" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="C154" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="B155" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="C155" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B156" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="C156" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="B157" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="C157" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="B158" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="C158" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="B159" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="C159" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="B160" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="C160" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="s">
-        <v>313</v>
-      </c>
-      <c r="B161" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="C161" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="B162" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="C162" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="s">
-        <v>317</v>
-      </c>
-      <c r="B163" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="C163" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="B164" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="C164" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="B165" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="C165" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="B166" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="C166" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="B167" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="C167" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B168" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="C168" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="B169" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="C169" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="B170" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="C170" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="B171" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="C171" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="B172" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="C172" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="B173" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="C173" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="B174" s="0" t="s">
-        <v>340</v>
-      </c>
-      <c r="C174" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="B175" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="C175" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="B176" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="C176" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="B177" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="C177" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="s">
-        <v>347</v>
-      </c>
-      <c r="B178" s="0" t="s">
-        <v>348</v>
-      </c>
-      <c r="C178" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="B179" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="C179" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="s">
-        <v>351</v>
-      </c>
-      <c r="B180" s="0" t="s">
-        <v>352</v>
-      </c>
-      <c r="C180" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="s">
-        <v>353</v>
-      </c>
-      <c r="B181" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="C181" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="s">
-        <v>355</v>
-      </c>
-      <c r="B182" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="C182" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0" t="s">
-        <v>357</v>
-      </c>
-      <c r="B183" s="0" t="s">
-        <v>358</v>
-      </c>
-      <c r="C183" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="B184" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="C184" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="s">
-        <v>361</v>
-      </c>
-      <c r="B185" s="0" t="s">
-        <v>362</v>
-      </c>
-      <c r="C185" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0" t="s">
-        <v>363</v>
-      </c>
-      <c r="B186" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="C186" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0" t="s">
-        <v>365</v>
-      </c>
-      <c r="B187" s="0" t="s">
-        <v>366</v>
-      </c>
-      <c r="C187" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="B188" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="C188" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="B189" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="C189" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="B190" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="C190" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="0" t="s">
-        <v>373</v>
-      </c>
-      <c r="B191" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="C191" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="B192" s="0" t="s">
-        <v>376</v>
-      </c>
-      <c r="C192" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="0" t="s">
-        <v>377</v>
-      </c>
-      <c r="B193" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="C193" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="B194" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="C194" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="B195" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="C195" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="B196" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="C196" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="B197" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="C197" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="B198" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="C198" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0" t="s">
-        <v>387</v>
-      </c>
-      <c r="B199" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="C199" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="B200" s="0" t="s">
-        <v>390</v>
-      </c>
-      <c r="C200" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="B201" s="0" t="s">
-        <v>392</v>
-      </c>
-      <c r="C201" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0" t="s">
-        <v>393</v>
-      </c>
-      <c r="B202" s="0" t="s">
-        <v>394</v>
-      </c>
-      <c r="C202" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="0" t="s">
-        <v>395</v>
-      </c>
-      <c r="B203" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="C203" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="B204" s="0" t="s">
-        <v>398</v>
-      </c>
-      <c r="C204" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="B205" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="C205" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0" t="s">
-        <v>401</v>
-      </c>
-      <c r="B206" s="0" t="s">
-        <v>402</v>
-      </c>
-      <c r="C206" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="B207" s="0" t="s">
-        <v>404</v>
-      </c>
-      <c r="C207" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="0" t="s">
-        <v>405</v>
-      </c>
-      <c r="B208" s="0" t="s">
-        <v>406</v>
-      </c>
-      <c r="C208" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="0" t="s">
-        <v>407</v>
-      </c>
-      <c r="B209" s="0" t="s">
-        <v>408</v>
-      </c>
-      <c r="C209" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="0" t="s">
-        <v>409</v>
-      </c>
-      <c r="B210" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="C210" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="0" t="s">
-        <v>411</v>
-      </c>
-      <c r="B211" s="0" t="s">
-        <v>412</v>
-      </c>
-      <c r="C211" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0" t="s">
-        <v>413</v>
-      </c>
-      <c r="B212" s="0" t="s">
-        <v>414</v>
-      </c>
-      <c r="C212" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="0" t="s">
-        <v>415</v>
-      </c>
-      <c r="B213" s="0" t="s">
-        <v>416</v>
-      </c>
-      <c r="C213" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="0" t="s">
-        <v>417</v>
-      </c>
-      <c r="B214" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="C214" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="0" t="s">
-        <v>419</v>
-      </c>
-      <c r="B215" s="0" t="s">
-        <v>420</v>
-      </c>
-      <c r="C215" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="0" t="s">
-        <v>421</v>
-      </c>
-      <c r="B216" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="C216" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="0" t="s">
-        <v>423</v>
-      </c>
-      <c r="B217" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="C217" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="0" t="s">
-        <v>425</v>
-      </c>
-      <c r="B218" s="0" t="s">
-        <v>426</v>
-      </c>
-      <c r="C218" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="0" t="s">
-        <v>427</v>
-      </c>
-      <c r="B219" s="0" t="s">
-        <v>428</v>
-      </c>
-      <c r="C219" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="B220" s="0" t="s">
-        <v>430</v>
-      </c>
-      <c r="C220" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="0" t="s">
-        <v>431</v>
-      </c>
-      <c r="B221" s="0" t="s">
-        <v>432</v>
-      </c>
-      <c r="C221" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="0" t="s">
-        <v>433</v>
-      </c>
-      <c r="B222" s="0" t="s">
-        <v>434</v>
-      </c>
-      <c r="C222" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="0" t="s">
-        <v>435</v>
-      </c>
-      <c r="B223" s="0" t="s">
-        <v>436</v>
-      </c>
-      <c r="C223" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="0" t="s">
-        <v>437</v>
-      </c>
-      <c r="B224" s="0" t="s">
-        <v>438</v>
-      </c>
-      <c r="C224" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="B225" s="0" t="s">
-        <v>440</v>
-      </c>
-      <c r="C225" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="0" t="s">
-        <v>441</v>
-      </c>
-      <c r="B226" s="0" t="s">
-        <v>442</v>
-      </c>
-      <c r="C226" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="0" t="s">
-        <v>443</v>
-      </c>
-      <c r="B227" s="0" t="s">
-        <v>444</v>
-      </c>
-      <c r="C227" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="0" t="s">
-        <v>445</v>
-      </c>
-      <c r="B228" s="0" t="s">
-        <v>446</v>
-      </c>
-      <c r="C228" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="0" t="s">
-        <v>447</v>
-      </c>
-      <c r="B229" s="0" t="s">
-        <v>448</v>
-      </c>
-      <c r="C229" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="0" t="s">
-        <v>449</v>
-      </c>
-      <c r="B230" s="0" t="s">
-        <v>450</v>
-      </c>
-      <c r="C230" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="0" t="s">
-        <v>451</v>
-      </c>
-      <c r="B231" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="C231" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="0" t="s">
-        <v>453</v>
-      </c>
-      <c r="B232" s="0" t="s">
-        <v>454</v>
-      </c>
-      <c r="C232" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="0" t="s">
-        <v>455</v>
-      </c>
-      <c r="B233" s="0" t="s">
-        <v>456</v>
-      </c>
-      <c r="C233" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="0" t="s">
-        <v>457</v>
-      </c>
-      <c r="B234" s="0" t="s">
-        <v>458</v>
-      </c>
-      <c r="C234" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="B235" s="0" t="s">
-        <v>460</v>
-      </c>
-      <c r="C235" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="0" t="s">
-        <v>461</v>
-      </c>
-      <c r="B236" s="0" t="s">
-        <v>462</v>
-      </c>
-      <c r="C236" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="0" t="s">
-        <v>463</v>
-      </c>
-      <c r="B237" s="0" t="s">
-        <v>464</v>
-      </c>
-      <c r="C237" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="0" t="s">
-        <v>465</v>
-      </c>
-      <c r="B238" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="C238" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="B239" s="0" t="s">
-        <v>468</v>
-      </c>
-      <c r="C239" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="0" t="s">
-        <v>469</v>
-      </c>
-      <c r="B240" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="C240" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="0" t="s">
-        <v>471</v>
-      </c>
-      <c r="B241" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="C241" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="0" t="s">
-        <v>473</v>
-      </c>
-      <c r="B242" s="0" t="s">
-        <v>473</v>
-      </c>
-      <c r="C242" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="0" t="s">
-        <v>474</v>
-      </c>
-      <c r="B243" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="C243" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="0" t="s">
-        <v>476</v>
-      </c>
-      <c r="B244" s="0" t="s">
-        <v>477</v>
-      </c>
-      <c r="C244" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="0" t="s">
-        <v>478</v>
-      </c>
-      <c r="B245" s="0" t="s">
-        <v>479</v>
-      </c>
-      <c r="C245" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="0" t="s">
-        <v>480</v>
-      </c>
-      <c r="B246" s="0" t="s">
-        <v>481</v>
-      </c>
-      <c r="C246" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="0" t="s">
-        <v>482</v>
-      </c>
-      <c r="B247" s="0" t="s">
-        <v>483</v>
-      </c>
-      <c r="C247" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="0" t="s">
-        <v>484</v>
-      </c>
-      <c r="B248" s="0" t="s">
-        <v>485</v>
-      </c>
-      <c r="C248" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="0" t="s">
-        <v>486</v>
-      </c>
-      <c r="B249" s="0" t="s">
-        <v>487</v>
-      </c>
-      <c r="C249" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="0" t="s">
-        <v>488</v>
-      </c>
-      <c r="B250" s="0" t="s">
-        <v>489</v>
-      </c>
-      <c r="C250" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="0" t="s">
-        <v>490</v>
-      </c>
-      <c r="B251" s="0" t="s">
-        <v>491</v>
-      </c>
-      <c r="C251" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="0" t="s">
-        <v>492</v>
-      </c>
-      <c r="B252" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="C252" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="0" t="s">
-        <v>494</v>
-      </c>
-      <c r="B253" s="0" t="s">
-        <v>495</v>
-      </c>
-      <c r="C253" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="0" t="s">
-        <v>496</v>
-      </c>
-      <c r="B254" s="0" t="s">
-        <v>497</v>
-      </c>
-      <c r="C254" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="0" t="s">
-        <v>498</v>
-      </c>
-      <c r="B255" s="0" t="s">
-        <v>499</v>
-      </c>
-      <c r="C255" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="0" t="s">
-        <v>500</v>
-      </c>
-      <c r="B256" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="C256" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="0" t="s">
-        <v>502</v>
-      </c>
-      <c r="B257" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="C257" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="0" t="s">
-        <v>504</v>
-      </c>
-      <c r="B258" s="0" t="s">
-        <v>505</v>
-      </c>
-      <c r="C258" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="0" t="s">
-        <v>506</v>
-      </c>
-      <c r="B259" s="0" t="s">
-        <v>507</v>
-      </c>
-      <c r="C259" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="0" t="s">
-        <v>508</v>
-      </c>
-      <c r="B260" s="0" t="s">
-        <v>509</v>
-      </c>
-      <c r="C260" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="0" t="s">
-        <v>510</v>
-      </c>
-      <c r="B261" s="0" t="s">
-        <v>511</v>
-      </c>
-      <c r="C261" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="0" t="s">
-        <v>512</v>
-      </c>
-      <c r="B262" s="0" t="s">
-        <v>513</v>
-      </c>
-      <c r="C262" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="0" t="s">
-        <v>514</v>
-      </c>
-      <c r="B263" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="C263" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="0" t="s">
-        <v>516</v>
-      </c>
-      <c r="B264" s="0" t="s">
-        <v>517</v>
-      </c>
-      <c r="C264" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="0" t="s">
-        <v>518</v>
-      </c>
-      <c r="B265" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="C265" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="B266" s="0" t="s">
-        <v>521</v>
-      </c>
-      <c r="C266" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="0" t="s">
-        <v>522</v>
-      </c>
-      <c r="B267" s="0" t="s">
-        <v>523</v>
-      </c>
-      <c r="C267" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B268" s="0" t="s">
-        <v>524</v>
-      </c>
-      <c r="C268" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="0" t="s">
-        <v>525</v>
-      </c>
-      <c r="B269" s="0" t="s">
-        <v>526</v>
-      </c>
-      <c r="C269" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="B270" s="0" t="s">
-        <v>528</v>
-      </c>
-      <c r="C270" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="B271" s="0" t="s">
-        <v>530</v>
-      </c>
-      <c r="C271" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="0" t="s">
-        <v>531</v>
-      </c>
-      <c r="B272" s="0" t="s">
-        <v>532</v>
-      </c>
-      <c r="C272" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="0" t="s">
-        <v>533</v>
-      </c>
-      <c r="B273" s="0" t="s">
-        <v>533</v>
-      </c>
-      <c r="C273" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="0" t="s">
-        <v>534</v>
-      </c>
-      <c r="B274" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="C274" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="0" t="s">
-        <v>536</v>
-      </c>
-      <c r="B275" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="C275" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="0" t="s">
-        <v>538</v>
-      </c>
-      <c r="B276" s="0" t="s">
-        <v>539</v>
-      </c>
-      <c r="C276" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="277" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="0" t="s">
-        <v>540</v>
-      </c>
-      <c r="B277" s="0" t="s">
-        <v>541</v>
-      </c>
-      <c r="C277" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="0" t="s">
-        <v>542</v>
-      </c>
-      <c r="B278" s="0" t="s">
-        <v>543</v>
-      </c>
-      <c r="C278" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="0" t="s">
-        <v>544</v>
-      </c>
-      <c r="B279" s="0" t="s">
-        <v>545</v>
-      </c>
-      <c r="C279" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="0" t="s">
-        <v>546</v>
-      </c>
-      <c r="B280" s="0" t="s">
-        <v>547</v>
-      </c>
-      <c r="C280" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="0" t="s">
-        <v>548</v>
-      </c>
-      <c r="B281" s="0" t="s">
-        <v>549</v>
-      </c>
-      <c r="C281" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="0" t="s">
-        <v>550</v>
-      </c>
-      <c r="B282" s="0" t="s">
-        <v>551</v>
-      </c>
-      <c r="C282" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="0" t="s">
-        <v>552</v>
-      </c>
-      <c r="B283" s="0" t="s">
-        <v>553</v>
-      </c>
-      <c r="C283" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="0" t="s">
-        <v>554</v>
-      </c>
-      <c r="B284" s="0" t="s">
-        <v>555</v>
-      </c>
-      <c r="C284" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="0" t="s">
-        <v>556</v>
-      </c>
-      <c r="B285" s="0" t="s">
-        <v>557</v>
-      </c>
-      <c r="C285" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="0" t="s">
-        <v>558</v>
-      </c>
-      <c r="B286" s="0" t="s">
-        <v>559</v>
-      </c>
-      <c r="C286" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="0" t="s">
-        <v>560</v>
-      </c>
-      <c r="B287" s="0" t="s">
-        <v>561</v>
-      </c>
-      <c r="C287" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="0" t="s">
-        <v>562</v>
-      </c>
-      <c r="B288" s="0" t="s">
-        <v>563</v>
-      </c>
-      <c r="C288" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="0" t="s">
-        <v>564</v>
-      </c>
-      <c r="B289" s="0" t="s">
-        <v>565</v>
-      </c>
-      <c r="C289" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="0" t="s">
-        <v>566</v>
-      </c>
-      <c r="B290" s="0" t="s">
-        <v>567</v>
-      </c>
-      <c r="C290" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="0" t="s">
-        <v>568</v>
-      </c>
-      <c r="B291" s="0" t="s">
-        <v>569</v>
-      </c>
-      <c r="C291" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="0" t="s">
-        <v>570</v>
-      </c>
-      <c r="B292" s="0" t="s">
-        <v>571</v>
-      </c>
-      <c r="C292" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="0" t="s">
-        <v>572</v>
-      </c>
-      <c r="B293" s="0" t="s">
-        <v>573</v>
-      </c>
-      <c r="C293" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="0" t="s">
-        <v>574</v>
-      </c>
-      <c r="B294" s="0" t="s">
-        <v>575</v>
-      </c>
-      <c r="C294" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="0" t="s">
-        <v>576</v>
-      </c>
-      <c r="B295" s="0" t="s">
-        <v>577</v>
-      </c>
-      <c r="C295" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="296" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="0" t="s">
-        <v>578</v>
-      </c>
-      <c r="B296" s="0" t="s">
-        <v>579</v>
-      </c>
-      <c r="C296" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="0" t="s">
-        <v>580</v>
-      </c>
-      <c r="B297" s="0" t="s">
-        <v>581</v>
-      </c>
-      <c r="C297" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="0" t="s">
-        <v>582</v>
-      </c>
-      <c r="B298" s="0" t="s">
-        <v>583</v>
-      </c>
-      <c r="C298" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="0" t="s">
-        <v>584</v>
-      </c>
-      <c r="B299" s="0" t="s">
-        <v>585</v>
-      </c>
-      <c r="C299" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="0" t="s">
-        <v>586</v>
-      </c>
-      <c r="B300" s="0" t="s">
-        <v>587</v>
-      </c>
-      <c r="C300" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="0" t="s">
-        <v>588</v>
-      </c>
-      <c r="B301" s="0" t="s">
-        <v>589</v>
-      </c>
-      <c r="C301" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="0" t="s">
-        <v>590</v>
-      </c>
-      <c r="B302" s="0" t="s">
-        <v>591</v>
-      </c>
-      <c r="C302" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="0" t="s">
-        <v>592</v>
-      </c>
-      <c r="B303" s="0" t="s">
-        <v>593</v>
-      </c>
-      <c r="C303" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="304" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="0" t="s">
-        <v>594</v>
-      </c>
-      <c r="B304" s="0" t="s">
-        <v>595</v>
-      </c>
-      <c r="C304" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="305" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="0" t="s">
-        <v>596</v>
-      </c>
-      <c r="B305" s="0" t="s">
-        <v>597</v>
-      </c>
-      <c r="C305" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="306" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="0" t="s">
-        <v>598</v>
-      </c>
-      <c r="B306" s="0" t="s">
-        <v>599</v>
-      </c>
-      <c r="C306" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="307" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="0" t="s">
-        <v>600</v>
-      </c>
-      <c r="B307" s="0" t="s">
-        <v>601</v>
-      </c>
-      <c r="C307" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="308" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="0" t="s">
-        <v>602</v>
-      </c>
-      <c r="B308" s="0" t="s">
-        <v>603</v>
-      </c>
-      <c r="C308" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="0" t="s">
-        <v>604</v>
-      </c>
-      <c r="B309" s="0" t="s">
-        <v>605</v>
-      </c>
-      <c r="C309" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="0" t="s">
-        <v>606</v>
-      </c>
-      <c r="B310" s="0" t="s">
-        <v>607</v>
-      </c>
-      <c r="C310" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="311" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="0" t="s">
-        <v>608</v>
-      </c>
-      <c r="B311" s="0" t="s">
-        <v>609</v>
-      </c>
-      <c r="C311" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="312" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="0" t="s">
-        <v>610</v>
-      </c>
-      <c r="B312" s="0" t="s">
-        <v>611</v>
-      </c>
-      <c r="C312" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="313" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="0" t="s">
-        <v>612</v>
-      </c>
-      <c r="B313" s="0" t="s">
-        <v>613</v>
-      </c>
-      <c r="C313" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="314" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="0" t="s">
-        <v>614</v>
-      </c>
-      <c r="B314" s="0" t="s">
-        <v>615</v>
-      </c>
-      <c r="C314" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="315" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="0" t="s">
-        <v>616</v>
-      </c>
-      <c r="B315" s="0" t="s">
-        <v>617</v>
-      </c>
-      <c r="C315" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="316" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="0" t="s">
-        <v>618</v>
-      </c>
-      <c r="B316" s="0" t="s">
-        <v>619</v>
-      </c>
-      <c r="C316" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="317" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="0" t="s">
-        <v>620</v>
-      </c>
-      <c r="B317" s="0" t="s">
-        <v>601</v>
-      </c>
-      <c r="C317" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="318" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="0" t="s">
-        <v>621</v>
-      </c>
-      <c r="B318" s="0" t="s">
-        <v>622</v>
-      </c>
-      <c r="C318" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="319" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="0" t="s">
-        <v>623</v>
-      </c>
-      <c r="B319" s="0" t="s">
-        <v>624</v>
-      </c>
-      <c r="C319" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="320" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="0" t="s">
-        <v>625</v>
-      </c>
-      <c r="B320" s="0" t="s">
-        <v>626</v>
-      </c>
-      <c r="C320" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="0" t="s">
-        <v>627</v>
-      </c>
-      <c r="B321" s="0" t="s">
-        <v>628</v>
-      </c>
-      <c r="C321" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="322" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="0" t="s">
-        <v>629</v>
-      </c>
-      <c r="B322" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="C322" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="323" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="0" t="s">
-        <v>631</v>
-      </c>
-      <c r="B323" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="C323" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="324" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="0" t="s">
-        <v>633</v>
-      </c>
-      <c r="B324" s="0" t="s">
-        <v>634</v>
-      </c>
-      <c r="C324" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="325" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="0" t="s">
-        <v>635</v>
-      </c>
-      <c r="B325" s="0" t="s">
-        <v>636</v>
-      </c>
-      <c r="C325" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="326" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B326" s="0" t="s">
-        <v>638</v>
-      </c>
-      <c r="C326" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="327" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="0" t="s">
-        <v>639</v>
-      </c>
-      <c r="B327" s="0" t="s">
-        <v>639</v>
-      </c>
-      <c r="C327" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="328" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="0" t="s">
-        <v>640</v>
-      </c>
-      <c r="B328" s="0" t="s">
-        <v>641</v>
-      </c>
-      <c r="C328" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="329" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="0" t="s">
-        <v>642</v>
-      </c>
-      <c r="B329" s="0" t="s">
-        <v>643</v>
-      </c>
-      <c r="C329" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="330" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="0" t="s">
-        <v>644</v>
-      </c>
-      <c r="B330" s="0" t="s">
-        <v>645</v>
-      </c>
-      <c r="C330" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="331" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="0" t="s">
-        <v>646</v>
-      </c>
-      <c r="B331" s="0" t="s">
-        <v>595</v>
-      </c>
-      <c r="C331" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="332" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="0" t="s">
-        <v>647</v>
-      </c>
-      <c r="B332" s="0" t="s">
-        <v>648</v>
-      </c>
-      <c r="C332" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="333" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="0" t="s">
-        <v>649</v>
-      </c>
-      <c r="B333" s="0" t="s">
-        <v>650</v>
-      </c>
-      <c r="C333" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="334" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="0" t="s">
-        <v>651</v>
-      </c>
-      <c r="B334" s="0" t="s">
-        <v>652</v>
-      </c>
-      <c r="C334" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="335" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="0" t="s">
-        <v>653</v>
-      </c>
-      <c r="B335" s="0" t="s">
-        <v>654</v>
-      </c>
-      <c r="C335" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="336" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="0" t="s">
-        <v>655</v>
-      </c>
-      <c r="B336" s="0" t="s">
-        <v>656</v>
-      </c>
       <c r="C336" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="0" t="s">
-        <v>657</v>
-      </c>
-      <c r="B337" s="0" t="s">
-        <v>658</v>
+      <c r="A337" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B337" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="C337" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B338" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="A338" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="B338" s="0" t="s">
+        <v>660</v>
       </c>
       <c r="C338" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B339" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="A339" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="B339" s="0" t="s">
+        <v>662</v>
       </c>
       <c r="C339" s="0" t="n">
         <v>1</v>
@@ -6934,10 +6930,10 @@
     </row>
     <row r="340" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="C340" s="0" t="n">
         <v>1</v>
@@ -6945,10 +6941,10 @@
     </row>
     <row r="341" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="C341" s="0" t="n">
         <v>1</v>
@@ -6956,10 +6952,10 @@
     </row>
     <row r="342" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="C342" s="0" t="n">
         <v>1</v>
@@ -6967,10 +6963,10 @@
     </row>
     <row r="343" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="C343" s="0" t="n">
         <v>1</v>
@@ -6978,10 +6974,10 @@
     </row>
     <row r="344" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="C344" s="0" t="n">
         <v>1</v>
@@ -6989,10 +6985,10 @@
     </row>
     <row r="345" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="C345" s="0" t="n">
         <v>1</v>
@@ -7000,54 +6996,54 @@
     </row>
     <row r="346" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="B346" s="0" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C346" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C347" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="0" t="s">
-        <v>675</v>
-      </c>
-      <c r="B348" s="0" t="s">
-        <v>675</v>
+    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>677</v>
       </c>
       <c r="C348" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B349" s="0" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="C349" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="B350" s="3" t="s">
-        <v>677</v>
+    <row r="350" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="B350" s="0" t="s">
+        <v>681</v>
       </c>
       <c r="C350" s="0" t="n">
         <v>1</v>
@@ -7055,10 +7051,10 @@
     </row>
     <row r="351" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="C351" s="0" t="n">
         <v>1</v>
@@ -7076,44 +7072,44 @@
       </c>
     </row>
     <row r="353" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="0" t="s">
-        <v>682</v>
-      </c>
-      <c r="B353" s="0" t="s">
-        <v>683</v>
+      <c r="A353" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B353" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="C353" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="0" t="s">
-        <v>680</v>
+      <c r="A354" s="4" t="s">
+        <v>684</v>
       </c>
       <c r="B354" s="0" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="C354" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B355" s="4" t="s">
-        <v>95</v>
+      <c r="A355" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="B355" s="0" t="s">
+        <v>687</v>
       </c>
       <c r="C355" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="4" t="s">
-        <v>684</v>
+      <c r="A356" s="0" t="s">
+        <v>688</v>
       </c>
       <c r="B356" s="0" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="C356" s="0" t="n">
         <v>1</v>
@@ -7121,10 +7117,10 @@
     </row>
     <row r="357" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="B357" s="0" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="C357" s="0" t="n">
         <v>1</v>
@@ -7132,10 +7128,10 @@
     </row>
     <row r="358" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="B358" s="0" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="C358" s="0" t="n">
         <v>1</v>
@@ -7143,10 +7139,10 @@
     </row>
     <row r="359" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="B359" s="0" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="C359" s="0" t="n">
         <v>1</v>
@@ -7154,10 +7150,10 @@
     </row>
     <row r="360" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="B360" s="0" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C360" s="0" t="n">
         <v>1</v>
@@ -7165,10 +7161,10 @@
     </row>
     <row r="361" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="C361" s="0" t="n">
         <v>1</v>
@@ -7176,10 +7172,10 @@
     </row>
     <row r="362" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="B362" s="0" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="C362" s="0" t="n">
         <v>1</v>
@@ -7187,10 +7183,10 @@
     </row>
     <row r="363" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="B363" s="0" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="C363" s="0" t="n">
         <v>1</v>
@@ -7198,10 +7194,10 @@
     </row>
     <row r="364" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="B364" s="0" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="C364" s="0" t="n">
         <v>1</v>
@@ -7209,10 +7205,10 @@
     </row>
     <row r="365" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="B365" s="0" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="C365" s="0" t="n">
         <v>1</v>
@@ -7220,10 +7216,10 @@
     </row>
     <row r="366" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="B366" s="0" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="C366" s="0" t="n">
         <v>1</v>
@@ -7231,10 +7227,10 @@
     </row>
     <row r="367" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="B367" s="0" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="C367" s="0" t="n">
         <v>1</v>
@@ -7242,10 +7238,10 @@
     </row>
     <row r="368" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="B368" s="0" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="C368" s="0" t="n">
         <v>1</v>
@@ -7253,10 +7249,10 @@
     </row>
     <row r="369" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="B369" s="0" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="C369" s="0" t="n">
         <v>1</v>
@@ -7264,10 +7260,10 @@
     </row>
     <row r="370" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="B370" s="0" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="C370" s="0" t="n">
         <v>1</v>
@@ -7275,10 +7271,10 @@
     </row>
     <row r="371" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="B371" s="0" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="C371" s="0" t="n">
         <v>1</v>
@@ -7286,10 +7282,10 @@
     </row>
     <row r="372" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="B372" s="0" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="C372" s="0" t="n">
         <v>1</v>
@@ -7297,10 +7293,10 @@
     </row>
     <row r="373" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="B373" s="0" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="C373" s="0" t="n">
         <v>1</v>
@@ -7308,10 +7304,10 @@
     </row>
     <row r="374" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="B374" s="0" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="C374" s="0" t="n">
         <v>1</v>
@@ -7319,10 +7315,10 @@
     </row>
     <row r="375" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="B375" s="0" t="s">
-        <v>723</v>
+        <v>676</v>
       </c>
       <c r="C375" s="0" t="n">
         <v>1</v>
@@ -7330,10 +7326,10 @@
     </row>
     <row r="376" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="B376" s="0" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="C376" s="0" t="n">
         <v>1</v>
@@ -7341,10 +7337,10 @@
     </row>
     <row r="377" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>676</v>
+        <v>730</v>
       </c>
       <c r="C377" s="0" t="n">
         <v>1</v>
@@ -7352,10 +7348,10 @@
     </row>
     <row r="378" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="B378" s="0" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="C378" s="0" t="n">
         <v>1</v>
@@ -7363,10 +7359,10 @@
     </row>
     <row r="379" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="B379" s="0" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="C379" s="0" t="n">
         <v>1</v>
@@ -7374,10 +7370,10 @@
     </row>
     <row r="380" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="B380" s="0" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="C380" s="0" t="n">
         <v>1</v>
@@ -7385,10 +7381,10 @@
     </row>
     <row r="381" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="B381" s="0" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="C381" s="0" t="n">
         <v>1</v>
@@ -7396,10 +7392,10 @@
     </row>
     <row r="382" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="C382" s="0" t="n">
         <v>1</v>
@@ -7407,10 +7403,10 @@
     </row>
     <row r="383" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="B383" s="0" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="C383" s="0" t="n">
         <v>1</v>
@@ -7418,10 +7414,10 @@
     </row>
     <row r="384" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="B384" s="0" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="C384" s="0" t="n">
         <v>1</v>
@@ -7429,10 +7425,10 @@
     </row>
     <row r="385" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="B385" s="0" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="C385" s="0" t="n">
         <v>1</v>
@@ -7440,10 +7436,10 @@
     </row>
     <row r="386" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="B386" s="0" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="C386" s="0" t="n">
         <v>1</v>
@@ -7451,10 +7447,10 @@
     </row>
     <row r="387" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="B387" s="0" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="C387" s="0" t="n">
         <v>1</v>
@@ -7462,10 +7458,10 @@
     </row>
     <row r="388" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="B388" s="0" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="C388" s="0" t="n">
         <v>1</v>
@@ -7473,10 +7469,10 @@
     </row>
     <row r="389" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="B389" s="0" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="C389" s="0" t="n">
         <v>1</v>
@@ -7484,10 +7480,10 @@
     </row>
     <row r="390" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="B390" s="0" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="C390" s="0" t="n">
         <v>1</v>
@@ -7495,10 +7491,10 @@
     </row>
     <row r="391" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="B391" s="0" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="C391" s="0" t="n">
         <v>1</v>
@@ -7506,10 +7502,10 @@
     </row>
     <row r="392" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="B392" s="0" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="C392" s="0" t="n">
         <v>1</v>
@@ -7517,10 +7513,10 @@
     </row>
     <row r="393" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="B393" s="0" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="C393" s="0" t="n">
         <v>1</v>
@@ -7528,10 +7524,10 @@
     </row>
     <row r="394" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="B394" s="0" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="C394" s="0" t="n">
         <v>1</v>
@@ -7539,10 +7535,10 @@
     </row>
     <row r="395" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="B395" s="0" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="C395" s="0" t="n">
         <v>1</v>
@@ -7550,10 +7546,10 @@
     </row>
     <row r="396" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="B396" s="0" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="C396" s="0" t="n">
         <v>1</v>
@@ -7561,10 +7557,10 @@
     </row>
     <row r="397" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="B397" s="0" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="C397" s="0" t="n">
         <v>1</v>
@@ -7572,10 +7568,10 @@
     </row>
     <row r="398" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="B398" s="0" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="C398" s="0" t="n">
         <v>1</v>
@@ -7583,10 +7579,10 @@
     </row>
     <row r="399" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="B399" s="0" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="C399" s="0" t="n">
         <v>1</v>
@@ -7594,10 +7590,10 @@
     </row>
     <row r="400" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="B400" s="0" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="C400" s="0" t="n">
         <v>1</v>
@@ -7605,10 +7601,10 @@
     </row>
     <row r="401" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="B401" s="0" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="C401" s="0" t="n">
         <v>1</v>
@@ -7616,10 +7612,10 @@
     </row>
     <row r="402" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="B402" s="0" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="C402" s="0" t="n">
         <v>1</v>
@@ -7627,10 +7623,10 @@
     </row>
     <row r="403" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="B403" s="0" t="s">
-        <v>778</v>
+        <v>61</v>
       </c>
       <c r="C403" s="0" t="n">
         <v>1</v>
@@ -7638,10 +7634,10 @@
     </row>
     <row r="404" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="B404" s="0" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="C404" s="0" t="n">
         <v>1</v>
@@ -7649,10 +7645,10 @@
     </row>
     <row r="405" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="0" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="B405" s="0" t="s">
-        <v>61</v>
+        <v>785</v>
       </c>
       <c r="C405" s="0" t="n">
         <v>1</v>
@@ -7660,10 +7656,10 @@
     </row>
     <row r="406" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="B406" s="0" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="C406" s="0" t="n">
         <v>1</v>
@@ -7671,10 +7667,10 @@
     </row>
     <row r="407" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="0" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="B407" s="0" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="C407" s="0" t="n">
         <v>1</v>
@@ -7682,10 +7678,10 @@
     </row>
     <row r="408" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="0" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="B408" s="0" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="C408" s="0" t="n">
         <v>1</v>
@@ -7693,10 +7689,10 @@
     </row>
     <row r="409" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="B409" s="0" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="C409" s="0" t="n">
         <v>1</v>
@@ -7704,10 +7700,10 @@
     </row>
     <row r="410" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="0" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="B410" s="0" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="C410" s="0" t="n">
         <v>1</v>
@@ -7715,10 +7711,10 @@
     </row>
     <row r="411" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="0" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="B411" s="0" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="C411" s="0" t="n">
         <v>1</v>
@@ -7726,10 +7722,10 @@
     </row>
     <row r="412" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="0" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="B412" s="0" t="s">
-        <v>795</v>
+        <v>780</v>
       </c>
       <c r="C412" s="0" t="n">
         <v>1</v>
@@ -7737,10 +7733,10 @@
     </row>
     <row r="413" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="0" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B413" s="0" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="C413" s="0" t="n">
         <v>1</v>
@@ -7748,10 +7744,10 @@
     </row>
     <row r="414" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="0" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="B414" s="0" t="s">
-        <v>780</v>
+        <v>802</v>
       </c>
       <c r="C414" s="0" t="n">
         <v>1</v>
@@ -7759,10 +7755,10 @@
     </row>
     <row r="415" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="0" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="B415" s="0" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="C415" s="0" t="n">
         <v>1</v>
@@ -7770,10 +7766,10 @@
     </row>
     <row r="416" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="0" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="B416" s="0" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="C416" s="0" t="n">
         <v>1</v>
@@ -7781,10 +7777,10 @@
     </row>
     <row r="417" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="0" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="B417" s="0" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="C417" s="0" t="n">
         <v>1</v>
@@ -7792,10 +7788,10 @@
     </row>
     <row r="418" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="0" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="B418" s="0" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="C418" s="0" t="n">
         <v>1</v>
@@ -7803,10 +7799,10 @@
     </row>
     <row r="419" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="0" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="B419" s="0" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="C419" s="0" t="n">
         <v>1</v>
@@ -7814,10 +7810,10 @@
     </row>
     <row r="420" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="0" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="B420" s="0" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="C420" s="0" t="n">
         <v>1</v>
@@ -7825,10 +7821,10 @@
     </row>
     <row r="421" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="0" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="B421" s="0" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="C421" s="0" t="n">
         <v>1</v>
@@ -7836,10 +7832,10 @@
     </row>
     <row r="422" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="0" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="B422" s="0" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="C422" s="0" t="n">
         <v>1</v>
@@ -7847,10 +7843,10 @@
     </row>
     <row r="423" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="0" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="B423" s="0" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="C423" s="0" t="n">
         <v>1</v>
@@ -7858,10 +7854,10 @@
     </row>
     <row r="424" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="0" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="B424" s="0" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="C424" s="0" t="n">
         <v>1</v>
@@ -7869,10 +7865,10 @@
     </row>
     <row r="425" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="0" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="B425" s="0" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="C425" s="0" t="n">
         <v>1</v>
@@ -7880,10 +7876,10 @@
     </row>
     <row r="426" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="B426" s="0" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="C426" s="0" t="n">
         <v>1</v>
@@ -7891,10 +7887,10 @@
     </row>
     <row r="427" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="0" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="B427" s="0" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="C427" s="0" t="n">
         <v>1</v>
@@ -7902,10 +7898,10 @@
     </row>
     <row r="428" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="0" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="B428" s="0" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="C428" s="0" t="n">
         <v>1</v>
@@ -7913,10 +7909,10 @@
     </row>
     <row r="429" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="B429" s="0" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="C429" s="0" t="n">
         <v>1</v>
@@ -7924,10 +7920,10 @@
     </row>
     <row r="430" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="B430" s="0" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="C430" s="0" t="n">
         <v>1</v>
@@ -7935,10 +7931,10 @@
     </row>
     <row r="431" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="0" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="B431" s="0" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="C431" s="0" t="n">
         <v>1</v>
@@ -7946,10 +7942,10 @@
     </row>
     <row r="432" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="B432" s="0" t="s">
-        <v>834</v>
+        <v>95</v>
       </c>
       <c r="C432" s="0" t="n">
         <v>1</v>
@@ -7957,10 +7953,10 @@
     </row>
     <row r="433" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="0" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="B433" s="0" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="C433" s="0" t="n">
         <v>1</v>
@@ -7968,10 +7964,10 @@
     </row>
     <row r="434" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="0" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="B434" s="0" t="s">
-        <v>95</v>
+        <v>841</v>
       </c>
       <c r="C434" s="0" t="n">
         <v>1</v>
@@ -7979,10 +7975,10 @@
     </row>
     <row r="435" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="0" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="B435" s="0" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="C435" s="0" t="n">
         <v>1</v>
@@ -7990,10 +7986,10 @@
     </row>
     <row r="436" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="0" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="B436" s="0" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="C436" s="0" t="n">
         <v>1</v>
@@ -8001,10 +7997,10 @@
     </row>
     <row r="437" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="0" t="s">
-        <v>842</v>
+        <v>708</v>
       </c>
       <c r="B437" s="0" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="C437" s="0" t="n">
         <v>1</v>
@@ -8012,10 +8008,10 @@
     </row>
     <row r="438" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="0" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="B438" s="0" t="s">
-        <v>845</v>
+        <v>795</v>
       </c>
       <c r="C438" s="0" t="n">
         <v>1</v>
@@ -8023,10 +8019,10 @@
     </row>
     <row r="439" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="0" t="s">
-        <v>708</v>
+        <v>848</v>
       </c>
       <c r="B439" s="0" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="C439" s="0" t="n">
         <v>1</v>
@@ -8034,10 +8030,10 @@
     </row>
     <row r="440" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="B440" s="0" t="s">
-        <v>795</v>
+        <v>851</v>
       </c>
       <c r="C440" s="0" t="n">
         <v>1</v>
@@ -8045,10 +8041,10 @@
     </row>
     <row r="441" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="s">
-        <v>848</v>
+        <v>678</v>
       </c>
       <c r="B441" s="0" t="s">
-        <v>849</v>
+        <v>678</v>
       </c>
       <c r="C441" s="0" t="n">
         <v>1</v>
@@ -8056,10 +8052,10 @@
     </row>
     <row r="442" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="0" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B442" s="0" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="C442" s="0" t="n">
         <v>1</v>
@@ -8067,10 +8063,10 @@
     </row>
     <row r="443" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="0" t="s">
-        <v>678</v>
+        <v>854</v>
       </c>
       <c r="B443" s="0" t="s">
-        <v>678</v>
+        <v>855</v>
       </c>
       <c r="C443" s="0" t="n">
         <v>1</v>
@@ -8078,10 +8074,10 @@
     </row>
     <row r="444" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="0" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="B444" s="0" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="C444" s="0" t="n">
         <v>1</v>
@@ -8089,10 +8085,10 @@
     </row>
     <row r="445" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="B445" s="0" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="C445" s="0" t="n">
         <v>1</v>
@@ -8100,10 +8096,10 @@
     </row>
     <row r="446" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="0" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="B446" s="0" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="C446" s="0" t="n">
         <v>1</v>
@@ -8111,10 +8107,10 @@
     </row>
     <row r="447" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="0" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="B447" s="0" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="C447" s="0" t="n">
         <v>1</v>
@@ -8122,10 +8118,10 @@
     </row>
     <row r="448" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="0" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="B448" s="0" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="C448" s="0" t="n">
         <v>1</v>
@@ -8133,10 +8129,10 @@
     </row>
     <row r="449" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="0" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="B449" s="0" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="C449" s="0" t="n">
         <v>1</v>
@@ -8144,10 +8140,10 @@
     </row>
     <row r="450" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="0" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="B450" s="0" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="C450" s="0" t="n">
         <v>1</v>
@@ -8155,10 +8151,10 @@
     </row>
     <row r="451" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="0" t="s">
-        <v>866</v>
+        <v>86</v>
       </c>
       <c r="B451" s="0" t="s">
-        <v>867</v>
+        <v>87</v>
       </c>
       <c r="C451" s="0" t="n">
         <v>1</v>
@@ -8166,10 +8162,10 @@
     </row>
     <row r="452" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="0" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="B452" s="0" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="C452" s="0" t="n">
         <v>1</v>
@@ -8177,10 +8173,10 @@
     </row>
     <row r="453" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="0" t="s">
-        <v>86</v>
+        <v>872</v>
       </c>
       <c r="B453" s="0" t="s">
-        <v>87</v>
+        <v>873</v>
       </c>
       <c r="C453" s="0" t="n">
         <v>1</v>
@@ -8188,10 +8184,10 @@
     </row>
     <row r="454" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="0" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="B454" s="0" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="C454" s="0" t="n">
         <v>1</v>
@@ -8199,10 +8195,10 @@
     </row>
     <row r="455" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="0" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="B455" s="0" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="C455" s="0" t="n">
         <v>1</v>
@@ -8210,10 +8206,10 @@
     </row>
     <row r="456" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="0" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="B456" s="0" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="C456" s="0" t="n">
         <v>1</v>
@@ -8221,10 +8217,10 @@
     </row>
     <row r="457" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="0" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="B457" s="0" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="C457" s="0" t="n">
         <v>1</v>
@@ -8232,10 +8228,10 @@
     </row>
     <row r="458" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="0" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="B458" s="0" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="C458" s="0" t="n">
         <v>1</v>
@@ -8243,10 +8239,10 @@
     </row>
     <row r="459" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="0" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="B459" s="0" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="C459" s="0" t="n">
         <v>1</v>
@@ -8254,10 +8250,10 @@
     </row>
     <row r="460" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="0" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="B460" s="0" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="C460" s="0" t="n">
         <v>1</v>
@@ -8265,10 +8261,10 @@
     </row>
     <row r="461" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="0" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="B461" s="0" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="C461" s="0" t="n">
         <v>1</v>
@@ -8276,10 +8272,10 @@
     </row>
     <row r="462" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="0" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="B462" s="0" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="C462" s="0" t="n">
         <v>1</v>
@@ -8287,10 +8283,10 @@
     </row>
     <row r="463" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="0" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="B463" s="0" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="C463" s="0" t="n">
         <v>1</v>
@@ -8298,10 +8294,10 @@
     </row>
     <row r="464" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="0" t="s">
-        <v>890</v>
+        <v>765</v>
       </c>
       <c r="B464" s="0" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="C464" s="0" t="n">
         <v>1</v>
@@ -8309,10 +8305,10 @@
     </row>
     <row r="465" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="0" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="B465" s="0" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="C465" s="0" t="n">
         <v>1</v>
@@ -8320,10 +8316,10 @@
     </row>
     <row r="466" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="0" t="s">
-        <v>765</v>
+        <v>897</v>
       </c>
       <c r="B466" s="0" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="C466" s="0" t="n">
         <v>1</v>
@@ -8331,10 +8327,10 @@
     </row>
     <row r="467" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="0" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="B467" s="0" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="C467" s="0" t="n">
         <v>1</v>
@@ -8342,10 +8338,10 @@
     </row>
     <row r="468" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="0" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="B468" s="0" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="C468" s="0" t="n">
         <v>1</v>
@@ -8353,10 +8349,10 @@
     </row>
     <row r="469" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="0" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="B469" s="0" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="C469" s="0" t="n">
         <v>1</v>
@@ -8364,10 +8360,10 @@
     </row>
     <row r="470" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="0" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="B470" s="0" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="C470" s="0" t="n">
         <v>1</v>
@@ -8375,10 +8371,10 @@
     </row>
     <row r="471" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="0" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="B471" s="0" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="C471" s="0" t="n">
         <v>1</v>
@@ -8386,10 +8382,10 @@
     </row>
     <row r="472" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="0" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="B472" s="0" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="C472" s="0" t="n">
         <v>1</v>
@@ -8397,10 +8393,10 @@
     </row>
     <row r="473" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="0" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="B473" s="0" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="C473" s="0" t="n">
         <v>1</v>
@@ -8408,10 +8404,10 @@
     </row>
     <row r="474" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="0" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="B474" s="0" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="C474" s="0" t="n">
         <v>1</v>
@@ -8419,10 +8415,10 @@
     </row>
     <row r="475" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="0" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="B475" s="0" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="C475" s="0" t="n">
         <v>1</v>
@@ -8430,10 +8426,10 @@
     </row>
     <row r="476" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="0" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="B476" s="0" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="C476" s="0" t="n">
         <v>1</v>
@@ -8441,10 +8437,10 @@
     </row>
     <row r="477" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="0" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="B477" s="0" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="C477" s="0" t="n">
         <v>1</v>
@@ -8452,10 +8448,10 @@
     </row>
     <row r="478" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="0" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="B478" s="0" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="C478" s="0" t="n">
         <v>1</v>
@@ -8463,10 +8459,10 @@
     </row>
     <row r="479" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="0" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="B479" s="0" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="C479" s="0" t="n">
         <v>1</v>
@@ -8474,10 +8470,10 @@
     </row>
     <row r="480" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="0" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="B480" s="0" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="C480" s="0" t="n">
         <v>1</v>
@@ -8485,10 +8481,10 @@
     </row>
     <row r="481" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="0" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="B481" s="0" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="C481" s="0" t="n">
         <v>1</v>
@@ -8496,10 +8492,10 @@
     </row>
     <row r="482" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="0" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="B482" s="0" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="C482" s="0" t="n">
         <v>1</v>
@@ -8507,10 +8503,10 @@
     </row>
     <row r="483" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="0" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="B483" s="0" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="C483" s="0" t="n">
         <v>1</v>
@@ -8518,10 +8514,10 @@
     </row>
     <row r="484" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="0" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="B484" s="0" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="C484" s="0" t="n">
         <v>1</v>
@@ -8529,10 +8525,10 @@
     </row>
     <row r="485" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="0" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="B485" s="0" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="C485" s="0" t="n">
         <v>1</v>
@@ -8540,10 +8536,10 @@
     </row>
     <row r="486" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="0" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="B486" s="0" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="C486" s="0" t="n">
         <v>1</v>
@@ -8551,10 +8547,10 @@
     </row>
     <row r="487" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="0" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="B487" s="0" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="C487" s="0" t="n">
         <v>1</v>
@@ -8562,10 +8558,10 @@
     </row>
     <row r="488" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="0" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="B488" s="0" t="s">
-        <v>926</v>
+        <v>941</v>
       </c>
       <c r="C488" s="0" t="n">
         <v>1</v>
@@ -8573,10 +8569,10 @@
     </row>
     <row r="489" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="0" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="B489" s="0" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="C489" s="0" t="n">
         <v>1</v>
@@ -8584,10 +8580,10 @@
     </row>
     <row r="490" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="0" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="B490" s="0" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="C490" s="0" t="n">
         <v>1</v>
@@ -8595,10 +8591,10 @@
     </row>
     <row r="491" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="0" t="s">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="B491" s="0" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
       <c r="C491" s="0" t="n">
         <v>1</v>
@@ -8606,10 +8602,10 @@
     </row>
     <row r="492" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="0" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
       <c r="B492" s="0" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="C492" s="0" t="n">
         <v>1</v>
@@ -8617,10 +8613,10 @@
     </row>
     <row r="493" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="0" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="B493" s="0" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="C493" s="0" t="n">
         <v>1</v>
@@ -8628,10 +8624,10 @@
     </row>
     <row r="494" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="0" t="s">
-        <v>948</v>
+        <v>287</v>
       </c>
       <c r="B494" s="0" t="s">
-        <v>949</v>
+        <v>288</v>
       </c>
       <c r="C494" s="0" t="n">
         <v>1</v>
@@ -8639,10 +8635,10 @@
     </row>
     <row r="495" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="0" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B495" s="0" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C495" s="0" t="n">
         <v>1</v>
@@ -8650,10 +8646,10 @@
     </row>
     <row r="496" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="0" t="s">
-        <v>287</v>
+        <v>953</v>
       </c>
       <c r="B496" s="0" t="s">
-        <v>288</v>
+        <v>954</v>
       </c>
       <c r="C496" s="0" t="n">
         <v>1</v>
@@ -8661,10 +8657,10 @@
     </row>
     <row r="497" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="0" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="B497" s="0" t="s">
-        <v>949</v>
+        <v>956</v>
       </c>
       <c r="C497" s="0" t="n">
         <v>1</v>
@@ -8672,10 +8668,10 @@
     </row>
     <row r="498" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="0" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="B498" s="0" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="C498" s="0" t="n">
         <v>1</v>
@@ -8683,10 +8679,10 @@
     </row>
     <row r="499" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="0" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="B499" s="0" t="s">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="C499" s="0" t="n">
         <v>1</v>
@@ -8694,10 +8690,10 @@
     </row>
     <row r="500" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="0" t="s">
-        <v>957</v>
+        <v>961</v>
       </c>
       <c r="B500" s="0" t="s">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="C500" s="0" t="n">
         <v>1</v>
@@ -8705,10 +8701,10 @@
     </row>
     <row r="501" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="0" t="s">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="B501" s="0" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="C501" s="0" t="n">
         <v>1</v>
@@ -8716,10 +8712,10 @@
     </row>
     <row r="502" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="0" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="B502" s="0" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="C502" s="0" t="n">
         <v>1</v>
@@ -8727,10 +8723,10 @@
     </row>
     <row r="503" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="0" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
       <c r="B503" s="0" t="s">
-        <v>964</v>
+        <v>968</v>
       </c>
       <c r="C503" s="0" t="n">
         <v>1</v>
@@ -8738,10 +8734,10 @@
     </row>
     <row r="504" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="0" t="s">
-        <v>965</v>
+        <v>765</v>
       </c>
       <c r="B504" s="0" t="s">
-        <v>966</v>
+        <v>766</v>
       </c>
       <c r="C504" s="0" t="n">
         <v>1</v>
@@ -8749,10 +8745,10 @@
     </row>
     <row r="505" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="0" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="B505" s="0" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="C505" s="0" t="n">
         <v>1</v>
@@ -8760,10 +8756,10 @@
     </row>
     <row r="506" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="0" t="s">
-        <v>765</v>
+        <v>594</v>
       </c>
       <c r="B506" s="0" t="s">
-        <v>766</v>
+        <v>971</v>
       </c>
       <c r="C506" s="0" t="n">
         <v>1</v>
@@ -8771,10 +8767,10 @@
     </row>
     <row r="507" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="0" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="B507" s="0" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="C507" s="0" t="n">
         <v>1</v>
@@ -8782,10 +8778,10 @@
     </row>
     <row r="508" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="0" t="s">
-        <v>594</v>
+        <v>974</v>
       </c>
       <c r="B508" s="0" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="C508" s="0" t="n">
         <v>1</v>
@@ -8793,10 +8789,10 @@
     </row>
     <row r="509" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="0" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="B509" s="0" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="C509" s="0" t="n">
         <v>1</v>
@@ -8804,92 +8800,72 @@
     </row>
     <row r="510" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="0" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="B510" s="0" t="s">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="C510" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="511" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="0" t="s">
-        <v>976</v>
-      </c>
-      <c r="B511" s="0" t="s">
-        <v>977</v>
-      </c>
-      <c r="C511" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="512" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A512" s="0" t="s">
-        <v>978</v>
+        <v>980</v>
+      </c>
+      <c r="B511" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="C511" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A512" s="1" t="s">
+        <v>982</v>
       </c>
       <c r="B512" s="0" t="s">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="C512" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="513" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="0" t="s">
-        <v>980</v>
-      </c>
-      <c r="B513" s="5" t="s">
-        <v>981</v>
-      </c>
-      <c r="C513" s="5" t="n">
+        <v>984</v>
+      </c>
+      <c r="B513" s="0" t="s">
+        <v>983</v>
+      </c>
+      <c r="C513" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="1" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="B514" s="0" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="C514" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="515" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A515" s="0" t="s">
-        <v>984</v>
+    <row r="515" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A515" s="1" t="s">
+        <v>987</v>
       </c>
       <c r="B515" s="0" t="s">
-        <v>983</v>
+        <v>988</v>
       </c>
       <c r="C515" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="516" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A516" s="1" t="s">
-        <v>985</v>
-      </c>
-      <c r="B516" s="0" t="s">
-        <v>986</v>
-      </c>
-      <c r="C516" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="517" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A517" s="1" t="s">
-        <v>987</v>
-      </c>
-      <c r="B517" s="0" t="s">
-        <v>988</v>
-      </c>
-      <c r="C517" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/public/translation/EngTranslate.xlsx
+++ b/public/translation/EngTranslate.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="1000">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -2991,6 +2991,57 @@
   </si>
   <si>
     <t xml:space="preserve">Get All Sessions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">report_card/haramain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report Card Haramien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">report_card/forsan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report Card Forsan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">report_card/mfis/boys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report Card MFISB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">report_card/mfis/girls</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Report Card </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">MFISG</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">report_card/mfis/manara-boys/printAll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrintAll Report Card MFISB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">report_card/mfis/manara-girls/printAll</t>
   </si>
 </sst>
 </file>
@@ -3001,7 +3052,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3037,6 +3088,12 @@
       <name val="Consolas"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3185,8 +3242,8 @@
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A326" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B336" activeCellId="0" sqref="B336"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A509" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A523" activeCellId="0" sqref="A523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8864,6 +8921,72 @@
         <v>1</v>
       </c>
     </row>
+    <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A516" s="0" t="s">
+        <v>989</v>
+      </c>
+      <c r="B516" s="0" t="s">
+        <v>990</v>
+      </c>
+      <c r="C516" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A517" s="0" t="s">
+        <v>991</v>
+      </c>
+      <c r="B517" s="0" t="s">
+        <v>992</v>
+      </c>
+      <c r="C517" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A518" s="0" t="s">
+        <v>993</v>
+      </c>
+      <c r="B518" s="0" t="s">
+        <v>994</v>
+      </c>
+      <c r="C518" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A519" s="0" t="s">
+        <v>995</v>
+      </c>
+      <c r="B519" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="C519" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A520" s="0" t="s">
+        <v>997</v>
+      </c>
+      <c r="B520" s="0" t="s">
+        <v>998</v>
+      </c>
+      <c r="C520" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A521" s="0" t="s">
+        <v>999</v>
+      </c>
+      <c r="B521" s="0" t="s">
+        <v>998</v>
+      </c>
+      <c r="C521" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/public/translation/EngTranslate.xlsx
+++ b/public/translation/EngTranslate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="false" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="false" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -3014,25 +3014,7 @@
     <t xml:space="preserve">report_card/mfis/girls</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Report Card </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">MFISG</t>
-    </r>
+    <t xml:space="preserve">Report Card MFISG</t>
   </si>
   <si>
     <t xml:space="preserve">report_card/mfis/manara-boys/printAll</t>
@@ -3052,13 +3034,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3080,20 +3061,12 @@
       <color rgb="FF8092A3"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFA31515"/>
       <name val="Consolas"/>
       <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3147,10 +3120,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3160,6 +3129,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3240,13 +3213,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1048576"/>
+  <dimension ref="A1:C521"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A509" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A523" activeCellId="0" sqref="A523"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A506" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B520" activeCellId="0" sqref="B520"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="56.45"/>
@@ -3254,7 +3227,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -3265,7 +3238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>3</v>
       </c>
@@ -3276,7 +3249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>5</v>
       </c>
@@ -3287,7 +3260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>7</v>
       </c>
@@ -3298,7 +3271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>9</v>
       </c>
@@ -3309,7 +3282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>11</v>
       </c>
@@ -3320,7 +3293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>13</v>
       </c>
@@ -3331,7 +3304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>15</v>
       </c>
@@ -3342,7 +3315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>17</v>
       </c>
@@ -3353,7 +3326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>19</v>
       </c>
@@ -3364,7 +3337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>21</v>
       </c>
@@ -3375,7 +3348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>23</v>
       </c>
@@ -3386,7 +3359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>25</v>
       </c>
@@ -3397,7 +3370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>27</v>
       </c>
@@ -3408,7 +3381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>29</v>
       </c>
@@ -3419,7 +3392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>31</v>
       </c>
@@ -3430,7 +3403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>32</v>
       </c>
@@ -3441,7 +3414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>34</v>
       </c>
@@ -3452,7 +3425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>36</v>
       </c>
@@ -3463,7 +3436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>38</v>
       </c>
@@ -3474,7 +3447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>40</v>
       </c>
@@ -3485,7 +3458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>42</v>
       </c>
@@ -3496,7 +3469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>44</v>
       </c>
@@ -3507,7 +3480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>46</v>
       </c>
@@ -3518,7 +3491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>48</v>
       </c>
@@ -3529,7 +3502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>50</v>
       </c>
@@ -3540,7 +3513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>52</v>
       </c>
@@ -3551,7 +3524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>54</v>
       </c>
@@ -3562,7 +3535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>56</v>
       </c>
@@ -3573,7 +3546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>58</v>
       </c>
@@ -3584,7 +3557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>60</v>
       </c>
@@ -3595,7 +3568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>62</v>
       </c>
@@ -3606,7 +3579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>64</v>
       </c>
@@ -3617,7 +3590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>66</v>
       </c>
@@ -3628,7 +3601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>68</v>
       </c>
@@ -3639,7 +3612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>70</v>
       </c>
@@ -3650,7 +3623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>72</v>
       </c>
@@ -3661,7 +3634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>74</v>
       </c>
@@ -3672,7 +3645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>76</v>
       </c>
@@ -3683,7 +3656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>78</v>
       </c>
@@ -3694,7 +3667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>80</v>
       </c>
@@ -3705,7 +3678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>82</v>
       </c>
@@ -3716,7 +3689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>84</v>
       </c>
@@ -3727,7 +3700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>86</v>
       </c>
@@ -3738,7 +3711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>88</v>
       </c>
@@ -3749,7 +3722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>90</v>
       </c>
@@ -3760,7 +3733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>92</v>
       </c>
@@ -3771,7 +3744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>94</v>
       </c>
@@ -3782,7 +3755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>96</v>
       </c>
@@ -3793,7 +3766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>98</v>
       </c>
@@ -3804,7 +3777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>99</v>
       </c>
@@ -3815,7 +3788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>101</v>
       </c>
@@ -3826,7 +3799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>102</v>
       </c>
@@ -3837,7 +3810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>104</v>
       </c>
@@ -3848,7 +3821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>106</v>
       </c>
@@ -3859,7 +3832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>108</v>
       </c>
@@ -3870,7 +3843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>110</v>
       </c>
@@ -3881,7 +3854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>112</v>
       </c>
@@ -3892,7 +3865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>114</v>
       </c>
@@ -3903,7 +3876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>116</v>
       </c>
@@ -3914,7 +3887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>118</v>
       </c>
@@ -3925,7 +3898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>120</v>
       </c>
@@ -3936,7 +3909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>122</v>
       </c>
@@ -3947,7 +3920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>124</v>
       </c>
@@ -3958,7 +3931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>126</v>
       </c>
@@ -3969,7 +3942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>128</v>
       </c>
@@ -3980,7 +3953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>130</v>
       </c>
@@ -3991,7 +3964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>132</v>
       </c>
@@ -4002,7 +3975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>134</v>
       </c>
@@ -4013,7 +3986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>136</v>
       </c>
@@ -4024,7 +3997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>138</v>
       </c>
@@ -4035,7 +4008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>140</v>
       </c>
@@ -4046,7 +4019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>142</v>
       </c>
@@ -4057,7 +4030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>144</v>
       </c>
@@ -4068,7 +4041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>146</v>
       </c>
@@ -4079,7 +4052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>148</v>
       </c>
@@ -4090,7 +4063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>150</v>
       </c>
@@ -4101,7 +4074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>152</v>
       </c>
@@ -4112,7 +4085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>154</v>
       </c>
@@ -4123,7 +4096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>156</v>
       </c>
@@ -4134,7 +4107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>158</v>
       </c>
@@ -4145,7 +4118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>160</v>
       </c>
@@ -4156,7 +4129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>162</v>
       </c>
@@ -4167,7 +4140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>164</v>
       </c>
@@ -4178,7 +4151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>166</v>
       </c>
@@ -4189,7 +4162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
         <v>168</v>
       </c>
@@ -4200,7 +4173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>170</v>
       </c>
@@ -4211,7 +4184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>172</v>
       </c>
@@ -4222,7 +4195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
         <v>174</v>
       </c>
@@ -4233,7 +4206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>176</v>
       </c>
@@ -4244,7 +4217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
         <v>178</v>
       </c>
@@ -4255,7 +4228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
         <v>180</v>
       </c>
@@ -4266,7 +4239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>182</v>
       </c>
@@ -4277,7 +4250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>184</v>
       </c>
@@ -4288,7 +4261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
         <v>186</v>
       </c>
@@ -4299,7 +4272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
         <v>188</v>
       </c>
@@ -4310,7 +4283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>190</v>
       </c>
@@ -4321,7 +4294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>192</v>
       </c>
@@ -4332,7 +4305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
         <v>194</v>
       </c>
@@ -4343,7 +4316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
         <v>196</v>
       </c>
@@ -4354,7 +4327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
         <v>198</v>
       </c>
@@ -4365,7 +4338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
         <v>200</v>
       </c>
@@ -4376,7 +4349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
         <v>202</v>
       </c>
@@ -4387,7 +4360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
         <v>204</v>
       </c>
@@ -4398,7 +4371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
         <v>206</v>
       </c>
@@ -4409,7 +4382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
         <v>208</v>
       </c>
@@ -4420,7 +4393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
         <v>210</v>
       </c>
@@ -4431,7 +4404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
         <v>212</v>
       </c>
@@ -4442,7 +4415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
         <v>214</v>
       </c>
@@ -4453,7 +4426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
         <v>216</v>
       </c>
@@ -4464,7 +4437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
         <v>218</v>
       </c>
@@ -4475,7 +4448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
         <v>220</v>
       </c>
@@ -4486,7 +4459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
         <v>222</v>
       </c>
@@ -4497,7 +4470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
         <v>224</v>
       </c>
@@ -4508,7 +4481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
         <v>226</v>
       </c>
@@ -4519,7 +4492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
         <v>228</v>
       </c>
@@ -4530,7 +4503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>229</v>
       </c>
@@ -4541,7 +4514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
         <v>231</v>
       </c>
@@ -4552,7 +4525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
         <v>233</v>
       </c>
@@ -4563,7 +4536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
         <v>235</v>
       </c>
@@ -4574,7 +4547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
         <v>237</v>
       </c>
@@ -4585,7 +4558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
         <v>239</v>
       </c>
@@ -4596,7 +4569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
         <v>241</v>
       </c>
@@ -4607,7 +4580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
         <v>243</v>
       </c>
@@ -4618,7 +4591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
         <v>245</v>
       </c>
@@ -4629,7 +4602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
         <v>247</v>
       </c>
@@ -4640,7 +4613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
         <v>249</v>
       </c>
@@ -4651,7 +4624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
         <v>251</v>
       </c>
@@ -4662,7 +4635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
         <v>253</v>
       </c>
@@ -4673,7 +4646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
         <v>255</v>
       </c>
@@ -4684,7 +4657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
         <v>257</v>
       </c>
@@ -4695,7 +4668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
         <v>259</v>
       </c>
@@ -4706,7 +4679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
         <v>261</v>
       </c>
@@ -4717,7 +4690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
         <v>263</v>
       </c>
@@ -4728,7 +4701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
         <v>265</v>
       </c>
@@ -4739,7 +4712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
         <v>267</v>
       </c>
@@ -4750,7 +4723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
         <v>269</v>
       </c>
@@ -4761,7 +4734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
         <v>271</v>
       </c>
@@ -4772,7 +4745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
         <v>273</v>
       </c>
@@ -4783,7 +4756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
         <v>275</v>
       </c>
@@ -4794,7 +4767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
         <v>277</v>
       </c>
@@ -4805,7 +4778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
         <v>279</v>
       </c>
@@ -4816,7 +4789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
         <v>281</v>
       </c>
@@ -4827,7 +4800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
         <v>283</v>
       </c>
@@ -4838,7 +4811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
         <v>285</v>
       </c>
@@ -4849,7 +4822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
         <v>287</v>
       </c>
@@ -4860,7 +4833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
         <v>289</v>
       </c>
@@ -4871,7 +4844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
         <v>291</v>
       </c>
@@ -4882,7 +4855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
         <v>293</v>
       </c>
@@ -4893,7 +4866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
         <v>295</v>
       </c>
@@ -4904,7 +4877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
         <v>297</v>
       </c>
@@ -4915,7 +4888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
         <v>299</v>
       </c>
@@ -4926,7 +4899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
         <v>301</v>
       </c>
@@ -4937,7 +4910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
         <v>303</v>
       </c>
@@ -4948,7 +4921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
         <v>305</v>
       </c>
@@ -4959,7 +4932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
         <v>307</v>
       </c>
@@ -4970,7 +4943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
         <v>309</v>
       </c>
@@ -4981,7 +4954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
         <v>311</v>
       </c>
@@ -4992,7 +4965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
         <v>313</v>
       </c>
@@ -5003,7 +4976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
         <v>315</v>
       </c>
@@ -5014,7 +4987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
         <v>317</v>
       </c>
@@ -5025,7 +4998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
         <v>319</v>
       </c>
@@ -5036,7 +5009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
         <v>321</v>
       </c>
@@ -5047,7 +5020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
         <v>323</v>
       </c>
@@ -5058,7 +5031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
         <v>325</v>
       </c>
@@ -5069,7 +5042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
         <v>327</v>
       </c>
@@ -5080,7 +5053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
         <v>329</v>
       </c>
@@ -5091,7 +5064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
         <v>331</v>
       </c>
@@ -5102,7 +5075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
         <v>333</v>
       </c>
@@ -5113,7 +5086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
         <v>335</v>
       </c>
@@ -5124,7 +5097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
         <v>337</v>
       </c>
@@ -5135,7 +5108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
         <v>339</v>
       </c>
@@ -5146,7 +5119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
         <v>341</v>
       </c>
@@ -5157,7 +5130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
         <v>343</v>
       </c>
@@ -5168,7 +5141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
         <v>345</v>
       </c>
@@ -5179,7 +5152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
         <v>347</v>
       </c>
@@ -5190,7 +5163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
         <v>349</v>
       </c>
@@ -5201,7 +5174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
         <v>351</v>
       </c>
@@ -5212,7 +5185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
         <v>353</v>
       </c>
@@ -5223,7 +5196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
         <v>355</v>
       </c>
@@ -5234,7 +5207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
         <v>357</v>
       </c>
@@ -5245,7 +5218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
         <v>359</v>
       </c>
@@ -5256,7 +5229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
         <v>361</v>
       </c>
@@ -5267,7 +5240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
         <v>363</v>
       </c>
@@ -5278,7 +5251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
         <v>365</v>
       </c>
@@ -5289,7 +5262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
         <v>367</v>
       </c>
@@ -5300,7 +5273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
         <v>369</v>
       </c>
@@ -5311,7 +5284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
         <v>371</v>
       </c>
@@ -5322,7 +5295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
         <v>373</v>
       </c>
@@ -5333,7 +5306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
         <v>375</v>
       </c>
@@ -5344,7 +5317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
         <v>377</v>
       </c>
@@ -5355,7 +5328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
         <v>379</v>
       </c>
@@ -5366,7 +5339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
         <v>381</v>
       </c>
@@ -5377,7 +5350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
         <v>382</v>
       </c>
@@ -5388,7 +5361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
         <v>384</v>
       </c>
@@ -5399,7 +5372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
         <v>385</v>
       </c>
@@ -5410,7 +5383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
         <v>387</v>
       </c>
@@ -5421,7 +5394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
         <v>389</v>
       </c>
@@ -5432,7 +5405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
         <v>391</v>
       </c>
@@ -5443,7 +5416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
         <v>393</v>
       </c>
@@ -5454,7 +5427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
         <v>395</v>
       </c>
@@ -5465,7 +5438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
         <v>397</v>
       </c>
@@ -5476,7 +5449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
         <v>399</v>
       </c>
@@ -5487,7 +5460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
         <v>401</v>
       </c>
@@ -5498,7 +5471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
         <v>403</v>
       </c>
@@ -5509,7 +5482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
         <v>405</v>
       </c>
@@ -5520,7 +5493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
         <v>407</v>
       </c>
@@ -5531,7 +5504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
         <v>409</v>
       </c>
@@ -5542,7 +5515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
         <v>411</v>
       </c>
@@ -5553,7 +5526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
         <v>413</v>
       </c>
@@ -5564,7 +5537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
         <v>415</v>
       </c>
@@ -5575,7 +5548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
         <v>417</v>
       </c>
@@ -5586,7 +5559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
         <v>419</v>
       </c>
@@ -5597,7 +5570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
         <v>421</v>
       </c>
@@ -5608,7 +5581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
         <v>423</v>
       </c>
@@ -5619,7 +5592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
         <v>425</v>
       </c>
@@ -5630,7 +5603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
         <v>427</v>
       </c>
@@ -5641,7 +5614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
         <v>429</v>
       </c>
@@ -5652,7 +5625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
         <v>431</v>
       </c>
@@ -5663,7 +5636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
         <v>433</v>
       </c>
@@ -5674,7 +5647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
         <v>435</v>
       </c>
@@ -5685,7 +5658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
         <v>437</v>
       </c>
@@ -5696,7 +5669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
         <v>439</v>
       </c>
@@ -5707,7 +5680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
         <v>441</v>
       </c>
@@ -5718,7 +5691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
         <v>443</v>
       </c>
@@ -5729,7 +5702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
         <v>445</v>
       </c>
@@ -5740,7 +5713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
         <v>447</v>
       </c>
@@ -5751,7 +5724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
         <v>449</v>
       </c>
@@ -5762,7 +5735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
         <v>451</v>
       </c>
@@ -5773,7 +5746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
         <v>453</v>
       </c>
@@ -5784,7 +5757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
         <v>455</v>
       </c>
@@ -5795,7 +5768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
         <v>457</v>
       </c>
@@ -5806,7 +5779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
         <v>459</v>
       </c>
@@ -5817,7 +5790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
         <v>461</v>
       </c>
@@ -5828,7 +5801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
         <v>463</v>
       </c>
@@ -5839,7 +5812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
         <v>465</v>
       </c>
@@ -5850,7 +5823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
         <v>467</v>
       </c>
@@ -5861,7 +5834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
         <v>469</v>
       </c>
@@ -5872,7 +5845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
         <v>471</v>
       </c>
@@ -5883,7 +5856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
         <v>473</v>
       </c>
@@ -5894,7 +5867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
         <v>474</v>
       </c>
@@ -5905,7 +5878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
         <v>476</v>
       </c>
@@ -5916,7 +5889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
         <v>478</v>
       </c>
@@ -5927,7 +5900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
         <v>480</v>
       </c>
@@ -5938,7 +5911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
         <v>482</v>
       </c>
@@ -5949,7 +5922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
         <v>484</v>
       </c>
@@ -5960,7 +5933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
         <v>486</v>
       </c>
@@ -5971,7 +5944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
         <v>488</v>
       </c>
@@ -5982,7 +5955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
         <v>490</v>
       </c>
@@ -5993,7 +5966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
         <v>492</v>
       </c>
@@ -6004,7 +5977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
         <v>494</v>
       </c>
@@ -6015,7 +5988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
         <v>496</v>
       </c>
@@ -6026,7 +5999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
         <v>498</v>
       </c>
@@ -6037,7 +6010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
         <v>500</v>
       </c>
@@ -6048,7 +6021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
         <v>502</v>
       </c>
@@ -6059,7 +6032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
         <v>504</v>
       </c>
@@ -6070,7 +6043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
         <v>506</v>
       </c>
@@ -6081,7 +6054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
         <v>508</v>
       </c>
@@ -6092,7 +6065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
         <v>510</v>
       </c>
@@ -6103,7 +6076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
         <v>512</v>
       </c>
@@ -6114,7 +6087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
         <v>514</v>
       </c>
@@ -6125,7 +6098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
         <v>516</v>
       </c>
@@ -6136,7 +6109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
         <v>518</v>
       </c>
@@ -6147,7 +6120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
         <v>520</v>
       </c>
@@ -6158,7 +6131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
         <v>522</v>
       </c>
@@ -6169,7 +6142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
         <v>1</v>
       </c>
@@ -6180,7 +6153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
         <v>525</v>
       </c>
@@ -6191,7 +6164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
         <v>527</v>
       </c>
@@ -6202,7 +6175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
         <v>529</v>
       </c>
@@ -6213,7 +6186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
         <v>531</v>
       </c>
@@ -6224,7 +6197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
         <v>533</v>
       </c>
@@ -6235,7 +6208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
         <v>534</v>
       </c>
@@ -6246,7 +6219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
         <v>536</v>
       </c>
@@ -6257,7 +6230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
         <v>538</v>
       </c>
@@ -6268,7 +6241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
         <v>540</v>
       </c>
@@ -6279,7 +6252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
         <v>542</v>
       </c>
@@ -6290,7 +6263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
         <v>544</v>
       </c>
@@ -6301,7 +6274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
         <v>546</v>
       </c>
@@ -6312,7 +6285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
         <v>548</v>
       </c>
@@ -6323,7 +6296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
         <v>550</v>
       </c>
@@ -6334,7 +6307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
         <v>552</v>
       </c>
@@ -6345,7 +6318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
         <v>554</v>
       </c>
@@ -6356,7 +6329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
         <v>556</v>
       </c>
@@ -6367,7 +6340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
         <v>558</v>
       </c>
@@ -6378,7 +6351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
         <v>560</v>
       </c>
@@ -6389,7 +6362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
         <v>562</v>
       </c>
@@ -6400,7 +6373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
         <v>564</v>
       </c>
@@ -6411,7 +6384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
         <v>566</v>
       </c>
@@ -6422,7 +6395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
         <v>568</v>
       </c>
@@ -6433,7 +6406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
         <v>570</v>
       </c>
@@ -6444,7 +6417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
         <v>572</v>
       </c>
@@ -6455,7 +6428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
         <v>574</v>
       </c>
@@ -6466,7 +6439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
         <v>576</v>
       </c>
@@ -6477,7 +6450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
         <v>578</v>
       </c>
@@ -6488,7 +6461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
         <v>580</v>
       </c>
@@ -6499,7 +6472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
         <v>582</v>
       </c>
@@ -6510,7 +6483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
         <v>584</v>
       </c>
@@ -6521,7 +6494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
         <v>586</v>
       </c>
@@ -6532,7 +6505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
         <v>588</v>
       </c>
@@ -6543,7 +6516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
         <v>590</v>
       </c>
@@ -6554,7 +6527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
         <v>592</v>
       </c>
@@ -6565,7 +6538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
         <v>594</v>
       </c>
@@ -6576,7 +6549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
         <v>596</v>
       </c>
@@ -6587,7 +6560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
         <v>598</v>
       </c>
@@ -6598,7 +6571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
         <v>600</v>
       </c>
@@ -6609,7 +6582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
         <v>602</v>
       </c>
@@ -6620,7 +6593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
         <v>604</v>
       </c>
@@ -6631,7 +6604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
         <v>606</v>
       </c>
@@ -6642,7 +6615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
         <v>608</v>
       </c>
@@ -6653,7 +6626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
         <v>610</v>
       </c>
@@ -6664,7 +6637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
         <v>612</v>
       </c>
@@ -6675,7 +6648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
         <v>614</v>
       </c>
@@ -6686,7 +6659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
         <v>616</v>
       </c>
@@ -6697,7 +6670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
         <v>618</v>
       </c>
@@ -6708,7 +6681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
         <v>620</v>
       </c>
@@ -6719,7 +6692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
         <v>621</v>
       </c>
@@ -6730,7 +6703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
         <v>623</v>
       </c>
@@ -6741,7 +6714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
         <v>625</v>
       </c>
@@ -6752,7 +6725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
         <v>627</v>
       </c>
@@ -6763,7 +6736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
         <v>629</v>
       </c>
@@ -6774,7 +6747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
         <v>631</v>
       </c>
@@ -6785,7 +6758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
         <v>633</v>
       </c>
@@ -6796,7 +6769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
         <v>635</v>
       </c>
@@ -6807,7 +6780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
         <v>637</v>
       </c>
@@ -6818,7 +6791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
         <v>639</v>
       </c>
@@ -6829,7 +6802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
         <v>640</v>
       </c>
@@ -6840,7 +6813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
         <v>642</v>
       </c>
@@ -6851,7 +6824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
         <v>644</v>
       </c>
@@ -6862,7 +6835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
         <v>646</v>
       </c>
@@ -6873,7 +6846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="s">
         <v>647</v>
       </c>
@@ -6884,7 +6857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
         <v>649</v>
       </c>
@@ -6895,7 +6868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
         <v>651</v>
       </c>
@@ -6906,7 +6879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
         <v>653</v>
       </c>
@@ -6917,7 +6890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
         <v>655</v>
       </c>
@@ -6928,7 +6901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
         <v>657</v>
       </c>
@@ -6939,124 +6912,122 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B336" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="B336" s="0" t="s">
+        <v>660</v>
       </c>
       <c r="C336" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B337" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="B337" s="0" t="s">
+        <v>662</v>
       </c>
       <c r="C337" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="B338" s="0" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="C338" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="B339" s="0" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="C339" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="C340" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="C341" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="C342" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="C343" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C344" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C345" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="0" t="s">
-        <v>675</v>
-      </c>
-      <c r="B346" s="0" t="s">
-        <v>675</v>
+    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>677</v>
       </c>
       <c r="C346" s="0" t="n">
         <v>1</v>
@@ -7064,38 +7035,38 @@
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="C347" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="B348" s="3" t="s">
-        <v>677</v>
+    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="B348" s="0" t="s">
+        <v>681</v>
       </c>
       <c r="C348" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="B349" s="0" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="C349" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="s">
         <v>680</v>
       </c>
@@ -7106,1761 +7077,1761 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="0" t="s">
-        <v>682</v>
-      </c>
-      <c r="B351" s="0" t="s">
-        <v>683</v>
+    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="C351" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="0" t="s">
-        <v>680</v>
+    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="3" t="s">
+        <v>684</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="C352" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B353" s="4" t="s">
+    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="B353" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="C353" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="B354" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="C354" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="B355" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="C355" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="B356" s="0" t="s">
+        <v>693</v>
+      </c>
+      <c r="C356" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="B357" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="C357" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="B358" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="C358" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="B359" s="0" t="s">
+        <v>699</v>
+      </c>
+      <c r="C359" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="B360" s="0" t="s">
+        <v>701</v>
+      </c>
+      <c r="C360" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="B361" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="C361" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="B362" s="0" t="s">
+        <v>705</v>
+      </c>
+      <c r="C362" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="B363" s="0" t="s">
+        <v>707</v>
+      </c>
+      <c r="C363" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="0" t="s">
+        <v>708</v>
+      </c>
+      <c r="B364" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="C364" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="0" t="s">
+        <v>710</v>
+      </c>
+      <c r="B365" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="C365" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="B366" s="0" t="s">
+        <v>713</v>
+      </c>
+      <c r="C366" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="B367" s="0" t="s">
+        <v>715</v>
+      </c>
+      <c r="C367" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="B368" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="C368" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="B369" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="C369" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="B370" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="C370" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="B371" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="C371" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="0" t="s">
+        <v>724</v>
+      </c>
+      <c r="B372" s="0" t="s">
+        <v>725</v>
+      </c>
+      <c r="C372" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="B373" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="C373" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="B374" s="0" t="s">
+        <v>728</v>
+      </c>
+      <c r="C374" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="0" t="s">
+        <v>729</v>
+      </c>
+      <c r="B375" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="C375" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="0" t="s">
+        <v>731</v>
+      </c>
+      <c r="B376" s="0" t="s">
+        <v>732</v>
+      </c>
+      <c r="C376" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="B377" s="0" t="s">
+        <v>734</v>
+      </c>
+      <c r="C377" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="0" t="s">
+        <v>735</v>
+      </c>
+      <c r="B378" s="0" t="s">
+        <v>736</v>
+      </c>
+      <c r="C378" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="0" t="s">
+        <v>737</v>
+      </c>
+      <c r="B379" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="C379" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="0" t="s">
+        <v>739</v>
+      </c>
+      <c r="B380" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="C380" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="0" t="s">
+        <v>741</v>
+      </c>
+      <c r="B381" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="C381" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="0" t="s">
+        <v>743</v>
+      </c>
+      <c r="B382" s="0" t="s">
+        <v>744</v>
+      </c>
+      <c r="C382" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="B383" s="0" t="s">
+        <v>746</v>
+      </c>
+      <c r="C383" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="0" t="s">
+        <v>747</v>
+      </c>
+      <c r="B384" s="0" t="s">
+        <v>748</v>
+      </c>
+      <c r="C384" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="0" t="s">
+        <v>749</v>
+      </c>
+      <c r="B385" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="C385" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="0" t="s">
+        <v>751</v>
+      </c>
+      <c r="B386" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="C386" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="0" t="s">
+        <v>753</v>
+      </c>
+      <c r="B387" s="0" t="s">
+        <v>754</v>
+      </c>
+      <c r="C387" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="0" t="s">
+        <v>755</v>
+      </c>
+      <c r="B388" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="C388" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="0" t="s">
+        <v>757</v>
+      </c>
+      <c r="B389" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="C389" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="B390" s="0" t="s">
+        <v>760</v>
+      </c>
+      <c r="C390" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="B391" s="0" t="s">
+        <v>762</v>
+      </c>
+      <c r="C391" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="B392" s="0" t="s">
+        <v>764</v>
+      </c>
+      <c r="C392" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="0" t="s">
+        <v>765</v>
+      </c>
+      <c r="B393" s="0" t="s">
+        <v>766</v>
+      </c>
+      <c r="C393" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="B394" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="C394" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="0" t="s">
+        <v>769</v>
+      </c>
+      <c r="B395" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="C395" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="0" t="s">
+        <v>771</v>
+      </c>
+      <c r="B396" s="0" t="s">
+        <v>772</v>
+      </c>
+      <c r="C396" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="B397" s="0" t="s">
+        <v>774</v>
+      </c>
+      <c r="C397" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="0" t="s">
+        <v>775</v>
+      </c>
+      <c r="B398" s="0" t="s">
+        <v>776</v>
+      </c>
+      <c r="C398" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="0" t="s">
+        <v>777</v>
+      </c>
+      <c r="B399" s="0" t="s">
+        <v>778</v>
+      </c>
+      <c r="C399" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="0" t="s">
+        <v>779</v>
+      </c>
+      <c r="B400" s="0" t="s">
+        <v>780</v>
+      </c>
+      <c r="C400" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="0" t="s">
+        <v>781</v>
+      </c>
+      <c r="B401" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C401" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="B402" s="0" t="s">
+        <v>783</v>
+      </c>
+      <c r="C402" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="0" t="s">
+        <v>784</v>
+      </c>
+      <c r="B403" s="0" t="s">
+        <v>785</v>
+      </c>
+      <c r="C403" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="0" t="s">
+        <v>786</v>
+      </c>
+      <c r="B404" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="C404" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="0" t="s">
+        <v>788</v>
+      </c>
+      <c r="B405" s="0" t="s">
+        <v>789</v>
+      </c>
+      <c r="C405" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="0" t="s">
+        <v>790</v>
+      </c>
+      <c r="B406" s="0" t="s">
+        <v>791</v>
+      </c>
+      <c r="C406" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="0" t="s">
+        <v>792</v>
+      </c>
+      <c r="B407" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="C407" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="0" t="s">
+        <v>794</v>
+      </c>
+      <c r="B408" s="0" t="s">
+        <v>795</v>
+      </c>
+      <c r="C408" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="0" t="s">
+        <v>796</v>
+      </c>
+      <c r="B409" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="C409" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="0" t="s">
+        <v>798</v>
+      </c>
+      <c r="B410" s="0" t="s">
+        <v>780</v>
+      </c>
+      <c r="C410" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="0" t="s">
+        <v>799</v>
+      </c>
+      <c r="B411" s="0" t="s">
+        <v>800</v>
+      </c>
+      <c r="C411" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="0" t="s">
+        <v>801</v>
+      </c>
+      <c r="B412" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="C412" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="0" t="s">
+        <v>803</v>
+      </c>
+      <c r="B413" s="0" t="s">
+        <v>804</v>
+      </c>
+      <c r="C413" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="0" t="s">
+        <v>805</v>
+      </c>
+      <c r="B414" s="0" t="s">
+        <v>806</v>
+      </c>
+      <c r="C414" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="0" t="s">
+        <v>807</v>
+      </c>
+      <c r="B415" s="0" t="s">
+        <v>808</v>
+      </c>
+      <c r="C415" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="0" t="s">
+        <v>809</v>
+      </c>
+      <c r="B416" s="0" t="s">
+        <v>810</v>
+      </c>
+      <c r="C416" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="B417" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="C417" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="0" t="s">
+        <v>813</v>
+      </c>
+      <c r="B418" s="0" t="s">
+        <v>814</v>
+      </c>
+      <c r="C418" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="0" t="s">
+        <v>815</v>
+      </c>
+      <c r="B419" s="0" t="s">
+        <v>816</v>
+      </c>
+      <c r="C419" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="0" t="s">
+        <v>817</v>
+      </c>
+      <c r="B420" s="0" t="s">
+        <v>818</v>
+      </c>
+      <c r="C420" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="0" t="s">
+        <v>819</v>
+      </c>
+      <c r="B421" s="0" t="s">
+        <v>820</v>
+      </c>
+      <c r="C421" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="0" t="s">
+        <v>821</v>
+      </c>
+      <c r="B422" s="0" t="s">
+        <v>822</v>
+      </c>
+      <c r="C422" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="0" t="s">
+        <v>823</v>
+      </c>
+      <c r="B423" s="0" t="s">
+        <v>824</v>
+      </c>
+      <c r="C423" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="0" t="s">
+        <v>825</v>
+      </c>
+      <c r="B424" s="0" t="s">
+        <v>826</v>
+      </c>
+      <c r="C424" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="0" t="s">
+        <v>827</v>
+      </c>
+      <c r="B425" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="C425" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="0" t="s">
+        <v>829</v>
+      </c>
+      <c r="B426" s="0" t="s">
+        <v>830</v>
+      </c>
+      <c r="C426" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="0" t="s">
+        <v>831</v>
+      </c>
+      <c r="B427" s="0" t="s">
+        <v>832</v>
+      </c>
+      <c r="C427" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="0" t="s">
+        <v>833</v>
+      </c>
+      <c r="B428" s="0" t="s">
+        <v>834</v>
+      </c>
+      <c r="C428" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="0" t="s">
+        <v>835</v>
+      </c>
+      <c r="B429" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="C429" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="0" t="s">
+        <v>837</v>
+      </c>
+      <c r="B430" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="C353" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="354" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="4" t="s">
-        <v>684</v>
-      </c>
-      <c r="B354" s="0" t="s">
-        <v>685</v>
-      </c>
-      <c r="C354" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="355" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="0" t="s">
-        <v>686</v>
-      </c>
-      <c r="B355" s="0" t="s">
-        <v>687</v>
-      </c>
-      <c r="C355" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="356" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="0" t="s">
-        <v>688</v>
-      </c>
-      <c r="B356" s="0" t="s">
-        <v>689</v>
-      </c>
-      <c r="C356" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="357" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="0" t="s">
-        <v>690</v>
-      </c>
-      <c r="B357" s="0" t="s">
-        <v>691</v>
-      </c>
-      <c r="C357" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="358" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="0" t="s">
-        <v>692</v>
-      </c>
-      <c r="B358" s="0" t="s">
-        <v>693</v>
-      </c>
-      <c r="C358" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="359" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="0" t="s">
-        <v>694</v>
-      </c>
-      <c r="B359" s="0" t="s">
-        <v>695</v>
-      </c>
-      <c r="C359" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="360" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="0" t="s">
-        <v>696</v>
-      </c>
-      <c r="B360" s="0" t="s">
-        <v>697</v>
-      </c>
-      <c r="C360" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="361" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="0" t="s">
-        <v>698</v>
-      </c>
-      <c r="B361" s="0" t="s">
-        <v>699</v>
-      </c>
-      <c r="C361" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="362" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="0" t="s">
-        <v>700</v>
-      </c>
-      <c r="B362" s="0" t="s">
-        <v>701</v>
-      </c>
-      <c r="C362" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="363" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="0" t="s">
-        <v>702</v>
-      </c>
-      <c r="B363" s="0" t="s">
-        <v>703</v>
-      </c>
-      <c r="C363" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="364" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="0" t="s">
-        <v>704</v>
-      </c>
-      <c r="B364" s="0" t="s">
-        <v>705</v>
-      </c>
-      <c r="C364" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="365" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="0" t="s">
-        <v>706</v>
-      </c>
-      <c r="B365" s="0" t="s">
-        <v>707</v>
-      </c>
-      <c r="C365" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="366" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="0" t="s">
+      <c r="C430" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="B431" s="0" t="s">
+        <v>839</v>
+      </c>
+      <c r="C431" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="0" t="s">
+        <v>840</v>
+      </c>
+      <c r="B432" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="C432" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="0" t="s">
+        <v>842</v>
+      </c>
+      <c r="B433" s="0" t="s">
+        <v>843</v>
+      </c>
+      <c r="C433" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="B434" s="0" t="s">
+        <v>845</v>
+      </c>
+      <c r="C434" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="0" t="s">
         <v>708</v>
       </c>
-      <c r="B366" s="0" t="s">
-        <v>709</v>
-      </c>
-      <c r="C366" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="367" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="0" t="s">
-        <v>710</v>
-      </c>
-      <c r="B367" s="0" t="s">
-        <v>711</v>
-      </c>
-      <c r="C367" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="368" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="0" t="s">
-        <v>712</v>
-      </c>
-      <c r="B368" s="0" t="s">
-        <v>713</v>
-      </c>
-      <c r="C368" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="369" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="0" t="s">
-        <v>714</v>
-      </c>
-      <c r="B369" s="0" t="s">
-        <v>715</v>
-      </c>
-      <c r="C369" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="370" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="0" t="s">
-        <v>716</v>
-      </c>
-      <c r="B370" s="0" t="s">
-        <v>717</v>
-      </c>
-      <c r="C370" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="371" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="0" t="s">
-        <v>718</v>
-      </c>
-      <c r="B371" s="0" t="s">
-        <v>719</v>
-      </c>
-      <c r="C371" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="372" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="0" t="s">
-        <v>720</v>
-      </c>
-      <c r="B372" s="0" t="s">
-        <v>721</v>
-      </c>
-      <c r="C372" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="373" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="0" t="s">
-        <v>722</v>
-      </c>
-      <c r="B373" s="0" t="s">
-        <v>723</v>
-      </c>
-      <c r="C373" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="374" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="0" t="s">
-        <v>724</v>
-      </c>
-      <c r="B374" s="0" t="s">
-        <v>725</v>
-      </c>
-      <c r="C374" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="375" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="0" t="s">
-        <v>726</v>
-      </c>
-      <c r="B375" s="0" t="s">
-        <v>676</v>
-      </c>
-      <c r="C375" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="376" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="0" t="s">
-        <v>727</v>
-      </c>
-      <c r="B376" s="0" t="s">
-        <v>728</v>
-      </c>
-      <c r="C376" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="377" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="0" t="s">
-        <v>729</v>
-      </c>
-      <c r="B377" s="0" t="s">
-        <v>730</v>
-      </c>
-      <c r="C377" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="378" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="0" t="s">
-        <v>731</v>
-      </c>
-      <c r="B378" s="0" t="s">
-        <v>732</v>
-      </c>
-      <c r="C378" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="379" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="0" t="s">
-        <v>733</v>
-      </c>
-      <c r="B379" s="0" t="s">
-        <v>734</v>
-      </c>
-      <c r="C379" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="380" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="0" t="s">
-        <v>735</v>
-      </c>
-      <c r="B380" s="0" t="s">
-        <v>736</v>
-      </c>
-      <c r="C380" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="381" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="0" t="s">
-        <v>737</v>
-      </c>
-      <c r="B381" s="0" t="s">
-        <v>738</v>
-      </c>
-      <c r="C381" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="382" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="0" t="s">
-        <v>739</v>
-      </c>
-      <c r="B382" s="0" t="s">
-        <v>740</v>
-      </c>
-      <c r="C382" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="383" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="0" t="s">
-        <v>741</v>
-      </c>
-      <c r="B383" s="0" t="s">
-        <v>742</v>
-      </c>
-      <c r="C383" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="384" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="0" t="s">
-        <v>743</v>
-      </c>
-      <c r="B384" s="0" t="s">
-        <v>744</v>
-      </c>
-      <c r="C384" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="385" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="0" t="s">
-        <v>745</v>
-      </c>
-      <c r="B385" s="0" t="s">
-        <v>746</v>
-      </c>
-      <c r="C385" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="386" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="0" t="s">
-        <v>747</v>
-      </c>
-      <c r="B386" s="0" t="s">
-        <v>748</v>
-      </c>
-      <c r="C386" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="387" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="0" t="s">
-        <v>749</v>
-      </c>
-      <c r="B387" s="0" t="s">
-        <v>750</v>
-      </c>
-      <c r="C387" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="388" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="0" t="s">
-        <v>751</v>
-      </c>
-      <c r="B388" s="0" t="s">
-        <v>752</v>
-      </c>
-      <c r="C388" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="389" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="0" t="s">
-        <v>753</v>
-      </c>
-      <c r="B389" s="0" t="s">
-        <v>754</v>
-      </c>
-      <c r="C389" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="390" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="0" t="s">
-        <v>755</v>
-      </c>
-      <c r="B390" s="0" t="s">
-        <v>756</v>
-      </c>
-      <c r="C390" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="391" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="0" t="s">
-        <v>757</v>
-      </c>
-      <c r="B391" s="0" t="s">
-        <v>758</v>
-      </c>
-      <c r="C391" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="392" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="0" t="s">
-        <v>759</v>
-      </c>
-      <c r="B392" s="0" t="s">
-        <v>760</v>
-      </c>
-      <c r="C392" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="393" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="0" t="s">
-        <v>761</v>
-      </c>
-      <c r="B393" s="0" t="s">
-        <v>762</v>
-      </c>
-      <c r="C393" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="394" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="0" t="s">
-        <v>763</v>
-      </c>
-      <c r="B394" s="0" t="s">
-        <v>764</v>
-      </c>
-      <c r="C394" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="395" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="0" t="s">
+      <c r="B435" s="0" t="s">
+        <v>846</v>
+      </c>
+      <c r="C435" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="0" t="s">
+        <v>847</v>
+      </c>
+      <c r="B436" s="0" t="s">
+        <v>795</v>
+      </c>
+      <c r="C436" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="0" t="s">
+        <v>848</v>
+      </c>
+      <c r="B437" s="0" t="s">
+        <v>849</v>
+      </c>
+      <c r="C437" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="0" t="s">
+        <v>850</v>
+      </c>
+      <c r="B438" s="0" t="s">
+        <v>851</v>
+      </c>
+      <c r="C438" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="B439" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="C439" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="0" t="s">
+        <v>852</v>
+      </c>
+      <c r="B440" s="0" t="s">
+        <v>853</v>
+      </c>
+      <c r="C440" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="0" t="s">
+        <v>854</v>
+      </c>
+      <c r="B441" s="0" t="s">
+        <v>855</v>
+      </c>
+      <c r="C441" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="0" t="s">
+        <v>856</v>
+      </c>
+      <c r="B442" s="0" t="s">
+        <v>857</v>
+      </c>
+      <c r="C442" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="0" t="s">
+        <v>858</v>
+      </c>
+      <c r="B443" s="0" t="s">
+        <v>859</v>
+      </c>
+      <c r="C443" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A444" s="0" t="s">
+        <v>860</v>
+      </c>
+      <c r="B444" s="0" t="s">
+        <v>861</v>
+      </c>
+      <c r="C444" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A445" s="0" t="s">
+        <v>862</v>
+      </c>
+      <c r="B445" s="0" t="s">
+        <v>863</v>
+      </c>
+      <c r="C445" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A446" s="0" t="s">
+        <v>864</v>
+      </c>
+      <c r="B446" s="0" t="s">
+        <v>865</v>
+      </c>
+      <c r="C446" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A447" s="0" t="s">
+        <v>866</v>
+      </c>
+      <c r="B447" s="0" t="s">
+        <v>867</v>
+      </c>
+      <c r="C447" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A448" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="B448" s="0" t="s">
+        <v>869</v>
+      </c>
+      <c r="C448" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B449" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C449" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A450" s="0" t="s">
+        <v>870</v>
+      </c>
+      <c r="B450" s="0" t="s">
+        <v>871</v>
+      </c>
+      <c r="C450" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A451" s="0" t="s">
+        <v>872</v>
+      </c>
+      <c r="B451" s="0" t="s">
+        <v>873</v>
+      </c>
+      <c r="C451" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A452" s="0" t="s">
+        <v>874</v>
+      </c>
+      <c r="B452" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="C452" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A453" s="0" t="s">
+        <v>876</v>
+      </c>
+      <c r="B453" s="0" t="s">
+        <v>877</v>
+      </c>
+      <c r="C453" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A454" s="0" t="s">
+        <v>878</v>
+      </c>
+      <c r="B454" s="0" t="s">
+        <v>879</v>
+      </c>
+      <c r="C454" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A455" s="0" t="s">
+        <v>880</v>
+      </c>
+      <c r="B455" s="0" t="s">
+        <v>881</v>
+      </c>
+      <c r="C455" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A456" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="B456" s="0" t="s">
+        <v>883</v>
+      </c>
+      <c r="C456" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A457" s="0" t="s">
+        <v>884</v>
+      </c>
+      <c r="B457" s="0" t="s">
+        <v>885</v>
+      </c>
+      <c r="C457" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A458" s="0" t="s">
+        <v>886</v>
+      </c>
+      <c r="B458" s="0" t="s">
+        <v>887</v>
+      </c>
+      <c r="C458" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A459" s="0" t="s">
+        <v>888</v>
+      </c>
+      <c r="B459" s="0" t="s">
+        <v>889</v>
+      </c>
+      <c r="C459" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A460" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="B460" s="0" t="s">
+        <v>891</v>
+      </c>
+      <c r="C460" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A461" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="B461" s="0" t="s">
+        <v>893</v>
+      </c>
+      <c r="C461" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A462" s="0" t="s">
         <v>765</v>
       </c>
-      <c r="B395" s="0" t="s">
+      <c r="B462" s="0" t="s">
+        <v>894</v>
+      </c>
+      <c r="C462" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="0" t="s">
+        <v>895</v>
+      </c>
+      <c r="B463" s="0" t="s">
+        <v>896</v>
+      </c>
+      <c r="C463" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A464" s="0" t="s">
+        <v>897</v>
+      </c>
+      <c r="B464" s="0" t="s">
+        <v>898</v>
+      </c>
+      <c r="C464" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A465" s="0" t="s">
+        <v>899</v>
+      </c>
+      <c r="B465" s="0" t="s">
+        <v>900</v>
+      </c>
+      <c r="C465" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="0" t="s">
+        <v>901</v>
+      </c>
+      <c r="B466" s="0" t="s">
+        <v>902</v>
+      </c>
+      <c r="C466" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A467" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="B467" s="0" t="s">
+        <v>904</v>
+      </c>
+      <c r="C467" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A468" s="0" t="s">
+        <v>905</v>
+      </c>
+      <c r="B468" s="0" t="s">
+        <v>906</v>
+      </c>
+      <c r="C468" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="0" t="s">
+        <v>907</v>
+      </c>
+      <c r="B469" s="0" t="s">
+        <v>908</v>
+      </c>
+      <c r="C469" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="0" t="s">
+        <v>909</v>
+      </c>
+      <c r="B470" s="0" t="s">
+        <v>910</v>
+      </c>
+      <c r="C470" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="0" t="s">
+        <v>911</v>
+      </c>
+      <c r="B471" s="0" t="s">
+        <v>912</v>
+      </c>
+      <c r="C471" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="0" t="s">
+        <v>913</v>
+      </c>
+      <c r="B472" s="0" t="s">
+        <v>914</v>
+      </c>
+      <c r="C472" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="0" t="s">
+        <v>915</v>
+      </c>
+      <c r="B473" s="0" t="s">
+        <v>916</v>
+      </c>
+      <c r="C473" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="0" t="s">
+        <v>917</v>
+      </c>
+      <c r="B474" s="0" t="s">
+        <v>918</v>
+      </c>
+      <c r="C474" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="0" t="s">
+        <v>919</v>
+      </c>
+      <c r="B475" s="0" t="s">
+        <v>920</v>
+      </c>
+      <c r="C475" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="0" t="s">
+        <v>921</v>
+      </c>
+      <c r="B476" s="0" t="s">
+        <v>922</v>
+      </c>
+      <c r="C476" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="0" t="s">
+        <v>923</v>
+      </c>
+      <c r="B477" s="0" t="s">
+        <v>924</v>
+      </c>
+      <c r="C477" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="0" t="s">
+        <v>925</v>
+      </c>
+      <c r="B478" s="0" t="s">
+        <v>926</v>
+      </c>
+      <c r="C478" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="0" t="s">
+        <v>927</v>
+      </c>
+      <c r="B479" s="0" t="s">
+        <v>928</v>
+      </c>
+      <c r="C479" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A480" s="0" t="s">
+        <v>929</v>
+      </c>
+      <c r="B480" s="0" t="s">
+        <v>930</v>
+      </c>
+      <c r="C480" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A481" s="0" t="s">
+        <v>931</v>
+      </c>
+      <c r="B481" s="0" t="s">
+        <v>932</v>
+      </c>
+      <c r="C481" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A482" s="0" t="s">
+        <v>933</v>
+      </c>
+      <c r="B482" s="0" t="s">
+        <v>934</v>
+      </c>
+      <c r="C482" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A483" s="0" t="s">
+        <v>935</v>
+      </c>
+      <c r="B483" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="C483" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A484" s="0" t="s">
+        <v>937</v>
+      </c>
+      <c r="B484" s="0" t="s">
+        <v>926</v>
+      </c>
+      <c r="C484" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A485" s="0" t="s">
+        <v>938</v>
+      </c>
+      <c r="B485" s="0" t="s">
+        <v>939</v>
+      </c>
+      <c r="C485" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A486" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="B486" s="0" t="s">
+        <v>941</v>
+      </c>
+      <c r="C486" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A487" s="0" t="s">
+        <v>942</v>
+      </c>
+      <c r="B487" s="0" t="s">
+        <v>943</v>
+      </c>
+      <c r="C487" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A488" s="0" t="s">
+        <v>944</v>
+      </c>
+      <c r="B488" s="0" t="s">
+        <v>945</v>
+      </c>
+      <c r="C488" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A489" s="0" t="s">
+        <v>946</v>
+      </c>
+      <c r="B489" s="0" t="s">
+        <v>947</v>
+      </c>
+      <c r="C489" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A490" s="0" t="s">
+        <v>948</v>
+      </c>
+      <c r="B490" s="0" t="s">
+        <v>949</v>
+      </c>
+      <c r="C490" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A491" s="0" t="s">
+        <v>950</v>
+      </c>
+      <c r="B491" s="0" t="s">
+        <v>951</v>
+      </c>
+      <c r="C491" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A492" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B492" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="C492" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A493" s="0" t="s">
+        <v>952</v>
+      </c>
+      <c r="B493" s="0" t="s">
+        <v>949</v>
+      </c>
+      <c r="C493" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A494" s="0" t="s">
+        <v>953</v>
+      </c>
+      <c r="B494" s="0" t="s">
+        <v>954</v>
+      </c>
+      <c r="C494" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A495" s="0" t="s">
+        <v>955</v>
+      </c>
+      <c r="B495" s="0" t="s">
+        <v>956</v>
+      </c>
+      <c r="C495" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A496" s="0" t="s">
+        <v>957</v>
+      </c>
+      <c r="B496" s="0" t="s">
+        <v>958</v>
+      </c>
+      <c r="C496" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A497" s="0" t="s">
+        <v>959</v>
+      </c>
+      <c r="B497" s="0" t="s">
+        <v>960</v>
+      </c>
+      <c r="C497" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A498" s="0" t="s">
+        <v>961</v>
+      </c>
+      <c r="B498" s="0" t="s">
+        <v>962</v>
+      </c>
+      <c r="C498" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A499" s="0" t="s">
+        <v>963</v>
+      </c>
+      <c r="B499" s="0" t="s">
+        <v>964</v>
+      </c>
+      <c r="C499" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A500" s="0" t="s">
+        <v>965</v>
+      </c>
+      <c r="B500" s="0" t="s">
+        <v>966</v>
+      </c>
+      <c r="C500" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A501" s="0" t="s">
+        <v>967</v>
+      </c>
+      <c r="B501" s="0" t="s">
+        <v>968</v>
+      </c>
+      <c r="C501" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A502" s="0" t="s">
+        <v>765</v>
+      </c>
+      <c r="B502" s="0" t="s">
         <v>766</v>
       </c>
-      <c r="C395" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="396" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="0" t="s">
-        <v>767</v>
-      </c>
-      <c r="B396" s="0" t="s">
-        <v>768</v>
-      </c>
-      <c r="C396" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="397" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="0" t="s">
-        <v>769</v>
-      </c>
-      <c r="B397" s="0" t="s">
-        <v>770</v>
-      </c>
-      <c r="C397" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="398" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="0" t="s">
-        <v>771</v>
-      </c>
-      <c r="B398" s="0" t="s">
-        <v>772</v>
-      </c>
-      <c r="C398" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="399" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="0" t="s">
-        <v>773</v>
-      </c>
-      <c r="B399" s="0" t="s">
-        <v>774</v>
-      </c>
-      <c r="C399" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="400" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="0" t="s">
-        <v>775</v>
-      </c>
-      <c r="B400" s="0" t="s">
-        <v>776</v>
-      </c>
-      <c r="C400" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="401" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="0" t="s">
-        <v>777</v>
-      </c>
-      <c r="B401" s="0" t="s">
-        <v>778</v>
-      </c>
-      <c r="C401" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="402" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="0" t="s">
-        <v>779</v>
-      </c>
-      <c r="B402" s="0" t="s">
-        <v>780</v>
-      </c>
-      <c r="C402" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="403" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="0" t="s">
-        <v>781</v>
-      </c>
-      <c r="B403" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C403" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="404" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="0" t="s">
-        <v>782</v>
-      </c>
-      <c r="B404" s="0" t="s">
-        <v>783</v>
-      </c>
-      <c r="C404" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="405" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="0" t="s">
-        <v>784</v>
-      </c>
-      <c r="B405" s="0" t="s">
-        <v>785</v>
-      </c>
-      <c r="C405" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="406" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="0" t="s">
-        <v>786</v>
-      </c>
-      <c r="B406" s="0" t="s">
-        <v>787</v>
-      </c>
-      <c r="C406" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="407" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="0" t="s">
-        <v>788</v>
-      </c>
-      <c r="B407" s="0" t="s">
-        <v>789</v>
-      </c>
-      <c r="C407" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="408" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="0" t="s">
-        <v>790</v>
-      </c>
-      <c r="B408" s="0" t="s">
-        <v>791</v>
-      </c>
-      <c r="C408" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="409" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="0" t="s">
-        <v>792</v>
-      </c>
-      <c r="B409" s="0" t="s">
-        <v>793</v>
-      </c>
-      <c r="C409" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="410" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="0" t="s">
-        <v>794</v>
-      </c>
-      <c r="B410" s="0" t="s">
-        <v>795</v>
-      </c>
-      <c r="C410" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="411" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="0" t="s">
-        <v>796</v>
-      </c>
-      <c r="B411" s="0" t="s">
-        <v>797</v>
-      </c>
-      <c r="C411" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="412" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="0" t="s">
-        <v>798</v>
-      </c>
-      <c r="B412" s="0" t="s">
-        <v>780</v>
-      </c>
-      <c r="C412" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="413" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="0" t="s">
-        <v>799</v>
-      </c>
-      <c r="B413" s="0" t="s">
-        <v>800</v>
-      </c>
-      <c r="C413" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="414" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="0" t="s">
-        <v>801</v>
-      </c>
-      <c r="B414" s="0" t="s">
-        <v>802</v>
-      </c>
-      <c r="C414" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="415" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="0" t="s">
-        <v>803</v>
-      </c>
-      <c r="B415" s="0" t="s">
-        <v>804</v>
-      </c>
-      <c r="C415" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="416" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="0" t="s">
-        <v>805</v>
-      </c>
-      <c r="B416" s="0" t="s">
-        <v>806</v>
-      </c>
-      <c r="C416" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="417" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="0" t="s">
-        <v>807</v>
-      </c>
-      <c r="B417" s="0" t="s">
-        <v>808</v>
-      </c>
-      <c r="C417" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="418" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="0" t="s">
-        <v>809</v>
-      </c>
-      <c r="B418" s="0" t="s">
-        <v>810</v>
-      </c>
-      <c r="C418" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="419" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="0" t="s">
-        <v>811</v>
-      </c>
-      <c r="B419" s="0" t="s">
-        <v>812</v>
-      </c>
-      <c r="C419" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="420" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="0" t="s">
-        <v>813</v>
-      </c>
-      <c r="B420" s="0" t="s">
-        <v>814</v>
-      </c>
-      <c r="C420" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="421" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="0" t="s">
-        <v>815</v>
-      </c>
-      <c r="B421" s="0" t="s">
-        <v>816</v>
-      </c>
-      <c r="C421" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="422" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="0" t="s">
-        <v>817</v>
-      </c>
-      <c r="B422" s="0" t="s">
-        <v>818</v>
-      </c>
-      <c r="C422" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="0" t="s">
-        <v>819</v>
-      </c>
-      <c r="B423" s="0" t="s">
-        <v>820</v>
-      </c>
-      <c r="C423" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="424" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="0" t="s">
-        <v>821</v>
-      </c>
-      <c r="B424" s="0" t="s">
-        <v>822</v>
-      </c>
-      <c r="C424" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="425" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="0" t="s">
-        <v>823</v>
-      </c>
-      <c r="B425" s="0" t="s">
-        <v>824</v>
-      </c>
-      <c r="C425" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="426" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="0" t="s">
-        <v>825</v>
-      </c>
-      <c r="B426" s="0" t="s">
-        <v>826</v>
-      </c>
-      <c r="C426" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="427" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="0" t="s">
-        <v>827</v>
-      </c>
-      <c r="B427" s="0" t="s">
-        <v>828</v>
-      </c>
-      <c r="C427" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="428" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="0" t="s">
-        <v>829</v>
-      </c>
-      <c r="B428" s="0" t="s">
-        <v>830</v>
-      </c>
-      <c r="C428" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="429" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="0" t="s">
-        <v>831</v>
-      </c>
-      <c r="B429" s="0" t="s">
-        <v>832</v>
-      </c>
-      <c r="C429" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="430" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="0" t="s">
-        <v>833</v>
-      </c>
-      <c r="B430" s="0" t="s">
-        <v>834</v>
-      </c>
-      <c r="C430" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="431" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="0" t="s">
-        <v>835</v>
-      </c>
-      <c r="B431" s="0" t="s">
-        <v>836</v>
-      </c>
-      <c r="C431" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="432" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A432" s="0" t="s">
-        <v>837</v>
-      </c>
-      <c r="B432" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="C432" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="433" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="0" t="s">
-        <v>838</v>
-      </c>
-      <c r="B433" s="0" t="s">
-        <v>839</v>
-      </c>
-      <c r="C433" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="434" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="0" t="s">
-        <v>840</v>
-      </c>
-      <c r="B434" s="0" t="s">
-        <v>841</v>
-      </c>
-      <c r="C434" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="435" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="0" t="s">
-        <v>842</v>
-      </c>
-      <c r="B435" s="0" t="s">
-        <v>843</v>
-      </c>
-      <c r="C435" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="436" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="0" t="s">
-        <v>844</v>
-      </c>
-      <c r="B436" s="0" t="s">
-        <v>845</v>
-      </c>
-      <c r="C436" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="437" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="0" t="s">
-        <v>708</v>
-      </c>
-      <c r="B437" s="0" t="s">
-        <v>846</v>
-      </c>
-      <c r="C437" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="438" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="0" t="s">
-        <v>847</v>
-      </c>
-      <c r="B438" s="0" t="s">
-        <v>795</v>
-      </c>
-      <c r="C438" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="439" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="0" t="s">
-        <v>848</v>
-      </c>
-      <c r="B439" s="0" t="s">
-        <v>849</v>
-      </c>
-      <c r="C439" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="440" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A440" s="0" t="s">
-        <v>850</v>
-      </c>
-      <c r="B440" s="0" t="s">
-        <v>851</v>
-      </c>
-      <c r="C440" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="441" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A441" s="0" t="s">
-        <v>678</v>
-      </c>
-      <c r="B441" s="0" t="s">
-        <v>678</v>
-      </c>
-      <c r="C441" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="442" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="0" t="s">
-        <v>852</v>
-      </c>
-      <c r="B442" s="0" t="s">
-        <v>853</v>
-      </c>
-      <c r="C442" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="443" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="0" t="s">
-        <v>854</v>
-      </c>
-      <c r="B443" s="0" t="s">
-        <v>855</v>
-      </c>
-      <c r="C443" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="444" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A444" s="0" t="s">
-        <v>856</v>
-      </c>
-      <c r="B444" s="0" t="s">
-        <v>857</v>
-      </c>
-      <c r="C444" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="445" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A445" s="0" t="s">
-        <v>858</v>
-      </c>
-      <c r="B445" s="0" t="s">
-        <v>859</v>
-      </c>
-      <c r="C445" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="446" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A446" s="0" t="s">
-        <v>860</v>
-      </c>
-      <c r="B446" s="0" t="s">
-        <v>861</v>
-      </c>
-      <c r="C446" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="447" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A447" s="0" t="s">
-        <v>862</v>
-      </c>
-      <c r="B447" s="0" t="s">
-        <v>863</v>
-      </c>
-      <c r="C447" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="448" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A448" s="0" t="s">
-        <v>864</v>
-      </c>
-      <c r="B448" s="0" t="s">
-        <v>865</v>
-      </c>
-      <c r="C448" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="449" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="0" t="s">
-        <v>866</v>
-      </c>
-      <c r="B449" s="0" t="s">
-        <v>867</v>
-      </c>
-      <c r="C449" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="450" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A450" s="0" t="s">
-        <v>868</v>
-      </c>
-      <c r="B450" s="0" t="s">
-        <v>869</v>
-      </c>
-      <c r="C450" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="451" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A451" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B451" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="C451" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="452" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A452" s="0" t="s">
-        <v>870</v>
-      </c>
-      <c r="B452" s="0" t="s">
-        <v>871</v>
-      </c>
-      <c r="C452" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="453" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A453" s="0" t="s">
-        <v>872</v>
-      </c>
-      <c r="B453" s="0" t="s">
-        <v>873</v>
-      </c>
-      <c r="C453" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="454" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A454" s="0" t="s">
-        <v>874</v>
-      </c>
-      <c r="B454" s="0" t="s">
-        <v>875</v>
-      </c>
-      <c r="C454" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="455" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A455" s="0" t="s">
-        <v>876</v>
-      </c>
-      <c r="B455" s="0" t="s">
-        <v>877</v>
-      </c>
-      <c r="C455" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="456" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="0" t="s">
-        <v>878</v>
-      </c>
-      <c r="B456" s="0" t="s">
-        <v>879</v>
-      </c>
-      <c r="C456" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="457" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="0" t="s">
-        <v>880</v>
-      </c>
-      <c r="B457" s="0" t="s">
-        <v>881</v>
-      </c>
-      <c r="C457" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="458" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="0" t="s">
-        <v>882</v>
-      </c>
-      <c r="B458" s="0" t="s">
-        <v>883</v>
-      </c>
-      <c r="C458" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="459" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="0" t="s">
-        <v>884</v>
-      </c>
-      <c r="B459" s="0" t="s">
-        <v>885</v>
-      </c>
-      <c r="C459" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="460" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A460" s="0" t="s">
-        <v>886</v>
-      </c>
-      <c r="B460" s="0" t="s">
-        <v>887</v>
-      </c>
-      <c r="C460" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="461" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A461" s="0" t="s">
-        <v>888</v>
-      </c>
-      <c r="B461" s="0" t="s">
-        <v>889</v>
-      </c>
-      <c r="C461" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="462" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A462" s="0" t="s">
-        <v>890</v>
-      </c>
-      <c r="B462" s="0" t="s">
-        <v>891</v>
-      </c>
-      <c r="C462" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="463" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A463" s="0" t="s">
-        <v>892</v>
-      </c>
-      <c r="B463" s="0" t="s">
-        <v>893</v>
-      </c>
-      <c r="C463" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="464" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A464" s="0" t="s">
-        <v>765</v>
-      </c>
-      <c r="B464" s="0" t="s">
-        <v>894</v>
-      </c>
-      <c r="C464" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="465" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A465" s="0" t="s">
-        <v>895</v>
-      </c>
-      <c r="B465" s="0" t="s">
-        <v>896</v>
-      </c>
-      <c r="C465" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="466" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A466" s="0" t="s">
-        <v>897</v>
-      </c>
-      <c r="B466" s="0" t="s">
-        <v>898</v>
-      </c>
-      <c r="C466" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="467" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A467" s="0" t="s">
-        <v>899</v>
-      </c>
-      <c r="B467" s="0" t="s">
-        <v>900</v>
-      </c>
-      <c r="C467" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="468" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A468" s="0" t="s">
-        <v>901</v>
-      </c>
-      <c r="B468" s="0" t="s">
-        <v>902</v>
-      </c>
-      <c r="C468" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="469" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A469" s="0" t="s">
-        <v>903</v>
-      </c>
-      <c r="B469" s="0" t="s">
-        <v>904</v>
-      </c>
-      <c r="C469" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="470" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A470" s="0" t="s">
-        <v>905</v>
-      </c>
-      <c r="B470" s="0" t="s">
-        <v>906</v>
-      </c>
-      <c r="C470" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="471" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A471" s="0" t="s">
-        <v>907</v>
-      </c>
-      <c r="B471" s="0" t="s">
-        <v>908</v>
-      </c>
-      <c r="C471" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="472" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A472" s="0" t="s">
-        <v>909</v>
-      </c>
-      <c r="B472" s="0" t="s">
-        <v>910</v>
-      </c>
-      <c r="C472" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="473" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="0" t="s">
-        <v>911</v>
-      </c>
-      <c r="B473" s="0" t="s">
-        <v>912</v>
-      </c>
-      <c r="C473" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="474" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="0" t="s">
-        <v>913</v>
-      </c>
-      <c r="B474" s="0" t="s">
-        <v>914</v>
-      </c>
-      <c r="C474" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="475" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A475" s="0" t="s">
-        <v>915</v>
-      </c>
-      <c r="B475" s="0" t="s">
-        <v>916</v>
-      </c>
-      <c r="C475" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="476" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A476" s="0" t="s">
-        <v>917</v>
-      </c>
-      <c r="B476" s="0" t="s">
-        <v>918</v>
-      </c>
-      <c r="C476" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="477" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A477" s="0" t="s">
-        <v>919</v>
-      </c>
-      <c r="B477" s="0" t="s">
-        <v>920</v>
-      </c>
-      <c r="C477" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="478" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="0" t="s">
-        <v>921</v>
-      </c>
-      <c r="B478" s="0" t="s">
-        <v>922</v>
-      </c>
-      <c r="C478" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="479" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A479" s="0" t="s">
-        <v>923</v>
-      </c>
-      <c r="B479" s="0" t="s">
-        <v>924</v>
-      </c>
-      <c r="C479" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="480" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A480" s="0" t="s">
-        <v>925</v>
-      </c>
-      <c r="B480" s="0" t="s">
-        <v>926</v>
-      </c>
-      <c r="C480" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="481" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A481" s="0" t="s">
-        <v>927</v>
-      </c>
-      <c r="B481" s="0" t="s">
-        <v>928</v>
-      </c>
-      <c r="C481" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="482" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A482" s="0" t="s">
-        <v>929</v>
-      </c>
-      <c r="B482" s="0" t="s">
-        <v>930</v>
-      </c>
-      <c r="C482" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="483" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A483" s="0" t="s">
-        <v>931</v>
-      </c>
-      <c r="B483" s="0" t="s">
-        <v>932</v>
-      </c>
-      <c r="C483" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="484" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A484" s="0" t="s">
-        <v>933</v>
-      </c>
-      <c r="B484" s="0" t="s">
-        <v>934</v>
-      </c>
-      <c r="C484" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="485" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A485" s="0" t="s">
-        <v>935</v>
-      </c>
-      <c r="B485" s="0" t="s">
-        <v>936</v>
-      </c>
-      <c r="C485" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="486" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A486" s="0" t="s">
-        <v>937</v>
-      </c>
-      <c r="B486" s="0" t="s">
-        <v>926</v>
-      </c>
-      <c r="C486" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="487" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A487" s="0" t="s">
-        <v>938</v>
-      </c>
-      <c r="B487" s="0" t="s">
-        <v>939</v>
-      </c>
-      <c r="C487" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="488" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A488" s="0" t="s">
-        <v>940</v>
-      </c>
-      <c r="B488" s="0" t="s">
-        <v>941</v>
-      </c>
-      <c r="C488" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="489" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A489" s="0" t="s">
-        <v>942</v>
-      </c>
-      <c r="B489" s="0" t="s">
-        <v>943</v>
-      </c>
-      <c r="C489" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="490" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A490" s="0" t="s">
-        <v>944</v>
-      </c>
-      <c r="B490" s="0" t="s">
-        <v>945</v>
-      </c>
-      <c r="C490" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="491" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A491" s="0" t="s">
-        <v>946</v>
-      </c>
-      <c r="B491" s="0" t="s">
-        <v>947</v>
-      </c>
-      <c r="C491" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="492" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A492" s="0" t="s">
-        <v>948</v>
-      </c>
-      <c r="B492" s="0" t="s">
-        <v>949</v>
-      </c>
-      <c r="C492" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="493" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A493" s="0" t="s">
-        <v>950</v>
-      </c>
-      <c r="B493" s="0" t="s">
-        <v>951</v>
-      </c>
-      <c r="C493" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="494" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A494" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="B494" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="C494" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="495" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A495" s="0" t="s">
-        <v>952</v>
-      </c>
-      <c r="B495" s="0" t="s">
-        <v>949</v>
-      </c>
-      <c r="C495" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="496" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A496" s="0" t="s">
-        <v>953</v>
-      </c>
-      <c r="B496" s="0" t="s">
-        <v>954</v>
-      </c>
-      <c r="C496" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="497" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A497" s="0" t="s">
-        <v>955</v>
-      </c>
-      <c r="B497" s="0" t="s">
-        <v>956</v>
-      </c>
-      <c r="C497" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="498" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A498" s="0" t="s">
-        <v>957</v>
-      </c>
-      <c r="B498" s="0" t="s">
-        <v>958</v>
-      </c>
-      <c r="C498" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="499" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A499" s="0" t="s">
-        <v>959</v>
-      </c>
-      <c r="B499" s="0" t="s">
-        <v>960</v>
-      </c>
-      <c r="C499" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="500" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A500" s="0" t="s">
-        <v>961</v>
-      </c>
-      <c r="B500" s="0" t="s">
-        <v>962</v>
-      </c>
-      <c r="C500" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="501" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A501" s="0" t="s">
-        <v>963</v>
-      </c>
-      <c r="B501" s="0" t="s">
-        <v>964</v>
-      </c>
-      <c r="C501" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="502" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A502" s="0" t="s">
-        <v>965</v>
-      </c>
-      <c r="B502" s="0" t="s">
-        <v>966</v>
-      </c>
       <c r="C502" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="503" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="0" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="B503" s="0" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="C503" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="504" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="0" t="s">
-        <v>765</v>
+        <v>594</v>
       </c>
       <c r="B504" s="0" t="s">
-        <v>766</v>
+        <v>971</v>
       </c>
       <c r="C504" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="505" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="0" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="B505" s="0" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="C505" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="506" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="0" t="s">
-        <v>594</v>
+        <v>974</v>
       </c>
       <c r="B506" s="0" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="C506" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="507" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="0" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="B507" s="0" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="C507" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="508" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="0" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="B508" s="0" t="s">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="C508" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="509" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="0" t="s">
-        <v>976</v>
-      </c>
-      <c r="B509" s="0" t="s">
-        <v>977</v>
-      </c>
-      <c r="C509" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="510" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A510" s="0" t="s">
-        <v>978</v>
+        <v>980</v>
+      </c>
+      <c r="B509" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="C509" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A510" s="1" t="s">
+        <v>982</v>
       </c>
       <c r="B510" s="0" t="s">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="C510" s="0" t="n">
         <v>1</v>
@@ -8868,54 +8839,54 @@
     </row>
     <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="0" t="s">
-        <v>980</v>
-      </c>
-      <c r="B511" s="5" t="s">
-        <v>981</v>
-      </c>
-      <c r="C511" s="5" t="n">
+        <v>984</v>
+      </c>
+      <c r="B511" s="0" t="s">
+        <v>983</v>
+      </c>
+      <c r="C511" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="1" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="B512" s="0" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="C512" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="513" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A513" s="0" t="s">
-        <v>984</v>
+    <row r="513" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A513" s="1" t="s">
+        <v>987</v>
       </c>
       <c r="B513" s="0" t="s">
-        <v>983</v>
+        <v>988</v>
       </c>
       <c r="C513" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="514" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A514" s="1" t="s">
-        <v>985</v>
+    <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A514" s="0" t="s">
+        <v>989</v>
       </c>
       <c r="B514" s="0" t="s">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="C514" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="515" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A515" s="1" t="s">
-        <v>987</v>
+    <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A515" s="0" t="s">
+        <v>991</v>
       </c>
       <c r="B515" s="0" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
       <c r="C515" s="0" t="n">
         <v>1</v>
@@ -8923,21 +8894,21 @@
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="0" t="s">
-        <v>989</v>
+        <v>993</v>
       </c>
       <c r="B516" s="0" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="C516" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="517" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="0" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="B517" s="0" t="s">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="C517" s="0" t="n">
         <v>1</v>
@@ -8945,50 +8916,48 @@
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="0" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="B518" s="0" t="s">
-        <v>994</v>
+        <v>998</v>
       </c>
       <c r="C518" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="519" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="0" t="s">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="B519" s="0" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="C519" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A520" s="0" t="s">
-        <v>997</v>
-      </c>
-      <c r="B520" s="0" t="s">
-        <v>998</v>
+      <c r="A520" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B520" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="C520" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A521" s="0" t="s">
-        <v>999</v>
-      </c>
-      <c r="B521" s="0" t="s">
-        <v>998</v>
+      <c r="A521" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B521" s="5" t="b">
+        <v>1</v>
       </c>
       <c r="C521" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/public/translation/EngTranslate.xlsx
+++ b/public/translation/EngTranslate.xlsx
@@ -3020,7 +3020,7 @@
     <t xml:space="preserve">report_card/mfis/manara-boys/printAll</t>
   </si>
   <si>
-    <t xml:space="preserve">PrintAll Report Card MFISB</t>
+    <t xml:space="preserve">PrintAll MFISB</t>
   </si>
   <si>
     <t xml:space="preserve">report_card/mfis/manara-girls/printAll</t>
@@ -3040,6 +3040,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3061,12 +3062,14 @@
       <color rgb="FF8092A3"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFA31515"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3215,8 +3218,10 @@
   </sheetPr>
   <dimension ref="A1:C521"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A506" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B520" activeCellId="0" sqref="B520"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8940,7 +8945,8 @@
       <c r="A520" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B520" s="5" t="b">
+      <c r="B520" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C520" s="0" t="n">
@@ -8951,7 +8957,8 @@
       <c r="A521" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B521" s="5" t="b">
+      <c r="B521" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C521" s="0" t="n">

--- a/public/translation/EngTranslate.xlsx
+++ b/public/translation/EngTranslate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="false" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="false" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="1000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="1001">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -3014,34 +3014,19 @@
     <t xml:space="preserve">report_card/mfis/girls</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Report Card </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">MFISG</t>
-    </r>
+    <t xml:space="preserve">Report Card MFISG</t>
   </si>
   <si>
     <t xml:space="preserve">report_card/mfis/manara-boys/printAll</t>
   </si>
   <si>
-    <t xml:space="preserve">PrintAll Report Card MFISB</t>
+    <t xml:space="preserve">PrintAll MFISB</t>
   </si>
   <si>
     <t xml:space="preserve">report_card/mfis/manara-girls/printAll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrintAll MFISG</t>
   </si>
 </sst>
 </file>
@@ -3052,7 +3037,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3088,12 +3073,6 @@
       <name val="Consolas"/>
       <family val="3"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3147,10 +3126,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3160,6 +3135,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3240,13 +3219,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1048576"/>
+  <dimension ref="A1:C521"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A509" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A523" activeCellId="0" sqref="A523"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A506" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B519" activeCellId="0" sqref="B519"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="56.45"/>
@@ -3254,7 +3233,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -3265,7 +3244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>3</v>
       </c>
@@ -3276,7 +3255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>5</v>
       </c>
@@ -3287,7 +3266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>7</v>
       </c>
@@ -3298,7 +3277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>9</v>
       </c>
@@ -3309,7 +3288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>11</v>
       </c>
@@ -3320,7 +3299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>13</v>
       </c>
@@ -3331,7 +3310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>15</v>
       </c>
@@ -3342,7 +3321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>17</v>
       </c>
@@ -3353,7 +3332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>19</v>
       </c>
@@ -3364,7 +3343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>21</v>
       </c>
@@ -3375,7 +3354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>23</v>
       </c>
@@ -3386,7 +3365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>25</v>
       </c>
@@ -3397,7 +3376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>27</v>
       </c>
@@ -3408,7 +3387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>29</v>
       </c>
@@ -3419,7 +3398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>31</v>
       </c>
@@ -3430,7 +3409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>32</v>
       </c>
@@ -3441,7 +3420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>34</v>
       </c>
@@ -3452,7 +3431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>36</v>
       </c>
@@ -3463,7 +3442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>38</v>
       </c>
@@ -3474,7 +3453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>40</v>
       </c>
@@ -3485,7 +3464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>42</v>
       </c>
@@ -3496,7 +3475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>44</v>
       </c>
@@ -3507,7 +3486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>46</v>
       </c>
@@ -3518,7 +3497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>48</v>
       </c>
@@ -3529,7 +3508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>50</v>
       </c>
@@ -3540,7 +3519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>52</v>
       </c>
@@ -3551,7 +3530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>54</v>
       </c>
@@ -3562,7 +3541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>56</v>
       </c>
@@ -3573,7 +3552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>58</v>
       </c>
@@ -3584,7 +3563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>60</v>
       </c>
@@ -3595,7 +3574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>62</v>
       </c>
@@ -3606,7 +3585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>64</v>
       </c>
@@ -3617,7 +3596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>66</v>
       </c>
@@ -3628,7 +3607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>68</v>
       </c>
@@ -3639,7 +3618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>70</v>
       </c>
@@ -3650,7 +3629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>72</v>
       </c>
@@ -3661,7 +3640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>74</v>
       </c>
@@ -3672,7 +3651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>76</v>
       </c>
@@ -3683,7 +3662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>78</v>
       </c>
@@ -3694,7 +3673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>80</v>
       </c>
@@ -3705,7 +3684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>82</v>
       </c>
@@ -3716,7 +3695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>84</v>
       </c>
@@ -3727,7 +3706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>86</v>
       </c>
@@ -3738,7 +3717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>88</v>
       </c>
@@ -3749,7 +3728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>90</v>
       </c>
@@ -3760,7 +3739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>92</v>
       </c>
@@ -3771,7 +3750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>94</v>
       </c>
@@ -3782,7 +3761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>96</v>
       </c>
@@ -3793,7 +3772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>98</v>
       </c>
@@ -3804,7 +3783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>99</v>
       </c>
@@ -3815,7 +3794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>101</v>
       </c>
@@ -3826,7 +3805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>102</v>
       </c>
@@ -3837,7 +3816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>104</v>
       </c>
@@ -3848,7 +3827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>106</v>
       </c>
@@ -3859,7 +3838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>108</v>
       </c>
@@ -3870,7 +3849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>110</v>
       </c>
@@ -3881,7 +3860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>112</v>
       </c>
@@ -3892,7 +3871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>114</v>
       </c>
@@ -3903,7 +3882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>116</v>
       </c>
@@ -3914,7 +3893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>118</v>
       </c>
@@ -3925,7 +3904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>120</v>
       </c>
@@ -3936,7 +3915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>122</v>
       </c>
@@ -3947,7 +3926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>124</v>
       </c>
@@ -3958,7 +3937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>126</v>
       </c>
@@ -3969,7 +3948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>128</v>
       </c>
@@ -3980,7 +3959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>130</v>
       </c>
@@ -3991,7 +3970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>132</v>
       </c>
@@ -4002,7 +3981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>134</v>
       </c>
@@ -4013,7 +3992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>136</v>
       </c>
@@ -4024,7 +4003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>138</v>
       </c>
@@ -4035,7 +4014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>140</v>
       </c>
@@ -4046,7 +4025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>142</v>
       </c>
@@ -4057,7 +4036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>144</v>
       </c>
@@ -4068,7 +4047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>146</v>
       </c>
@@ -4079,7 +4058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>148</v>
       </c>
@@ -4090,7 +4069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>150</v>
       </c>
@@ -4101,7 +4080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>152</v>
       </c>
@@ -4112,7 +4091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>154</v>
       </c>
@@ -4123,7 +4102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>156</v>
       </c>
@@ -4134,7 +4113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>158</v>
       </c>
@@ -4145,7 +4124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>160</v>
       </c>
@@ -4156,7 +4135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>162</v>
       </c>
@@ -4167,7 +4146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>164</v>
       </c>
@@ -4178,7 +4157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>166</v>
       </c>
@@ -4189,7 +4168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
         <v>168</v>
       </c>
@@ -4200,7 +4179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>170</v>
       </c>
@@ -4211,7 +4190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>172</v>
       </c>
@@ -4222,7 +4201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
         <v>174</v>
       </c>
@@ -4233,7 +4212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>176</v>
       </c>
@@ -4244,7 +4223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
         <v>178</v>
       </c>
@@ -4255,7 +4234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
         <v>180</v>
       </c>
@@ -4266,7 +4245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>182</v>
       </c>
@@ -4277,7 +4256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>184</v>
       </c>
@@ -4288,7 +4267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
         <v>186</v>
       </c>
@@ -4299,7 +4278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
         <v>188</v>
       </c>
@@ -4310,7 +4289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>190</v>
       </c>
@@ -4321,7 +4300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>192</v>
       </c>
@@ -4332,7 +4311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
         <v>194</v>
       </c>
@@ -4343,7 +4322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
         <v>196</v>
       </c>
@@ -4354,7 +4333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
         <v>198</v>
       </c>
@@ -4365,7 +4344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
         <v>200</v>
       </c>
@@ -4376,7 +4355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
         <v>202</v>
       </c>
@@ -4387,7 +4366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
         <v>204</v>
       </c>
@@ -4398,7 +4377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
         <v>206</v>
       </c>
@@ -4409,7 +4388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
         <v>208</v>
       </c>
@@ -4420,7 +4399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
         <v>210</v>
       </c>
@@ -4431,7 +4410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
         <v>212</v>
       </c>
@@ -4442,7 +4421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
         <v>214</v>
       </c>
@@ -4453,7 +4432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
         <v>216</v>
       </c>
@@ -4464,7 +4443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
         <v>218</v>
       </c>
@@ -4475,7 +4454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
         <v>220</v>
       </c>
@@ -4486,7 +4465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
         <v>222</v>
       </c>
@@ -4497,7 +4476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
         <v>224</v>
       </c>
@@ -4508,7 +4487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
         <v>226</v>
       </c>
@@ -4519,7 +4498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
         <v>228</v>
       </c>
@@ -4530,7 +4509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>229</v>
       </c>
@@ -4541,7 +4520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
         <v>231</v>
       </c>
@@ -4552,7 +4531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
         <v>233</v>
       </c>
@@ -4563,7 +4542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
         <v>235</v>
       </c>
@@ -4574,7 +4553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
         <v>237</v>
       </c>
@@ -4585,7 +4564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
         <v>239</v>
       </c>
@@ -4596,7 +4575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
         <v>241</v>
       </c>
@@ -4607,7 +4586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
         <v>243</v>
       </c>
@@ -4618,7 +4597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
         <v>245</v>
       </c>
@@ -4629,7 +4608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
         <v>247</v>
       </c>
@@ -4640,7 +4619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
         <v>249</v>
       </c>
@@ -4651,7 +4630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
         <v>251</v>
       </c>
@@ -4662,7 +4641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
         <v>253</v>
       </c>
@@ -4673,7 +4652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
         <v>255</v>
       </c>
@@ -4684,7 +4663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
         <v>257</v>
       </c>
@@ -4695,7 +4674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
         <v>259</v>
       </c>
@@ -4706,7 +4685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
         <v>261</v>
       </c>
@@ -4717,7 +4696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
         <v>263</v>
       </c>
@@ -4728,7 +4707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
         <v>265</v>
       </c>
@@ -4739,7 +4718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
         <v>267</v>
       </c>
@@ -4750,7 +4729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
         <v>269</v>
       </c>
@@ -4761,7 +4740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
         <v>271</v>
       </c>
@@ -4772,7 +4751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
         <v>273</v>
       </c>
@@ -4783,7 +4762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
         <v>275</v>
       </c>
@@ -4794,7 +4773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
         <v>277</v>
       </c>
@@ -4805,7 +4784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
         <v>279</v>
       </c>
@@ -4816,7 +4795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
         <v>281</v>
       </c>
@@ -4827,7 +4806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
         <v>283</v>
       </c>
@@ -4838,7 +4817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
         <v>285</v>
       </c>
@@ -4849,7 +4828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
         <v>287</v>
       </c>
@@ -4860,7 +4839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
         <v>289</v>
       </c>
@@ -4871,7 +4850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
         <v>291</v>
       </c>
@@ -4882,7 +4861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
         <v>293</v>
       </c>
@@ -4893,7 +4872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
         <v>295</v>
       </c>
@@ -4904,7 +4883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
         <v>297</v>
       </c>
@@ -4915,7 +4894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
         <v>299</v>
       </c>
@@ -4926,7 +4905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
         <v>301</v>
       </c>
@@ -4937,7 +4916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
         <v>303</v>
       </c>
@@ -4948,7 +4927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
         <v>305</v>
       </c>
@@ -4959,7 +4938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
         <v>307</v>
       </c>
@@ -4970,7 +4949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
         <v>309</v>
       </c>
@@ -4981,7 +4960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
         <v>311</v>
       </c>
@@ -4992,7 +4971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
         <v>313</v>
       </c>
@@ -5003,7 +4982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
         <v>315</v>
       </c>
@@ -5014,7 +4993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
         <v>317</v>
       </c>
@@ -5025,7 +5004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
         <v>319</v>
       </c>
@@ -5036,7 +5015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
         <v>321</v>
       </c>
@@ -5047,7 +5026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
         <v>323</v>
       </c>
@@ -5058,7 +5037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
         <v>325</v>
       </c>
@@ -5069,7 +5048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
         <v>327</v>
       </c>
@@ -5080,7 +5059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
         <v>329</v>
       </c>
@@ -5091,7 +5070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
         <v>331</v>
       </c>
@@ -5102,7 +5081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
         <v>333</v>
       </c>
@@ -5113,7 +5092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
         <v>335</v>
       </c>
@@ -5124,7 +5103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
         <v>337</v>
       </c>
@@ -5135,7 +5114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
         <v>339</v>
       </c>
@@ -5146,7 +5125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
         <v>341</v>
       </c>
@@ -5157,7 +5136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
         <v>343</v>
       </c>
@@ -5168,7 +5147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
         <v>345</v>
       </c>
@@ -5179,7 +5158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
         <v>347</v>
       </c>
@@ -5190,7 +5169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
         <v>349</v>
       </c>
@@ -5201,7 +5180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
         <v>351</v>
       </c>
@@ -5212,7 +5191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
         <v>353</v>
       </c>
@@ -5223,7 +5202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
         <v>355</v>
       </c>
@@ -5234,7 +5213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
         <v>357</v>
       </c>
@@ -5245,7 +5224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
         <v>359</v>
       </c>
@@ -5256,7 +5235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
         <v>361</v>
       </c>
@@ -5267,7 +5246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
         <v>363</v>
       </c>
@@ -5278,7 +5257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
         <v>365</v>
       </c>
@@ -5289,7 +5268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
         <v>367</v>
       </c>
@@ -5300,7 +5279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
         <v>369</v>
       </c>
@@ -5311,7 +5290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
         <v>371</v>
       </c>
@@ -5322,7 +5301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
         <v>373</v>
       </c>
@@ -5333,7 +5312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
         <v>375</v>
       </c>
@@ -5344,7 +5323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
         <v>377</v>
       </c>
@@ -5355,7 +5334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
         <v>379</v>
       </c>
@@ -5366,7 +5345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
         <v>381</v>
       </c>
@@ -5377,7 +5356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
         <v>382</v>
       </c>
@@ -5388,7 +5367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
         <v>384</v>
       </c>
@@ -5399,7 +5378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
         <v>385</v>
       </c>
@@ -5410,7 +5389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
         <v>387</v>
       </c>
@@ -5421,7 +5400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
         <v>389</v>
       </c>
@@ -5432,7 +5411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
         <v>391</v>
       </c>
@@ -5443,7 +5422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
         <v>393</v>
       </c>
@@ -5454,7 +5433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
         <v>395</v>
       </c>
@@ -5465,7 +5444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
         <v>397</v>
       </c>
@@ -5476,7 +5455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
         <v>399</v>
       </c>
@@ -5487,7 +5466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
         <v>401</v>
       </c>
@@ -5498,7 +5477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
         <v>403</v>
       </c>
@@ -5509,7 +5488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
         <v>405</v>
       </c>
@@ -5520,7 +5499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
         <v>407</v>
       </c>
@@ -5531,7 +5510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
         <v>409</v>
       </c>
@@ -5542,7 +5521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
         <v>411</v>
       </c>
@@ -5553,7 +5532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
         <v>413</v>
       </c>
@@ -5564,7 +5543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
         <v>415</v>
       </c>
@@ -5575,7 +5554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
         <v>417</v>
       </c>
@@ -5586,7 +5565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
         <v>419</v>
       </c>
@@ -5597,7 +5576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
         <v>421</v>
       </c>
@@ -5608,7 +5587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
         <v>423</v>
       </c>
@@ -5619,7 +5598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
         <v>425</v>
       </c>
@@ -5630,7 +5609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
         <v>427</v>
       </c>
@@ -5641,7 +5620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
         <v>429</v>
       </c>
@@ -5652,7 +5631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
         <v>431</v>
       </c>
@@ -5663,7 +5642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
         <v>433</v>
       </c>
@@ -5674,7 +5653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
         <v>435</v>
       </c>
@@ -5685,7 +5664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
         <v>437</v>
       </c>
@@ -5696,7 +5675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
         <v>439</v>
       </c>
@@ -5707,7 +5686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
         <v>441</v>
       </c>
@@ -5718,7 +5697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
         <v>443</v>
       </c>
@@ -5729,7 +5708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
         <v>445</v>
       </c>
@@ -5740,7 +5719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
         <v>447</v>
       </c>
@@ -5751,7 +5730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
         <v>449</v>
       </c>
@@ -5762,7 +5741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
         <v>451</v>
       </c>
@@ -5773,7 +5752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
         <v>453</v>
       </c>
@@ -5784,7 +5763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
         <v>455</v>
       </c>
@@ -5795,7 +5774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
         <v>457</v>
       </c>
@@ -5806,7 +5785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
         <v>459</v>
       </c>
@@ -5817,7 +5796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
         <v>461</v>
       </c>
@@ -5828,7 +5807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
         <v>463</v>
       </c>
@@ -5839,7 +5818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
         <v>465</v>
       </c>
@@ -5850,7 +5829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
         <v>467</v>
       </c>
@@ -5861,7 +5840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
         <v>469</v>
       </c>
@@ -5872,7 +5851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
         <v>471</v>
       </c>
@@ -5883,7 +5862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
         <v>473</v>
       </c>
@@ -5894,7 +5873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
         <v>474</v>
       </c>
@@ -5905,7 +5884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
         <v>476</v>
       </c>
@@ -5916,7 +5895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
         <v>478</v>
       </c>
@@ -5927,7 +5906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
         <v>480</v>
       </c>
@@ -5938,7 +5917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
         <v>482</v>
       </c>
@@ -5949,7 +5928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
         <v>484</v>
       </c>
@@ -5960,7 +5939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
         <v>486</v>
       </c>
@@ -5971,7 +5950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
         <v>488</v>
       </c>
@@ -5982,7 +5961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
         <v>490</v>
       </c>
@@ -5993,7 +5972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
         <v>492</v>
       </c>
@@ -6004,7 +5983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
         <v>494</v>
       </c>
@@ -6015,7 +5994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
         <v>496</v>
       </c>
@@ -6026,7 +6005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
         <v>498</v>
       </c>
@@ -6037,7 +6016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
         <v>500</v>
       </c>
@@ -6048,7 +6027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
         <v>502</v>
       </c>
@@ -6059,7 +6038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
         <v>504</v>
       </c>
@@ -6070,7 +6049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
         <v>506</v>
       </c>
@@ -6081,7 +6060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
         <v>508</v>
       </c>
@@ -6092,7 +6071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
         <v>510</v>
       </c>
@@ -6103,7 +6082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
         <v>512</v>
       </c>
@@ -6114,7 +6093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
         <v>514</v>
       </c>
@@ -6125,7 +6104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
         <v>516</v>
       </c>
@@ -6136,7 +6115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
         <v>518</v>
       </c>
@@ -6147,7 +6126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
         <v>520</v>
       </c>
@@ -6158,7 +6137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
         <v>522</v>
       </c>
@@ -6169,7 +6148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
         <v>1</v>
       </c>
@@ -6180,7 +6159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
         <v>525</v>
       </c>
@@ -6191,7 +6170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
         <v>527</v>
       </c>
@@ -6202,7 +6181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
         <v>529</v>
       </c>
@@ -6213,7 +6192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
         <v>531</v>
       </c>
@@ -6224,7 +6203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
         <v>533</v>
       </c>
@@ -6235,7 +6214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
         <v>534</v>
       </c>
@@ -6246,7 +6225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
         <v>536</v>
       </c>
@@ -6257,7 +6236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
         <v>538</v>
       </c>
@@ -6268,7 +6247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
         <v>540</v>
       </c>
@@ -6279,7 +6258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
         <v>542</v>
       </c>
@@ -6290,7 +6269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
         <v>544</v>
       </c>
@@ -6301,7 +6280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
         <v>546</v>
       </c>
@@ -6312,7 +6291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
         <v>548</v>
       </c>
@@ -6323,7 +6302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
         <v>550</v>
       </c>
@@ -6334,7 +6313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
         <v>552</v>
       </c>
@@ -6345,7 +6324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
         <v>554</v>
       </c>
@@ -6356,7 +6335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
         <v>556</v>
       </c>
@@ -6367,7 +6346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
         <v>558</v>
       </c>
@@ -6378,7 +6357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
         <v>560</v>
       </c>
@@ -6389,7 +6368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
         <v>562</v>
       </c>
@@ -6400,7 +6379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
         <v>564</v>
       </c>
@@ -6411,7 +6390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
         <v>566</v>
       </c>
@@ -6422,7 +6401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
         <v>568</v>
       </c>
@@ -6433,7 +6412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
         <v>570</v>
       </c>
@@ -6444,7 +6423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
         <v>572</v>
       </c>
@@ -6455,7 +6434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
         <v>574</v>
       </c>
@@ -6466,7 +6445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
         <v>576</v>
       </c>
@@ -6477,7 +6456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
         <v>578</v>
       </c>
@@ -6488,7 +6467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
         <v>580</v>
       </c>
@@ -6499,7 +6478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
         <v>582</v>
       </c>
@@ -6510,7 +6489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
         <v>584</v>
       </c>
@@ -6521,7 +6500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
         <v>586</v>
       </c>
@@ -6532,7 +6511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
         <v>588</v>
       </c>
@@ -6543,7 +6522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
         <v>590</v>
       </c>
@@ -6554,7 +6533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
         <v>592</v>
       </c>
@@ -6565,7 +6544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
         <v>594</v>
       </c>
@@ -6576,7 +6555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
         <v>596</v>
       </c>
@@ -6587,7 +6566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
         <v>598</v>
       </c>
@@ -6598,7 +6577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
         <v>600</v>
       </c>
@@ -6609,7 +6588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
         <v>602</v>
       </c>
@@ -6620,7 +6599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
         <v>604</v>
       </c>
@@ -6631,7 +6610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
         <v>606</v>
       </c>
@@ -6642,7 +6621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
         <v>608</v>
       </c>
@@ -6653,7 +6632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
         <v>610</v>
       </c>
@@ -6664,7 +6643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
         <v>612</v>
       </c>
@@ -6675,7 +6654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
         <v>614</v>
       </c>
@@ -6686,7 +6665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
         <v>616</v>
       </c>
@@ -6697,7 +6676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
         <v>618</v>
       </c>
@@ -6708,7 +6687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
         <v>620</v>
       </c>
@@ -6719,7 +6698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
         <v>621</v>
       </c>
@@ -6730,7 +6709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
         <v>623</v>
       </c>
@@ -6741,7 +6720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
         <v>625</v>
       </c>
@@ -6752,7 +6731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
         <v>627</v>
       </c>
@@ -6763,7 +6742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
         <v>629</v>
       </c>
@@ -6774,7 +6753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
         <v>631</v>
       </c>
@@ -6785,7 +6764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
         <v>633</v>
       </c>
@@ -6796,7 +6775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
         <v>635</v>
       </c>
@@ -6807,7 +6786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
         <v>637</v>
       </c>
@@ -6818,7 +6797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
         <v>639</v>
       </c>
@@ -6829,7 +6808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
         <v>640</v>
       </c>
@@ -6840,7 +6819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
         <v>642</v>
       </c>
@@ -6851,7 +6830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
         <v>644</v>
       </c>
@@ -6862,7 +6841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
         <v>646</v>
       </c>
@@ -6873,7 +6852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="s">
         <v>647</v>
       </c>
@@ -6884,7 +6863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
         <v>649</v>
       </c>
@@ -6895,7 +6874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
         <v>651</v>
       </c>
@@ -6906,7 +6885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
         <v>653</v>
       </c>
@@ -6917,7 +6896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
         <v>655</v>
       </c>
@@ -6928,7 +6907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
         <v>657</v>
       </c>
@@ -6939,2056 +6918,2054 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="0" t="n">
+    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="B336" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="C336" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="B337" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="C337" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="B338" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="C338" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="B339" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="C339" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="B340" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="C340" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="0" t="s">
+        <v>669</v>
+      </c>
+      <c r="B341" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="C341" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="B342" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="C342" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="0" t="s">
+        <v>673</v>
+      </c>
+      <c r="B343" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="C343" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="0" t="s">
+        <v>675</v>
+      </c>
+      <c r="B344" s="0" t="s">
+        <v>675</v>
+      </c>
+      <c r="C344" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="B345" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="C345" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C346" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="B347" s="0" t="s">
+        <v>679</v>
+      </c>
+      <c r="C347" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="B348" s="0" t="s">
+        <v>681</v>
+      </c>
+      <c r="C348" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="B349" s="0" t="s">
+        <v>683</v>
+      </c>
+      <c r="C349" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="B350" s="0" t="s">
+        <v>681</v>
+      </c>
+      <c r="C350" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C351" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="B352" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="C352" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="B353" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="C353" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="B354" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="C354" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="B355" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="C355" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="B356" s="0" t="s">
+        <v>693</v>
+      </c>
+      <c r="C356" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="B357" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="C357" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="B358" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="C358" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="B359" s="0" t="s">
+        <v>699</v>
+      </c>
+      <c r="C359" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="B360" s="0" t="s">
+        <v>701</v>
+      </c>
+      <c r="C360" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="B361" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="C361" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="B362" s="0" t="s">
+        <v>705</v>
+      </c>
+      <c r="C362" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="B363" s="0" t="s">
+        <v>707</v>
+      </c>
+      <c r="C363" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="0" t="s">
+        <v>708</v>
+      </c>
+      <c r="B364" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="C364" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="0" t="s">
+        <v>710</v>
+      </c>
+      <c r="B365" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="C365" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="B366" s="0" t="s">
+        <v>713</v>
+      </c>
+      <c r="C366" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="B367" s="0" t="s">
+        <v>715</v>
+      </c>
+      <c r="C367" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="B368" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="C368" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="B369" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="C369" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="B370" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="C370" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="B371" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="C371" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="0" t="s">
+        <v>724</v>
+      </c>
+      <c r="B372" s="0" t="s">
+        <v>725</v>
+      </c>
+      <c r="C372" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="B373" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="C373" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="B374" s="0" t="s">
+        <v>728</v>
+      </c>
+      <c r="C374" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="0" t="s">
+        <v>729</v>
+      </c>
+      <c r="B375" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="C375" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="0" t="s">
+        <v>731</v>
+      </c>
+      <c r="B376" s="0" t="s">
+        <v>732</v>
+      </c>
+      <c r="C376" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="B377" s="0" t="s">
+        <v>734</v>
+      </c>
+      <c r="C377" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="0" t="s">
+        <v>735</v>
+      </c>
+      <c r="B378" s="0" t="s">
+        <v>736</v>
+      </c>
+      <c r="C378" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="0" t="s">
+        <v>737</v>
+      </c>
+      <c r="B379" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="C379" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="0" t="s">
+        <v>739</v>
+      </c>
+      <c r="B380" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="C380" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="0" t="s">
+        <v>741</v>
+      </c>
+      <c r="B381" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="C381" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="0" t="s">
+        <v>743</v>
+      </c>
+      <c r="B382" s="0" t="s">
+        <v>744</v>
+      </c>
+      <c r="C382" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="B383" s="0" t="s">
+        <v>746</v>
+      </c>
+      <c r="C383" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="0" t="s">
+        <v>747</v>
+      </c>
+      <c r="B384" s="0" t="s">
+        <v>748</v>
+      </c>
+      <c r="C384" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="0" t="s">
+        <v>749</v>
+      </c>
+      <c r="B385" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="C385" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="0" t="s">
+        <v>751</v>
+      </c>
+      <c r="B386" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="C386" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="0" t="s">
+        <v>753</v>
+      </c>
+      <c r="B387" s="0" t="s">
+        <v>754</v>
+      </c>
+      <c r="C387" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="0" t="s">
+        <v>755</v>
+      </c>
+      <c r="B388" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="C388" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="0" t="s">
+        <v>757</v>
+      </c>
+      <c r="B389" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="C389" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="B390" s="0" t="s">
+        <v>760</v>
+      </c>
+      <c r="C390" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="B391" s="0" t="s">
+        <v>762</v>
+      </c>
+      <c r="C391" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="B392" s="0" t="s">
+        <v>764</v>
+      </c>
+      <c r="C392" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="0" t="s">
+        <v>765</v>
+      </c>
+      <c r="B393" s="0" t="s">
+        <v>766</v>
+      </c>
+      <c r="C393" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="B394" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="C394" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="0" t="s">
+        <v>769</v>
+      </c>
+      <c r="B395" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="C395" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="0" t="s">
+        <v>771</v>
+      </c>
+      <c r="B396" s="0" t="s">
+        <v>772</v>
+      </c>
+      <c r="C396" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="B397" s="0" t="s">
+        <v>774</v>
+      </c>
+      <c r="C397" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="0" t="s">
+        <v>775</v>
+      </c>
+      <c r="B398" s="0" t="s">
+        <v>776</v>
+      </c>
+      <c r="C398" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="0" t="s">
+        <v>777</v>
+      </c>
+      <c r="B399" s="0" t="s">
+        <v>778</v>
+      </c>
+      <c r="C399" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="0" t="s">
+        <v>779</v>
+      </c>
+      <c r="B400" s="0" t="s">
+        <v>780</v>
+      </c>
+      <c r="C400" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="0" t="s">
+        <v>781</v>
+      </c>
+      <c r="B401" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C401" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="B402" s="0" t="s">
+        <v>783</v>
+      </c>
+      <c r="C402" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="0" t="s">
+        <v>784</v>
+      </c>
+      <c r="B403" s="0" t="s">
+        <v>785</v>
+      </c>
+      <c r="C403" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="0" t="s">
+        <v>786</v>
+      </c>
+      <c r="B404" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="C404" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="0" t="s">
+        <v>788</v>
+      </c>
+      <c r="B405" s="0" t="s">
+        <v>789</v>
+      </c>
+      <c r="C405" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="0" t="s">
+        <v>790</v>
+      </c>
+      <c r="B406" s="0" t="s">
+        <v>791</v>
+      </c>
+      <c r="C406" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="0" t="s">
+        <v>792</v>
+      </c>
+      <c r="B407" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="C407" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="0" t="s">
+        <v>794</v>
+      </c>
+      <c r="B408" s="0" t="s">
+        <v>795</v>
+      </c>
+      <c r="C408" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="0" t="s">
+        <v>796</v>
+      </c>
+      <c r="B409" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="C409" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="0" t="s">
+        <v>798</v>
+      </c>
+      <c r="B410" s="0" t="s">
+        <v>780</v>
+      </c>
+      <c r="C410" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="0" t="s">
+        <v>799</v>
+      </c>
+      <c r="B411" s="0" t="s">
+        <v>800</v>
+      </c>
+      <c r="C411" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="0" t="s">
+        <v>801</v>
+      </c>
+      <c r="B412" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="C412" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="0" t="s">
+        <v>803</v>
+      </c>
+      <c r="B413" s="0" t="s">
+        <v>804</v>
+      </c>
+      <c r="C413" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="0" t="s">
+        <v>805</v>
+      </c>
+      <c r="B414" s="0" t="s">
+        <v>806</v>
+      </c>
+      <c r="C414" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="0" t="s">
+        <v>807</v>
+      </c>
+      <c r="B415" s="0" t="s">
+        <v>808</v>
+      </c>
+      <c r="C415" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="0" t="s">
+        <v>809</v>
+      </c>
+      <c r="B416" s="0" t="s">
+        <v>810</v>
+      </c>
+      <c r="C416" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="B417" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="C417" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="0" t="s">
+        <v>813</v>
+      </c>
+      <c r="B418" s="0" t="s">
+        <v>814</v>
+      </c>
+      <c r="C418" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="0" t="s">
+        <v>815</v>
+      </c>
+      <c r="B419" s="0" t="s">
+        <v>816</v>
+      </c>
+      <c r="C419" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="0" t="s">
+        <v>817</v>
+      </c>
+      <c r="B420" s="0" t="s">
+        <v>818</v>
+      </c>
+      <c r="C420" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="0" t="s">
+        <v>819</v>
+      </c>
+      <c r="B421" s="0" t="s">
+        <v>820</v>
+      </c>
+      <c r="C421" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="0" t="s">
+        <v>821</v>
+      </c>
+      <c r="B422" s="0" t="s">
+        <v>822</v>
+      </c>
+      <c r="C422" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="0" t="s">
+        <v>823</v>
+      </c>
+      <c r="B423" s="0" t="s">
+        <v>824</v>
+      </c>
+      <c r="C423" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="0" t="s">
+        <v>825</v>
+      </c>
+      <c r="B424" s="0" t="s">
+        <v>826</v>
+      </c>
+      <c r="C424" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="0" t="s">
+        <v>827</v>
+      </c>
+      <c r="B425" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="C425" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="0" t="s">
+        <v>829</v>
+      </c>
+      <c r="B426" s="0" t="s">
+        <v>830</v>
+      </c>
+      <c r="C426" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="0" t="s">
+        <v>831</v>
+      </c>
+      <c r="B427" s="0" t="s">
+        <v>832</v>
+      </c>
+      <c r="C427" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="0" t="s">
+        <v>833</v>
+      </c>
+      <c r="B428" s="0" t="s">
+        <v>834</v>
+      </c>
+      <c r="C428" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="0" t="s">
+        <v>835</v>
+      </c>
+      <c r="B429" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="C429" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="0" t="s">
+        <v>837</v>
+      </c>
+      <c r="B430" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C430" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="B431" s="0" t="s">
+        <v>839</v>
+      </c>
+      <c r="C431" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="0" t="s">
+        <v>840</v>
+      </c>
+      <c r="B432" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="C432" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="0" t="s">
+        <v>842</v>
+      </c>
+      <c r="B433" s="0" t="s">
+        <v>843</v>
+      </c>
+      <c r="C433" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="B434" s="0" t="s">
+        <v>845</v>
+      </c>
+      <c r="C434" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="0" t="s">
+        <v>708</v>
+      </c>
+      <c r="B435" s="0" t="s">
+        <v>846</v>
+      </c>
+      <c r="C435" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="0" t="s">
+        <v>847</v>
+      </c>
+      <c r="B436" s="0" t="s">
+        <v>795</v>
+      </c>
+      <c r="C436" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="0" t="s">
+        <v>848</v>
+      </c>
+      <c r="B437" s="0" t="s">
+        <v>849</v>
+      </c>
+      <c r="C437" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="0" t="s">
+        <v>850</v>
+      </c>
+      <c r="B438" s="0" t="s">
+        <v>851</v>
+      </c>
+      <c r="C438" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="B439" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="C439" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="0" t="s">
+        <v>852</v>
+      </c>
+      <c r="B440" s="0" t="s">
+        <v>853</v>
+      </c>
+      <c r="C440" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="0" t="s">
+        <v>854</v>
+      </c>
+      <c r="B441" s="0" t="s">
+        <v>855</v>
+      </c>
+      <c r="C441" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="0" t="s">
+        <v>856</v>
+      </c>
+      <c r="B442" s="0" t="s">
+        <v>857</v>
+      </c>
+      <c r="C442" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="0" t="s">
+        <v>858</v>
+      </c>
+      <c r="B443" s="0" t="s">
+        <v>859</v>
+      </c>
+      <c r="C443" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A444" s="0" t="s">
+        <v>860</v>
+      </c>
+      <c r="B444" s="0" t="s">
+        <v>861</v>
+      </c>
+      <c r="C444" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A445" s="0" t="s">
+        <v>862</v>
+      </c>
+      <c r="B445" s="0" t="s">
+        <v>863</v>
+      </c>
+      <c r="C445" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A446" s="0" t="s">
+        <v>864</v>
+      </c>
+      <c r="B446" s="0" t="s">
+        <v>865</v>
+      </c>
+      <c r="C446" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A447" s="0" t="s">
+        <v>866</v>
+      </c>
+      <c r="B447" s="0" t="s">
+        <v>867</v>
+      </c>
+      <c r="C447" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A448" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="B448" s="0" t="s">
+        <v>869</v>
+      </c>
+      <c r="C448" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B449" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C449" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A450" s="0" t="s">
+        <v>870</v>
+      </c>
+      <c r="B450" s="0" t="s">
+        <v>871</v>
+      </c>
+      <c r="C450" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A451" s="0" t="s">
+        <v>872</v>
+      </c>
+      <c r="B451" s="0" t="s">
+        <v>873</v>
+      </c>
+      <c r="C451" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A452" s="0" t="s">
+        <v>874</v>
+      </c>
+      <c r="B452" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="C452" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A453" s="0" t="s">
+        <v>876</v>
+      </c>
+      <c r="B453" s="0" t="s">
+        <v>877</v>
+      </c>
+      <c r="C453" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A454" s="0" t="s">
+        <v>878</v>
+      </c>
+      <c r="B454" s="0" t="s">
+        <v>879</v>
+      </c>
+      <c r="C454" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A455" s="0" t="s">
+        <v>880</v>
+      </c>
+      <c r="B455" s="0" t="s">
+        <v>881</v>
+      </c>
+      <c r="C455" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A456" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="B456" s="0" t="s">
+        <v>883</v>
+      </c>
+      <c r="C456" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A457" s="0" t="s">
+        <v>884</v>
+      </c>
+      <c r="B457" s="0" t="s">
+        <v>885</v>
+      </c>
+      <c r="C457" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A458" s="0" t="s">
+        <v>886</v>
+      </c>
+      <c r="B458" s="0" t="s">
+        <v>887</v>
+      </c>
+      <c r="C458" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A459" s="0" t="s">
+        <v>888</v>
+      </c>
+      <c r="B459" s="0" t="s">
+        <v>889</v>
+      </c>
+      <c r="C459" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A460" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="B460" s="0" t="s">
+        <v>891</v>
+      </c>
+      <c r="C460" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A461" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="B461" s="0" t="s">
+        <v>893</v>
+      </c>
+      <c r="C461" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A462" s="0" t="s">
+        <v>765</v>
+      </c>
+      <c r="B462" s="0" t="s">
+        <v>894</v>
+      </c>
+      <c r="C462" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="0" t="s">
+        <v>895</v>
+      </c>
+      <c r="B463" s="0" t="s">
+        <v>896</v>
+      </c>
+      <c r="C463" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A464" s="0" t="s">
+        <v>897</v>
+      </c>
+      <c r="B464" s="0" t="s">
+        <v>898</v>
+      </c>
+      <c r="C464" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A465" s="0" t="s">
+        <v>899</v>
+      </c>
+      <c r="B465" s="0" t="s">
+        <v>900</v>
+      </c>
+      <c r="C465" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="0" t="s">
+        <v>901</v>
+      </c>
+      <c r="B466" s="0" t="s">
+        <v>902</v>
+      </c>
+      <c r="C466" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A467" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="B467" s="0" t="s">
+        <v>904</v>
+      </c>
+      <c r="C467" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A468" s="0" t="s">
+        <v>905</v>
+      </c>
+      <c r="B468" s="0" t="s">
+        <v>906</v>
+      </c>
+      <c r="C468" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="0" t="s">
+        <v>907</v>
+      </c>
+      <c r="B469" s="0" t="s">
+        <v>908</v>
+      </c>
+      <c r="C469" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="0" t="s">
+        <v>909</v>
+      </c>
+      <c r="B470" s="0" t="s">
+        <v>910</v>
+      </c>
+      <c r="C470" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="0" t="s">
+        <v>911</v>
+      </c>
+      <c r="B471" s="0" t="s">
+        <v>912</v>
+      </c>
+      <c r="C471" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="0" t="s">
+        <v>913</v>
+      </c>
+      <c r="B472" s="0" t="s">
+        <v>914</v>
+      </c>
+      <c r="C472" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="0" t="s">
+        <v>915</v>
+      </c>
+      <c r="B473" s="0" t="s">
+        <v>916</v>
+      </c>
+      <c r="C473" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="0" t="s">
+        <v>917</v>
+      </c>
+      <c r="B474" s="0" t="s">
+        <v>918</v>
+      </c>
+      <c r="C474" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="0" t="s">
+        <v>919</v>
+      </c>
+      <c r="B475" s="0" t="s">
+        <v>920</v>
+      </c>
+      <c r="C475" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="0" t="s">
+        <v>921</v>
+      </c>
+      <c r="B476" s="0" t="s">
+        <v>922</v>
+      </c>
+      <c r="C476" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="0" t="s">
+        <v>923</v>
+      </c>
+      <c r="B477" s="0" t="s">
+        <v>924</v>
+      </c>
+      <c r="C477" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="0" t="s">
+        <v>925</v>
+      </c>
+      <c r="B478" s="0" t="s">
+        <v>926</v>
+      </c>
+      <c r="C478" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="0" t="s">
+        <v>927</v>
+      </c>
+      <c r="B479" s="0" t="s">
+        <v>928</v>
+      </c>
+      <c r="C479" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A480" s="0" t="s">
+        <v>929</v>
+      </c>
+      <c r="B480" s="0" t="s">
+        <v>930</v>
+      </c>
+      <c r="C480" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A481" s="0" t="s">
+        <v>931</v>
+      </c>
+      <c r="B481" s="0" t="s">
+        <v>932</v>
+      </c>
+      <c r="C481" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A482" s="0" t="s">
+        <v>933</v>
+      </c>
+      <c r="B482" s="0" t="s">
+        <v>934</v>
+      </c>
+      <c r="C482" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A483" s="0" t="s">
+        <v>935</v>
+      </c>
+      <c r="B483" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="C483" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A484" s="0" t="s">
+        <v>937</v>
+      </c>
+      <c r="B484" s="0" t="s">
+        <v>926</v>
+      </c>
+      <c r="C484" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A485" s="0" t="s">
+        <v>938</v>
+      </c>
+      <c r="B485" s="0" t="s">
+        <v>939</v>
+      </c>
+      <c r="C485" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A486" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="B486" s="0" t="s">
+        <v>941</v>
+      </c>
+      <c r="C486" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A487" s="0" t="s">
+        <v>942</v>
+      </c>
+      <c r="B487" s="0" t="s">
+        <v>943</v>
+      </c>
+      <c r="C487" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A488" s="0" t="s">
+        <v>944</v>
+      </c>
+      <c r="B488" s="0" t="s">
+        <v>945</v>
+      </c>
+      <c r="C488" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A489" s="0" t="s">
+        <v>946</v>
+      </c>
+      <c r="B489" s="0" t="s">
+        <v>947</v>
+      </c>
+      <c r="C489" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A490" s="0" t="s">
+        <v>948</v>
+      </c>
+      <c r="B490" s="0" t="s">
+        <v>949</v>
+      </c>
+      <c r="C490" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A491" s="0" t="s">
+        <v>950</v>
+      </c>
+      <c r="B491" s="0" t="s">
+        <v>951</v>
+      </c>
+      <c r="C491" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A492" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B492" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="C492" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A493" s="0" t="s">
+        <v>952</v>
+      </c>
+      <c r="B493" s="0" t="s">
+        <v>949</v>
+      </c>
+      <c r="C493" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A494" s="0" t="s">
+        <v>953</v>
+      </c>
+      <c r="B494" s="0" t="s">
+        <v>954</v>
+      </c>
+      <c r="C494" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A495" s="0" t="s">
+        <v>955</v>
+      </c>
+      <c r="B495" s="0" t="s">
+        <v>956</v>
+      </c>
+      <c r="C495" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A496" s="0" t="s">
+        <v>957</v>
+      </c>
+      <c r="B496" s="0" t="s">
+        <v>958</v>
+      </c>
+      <c r="C496" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A497" s="0" t="s">
+        <v>959</v>
+      </c>
+      <c r="B497" s="0" t="s">
+        <v>960</v>
+      </c>
+      <c r="C497" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A498" s="0" t="s">
+        <v>961</v>
+      </c>
+      <c r="B498" s="0" t="s">
+        <v>962</v>
+      </c>
+      <c r="C498" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A499" s="0" t="s">
+        <v>963</v>
+      </c>
+      <c r="B499" s="0" t="s">
+        <v>964</v>
+      </c>
+      <c r="C499" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A500" s="0" t="s">
+        <v>965</v>
+      </c>
+      <c r="B500" s="0" t="s">
+        <v>966</v>
+      </c>
+      <c r="C500" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A501" s="0" t="s">
+        <v>967</v>
+      </c>
+      <c r="B501" s="0" t="s">
+        <v>968</v>
+      </c>
+      <c r="C501" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A502" s="0" t="s">
+        <v>765</v>
+      </c>
+      <c r="B502" s="0" t="s">
+        <v>766</v>
+      </c>
+      <c r="C502" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A503" s="0" t="s">
+        <v>969</v>
+      </c>
+      <c r="B503" s="0" t="s">
+        <v>970</v>
+      </c>
+      <c r="C503" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A504" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="B504" s="0" t="s">
+        <v>971</v>
+      </c>
+      <c r="C504" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A505" s="0" t="s">
+        <v>972</v>
+      </c>
+      <c r="B505" s="0" t="s">
+        <v>973</v>
+      </c>
+      <c r="C505" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A506" s="0" t="s">
+        <v>974</v>
+      </c>
+      <c r="B506" s="0" t="s">
+        <v>975</v>
+      </c>
+      <c r="C506" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A507" s="0" t="s">
+        <v>976</v>
+      </c>
+      <c r="B507" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="C507" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A508" s="0" t="s">
+        <v>978</v>
+      </c>
+      <c r="B508" s="0" t="s">
+        <v>979</v>
+      </c>
+      <c r="C508" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A509" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="B509" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="C509" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A510" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="B510" s="0" t="s">
+        <v>983</v>
+      </c>
+      <c r="C510" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A511" s="0" t="s">
+        <v>984</v>
+      </c>
+      <c r="B511" s="0" t="s">
+        <v>983</v>
+      </c>
+      <c r="C511" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A512" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B512" s="0" t="s">
+        <v>986</v>
+      </c>
+      <c r="C512" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A513" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="B513" s="0" t="s">
+        <v>988</v>
+      </c>
+      <c r="C513" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A514" s="0" t="s">
+        <v>989</v>
+      </c>
+      <c r="B514" s="0" t="s">
+        <v>990</v>
+      </c>
+      <c r="C514" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A515" s="0" t="s">
+        <v>991</v>
+      </c>
+      <c r="B515" s="0" t="s">
+        <v>992</v>
+      </c>
+      <c r="C515" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A516" s="0" t="s">
+        <v>993</v>
+      </c>
+      <c r="B516" s="0" t="s">
+        <v>994</v>
+      </c>
+      <c r="C516" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A517" s="0" t="s">
+        <v>995</v>
+      </c>
+      <c r="B517" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="C517" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A518" s="0" t="s">
+        <v>997</v>
+      </c>
+      <c r="B518" s="0" t="s">
+        <v>998</v>
+      </c>
+      <c r="C518" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A519" s="0" t="s">
+        <v>999</v>
+      </c>
+      <c r="B519" s="0" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C519" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A520" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B336" s="2" t="n">
+      <c r="B520" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="C336" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="337" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B337" s="2" t="n">
+      <c r="C520" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A521" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B521" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C337" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="338" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="0" t="s">
-        <v>659</v>
-      </c>
-      <c r="B338" s="0" t="s">
-        <v>660</v>
-      </c>
-      <c r="C338" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="339" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="0" t="s">
-        <v>661</v>
-      </c>
-      <c r="B339" s="0" t="s">
-        <v>662</v>
-      </c>
-      <c r="C339" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="340" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="0" t="s">
-        <v>663</v>
-      </c>
-      <c r="B340" s="0" t="s">
-        <v>664</v>
-      </c>
-      <c r="C340" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="341" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="0" t="s">
-        <v>665</v>
-      </c>
-      <c r="B341" s="0" t="s">
-        <v>666</v>
-      </c>
-      <c r="C341" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="342" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="0" t="s">
-        <v>667</v>
-      </c>
-      <c r="B342" s="0" t="s">
-        <v>668</v>
-      </c>
-      <c r="C342" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="343" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="0" t="s">
-        <v>669</v>
-      </c>
-      <c r="B343" s="0" t="s">
-        <v>670</v>
-      </c>
-      <c r="C343" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="344" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="0" t="s">
-        <v>671</v>
-      </c>
-      <c r="B344" s="0" t="s">
-        <v>672</v>
-      </c>
-      <c r="C344" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="345" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="0" t="s">
-        <v>673</v>
-      </c>
-      <c r="B345" s="0" t="s">
-        <v>674</v>
-      </c>
-      <c r="C345" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="346" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="0" t="s">
-        <v>675</v>
-      </c>
-      <c r="B346" s="0" t="s">
-        <v>675</v>
-      </c>
-      <c r="C346" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="0" t="s">
-        <v>676</v>
-      </c>
-      <c r="B347" s="0" t="s">
-        <v>676</v>
-      </c>
-      <c r="C347" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="B348" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="C348" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="349" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="0" t="s">
-        <v>678</v>
-      </c>
-      <c r="B349" s="0" t="s">
-        <v>679</v>
-      </c>
-      <c r="C349" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="350" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="0" t="s">
-        <v>680</v>
-      </c>
-      <c r="B350" s="0" t="s">
-        <v>681</v>
-      </c>
-      <c r="C350" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="351" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="0" t="s">
-        <v>682</v>
-      </c>
-      <c r="B351" s="0" t="s">
-        <v>683</v>
-      </c>
-      <c r="C351" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="352" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="0" t="s">
-        <v>680</v>
-      </c>
-      <c r="B352" s="0" t="s">
-        <v>681</v>
-      </c>
-      <c r="C352" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="353" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B353" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C353" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="354" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="4" t="s">
-        <v>684</v>
-      </c>
-      <c r="B354" s="0" t="s">
-        <v>685</v>
-      </c>
-      <c r="C354" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="355" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="0" t="s">
-        <v>686</v>
-      </c>
-      <c r="B355" s="0" t="s">
-        <v>687</v>
-      </c>
-      <c r="C355" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="356" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="0" t="s">
-        <v>688</v>
-      </c>
-      <c r="B356" s="0" t="s">
-        <v>689</v>
-      </c>
-      <c r="C356" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="357" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="0" t="s">
-        <v>690</v>
-      </c>
-      <c r="B357" s="0" t="s">
-        <v>691</v>
-      </c>
-      <c r="C357" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="358" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="0" t="s">
-        <v>692</v>
-      </c>
-      <c r="B358" s="0" t="s">
-        <v>693</v>
-      </c>
-      <c r="C358" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="359" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="0" t="s">
-        <v>694</v>
-      </c>
-      <c r="B359" s="0" t="s">
-        <v>695</v>
-      </c>
-      <c r="C359" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="360" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="0" t="s">
-        <v>696</v>
-      </c>
-      <c r="B360" s="0" t="s">
-        <v>697</v>
-      </c>
-      <c r="C360" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="361" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="0" t="s">
-        <v>698</v>
-      </c>
-      <c r="B361" s="0" t="s">
-        <v>699</v>
-      </c>
-      <c r="C361" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="362" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="0" t="s">
-        <v>700</v>
-      </c>
-      <c r="B362" s="0" t="s">
-        <v>701</v>
-      </c>
-      <c r="C362" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="363" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="0" t="s">
-        <v>702</v>
-      </c>
-      <c r="B363" s="0" t="s">
-        <v>703</v>
-      </c>
-      <c r="C363" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="364" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="0" t="s">
-        <v>704</v>
-      </c>
-      <c r="B364" s="0" t="s">
-        <v>705</v>
-      </c>
-      <c r="C364" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="365" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="0" t="s">
-        <v>706</v>
-      </c>
-      <c r="B365" s="0" t="s">
-        <v>707</v>
-      </c>
-      <c r="C365" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="366" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="0" t="s">
-        <v>708</v>
-      </c>
-      <c r="B366" s="0" t="s">
-        <v>709</v>
-      </c>
-      <c r="C366" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="367" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="0" t="s">
-        <v>710</v>
-      </c>
-      <c r="B367" s="0" t="s">
-        <v>711</v>
-      </c>
-      <c r="C367" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="368" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="0" t="s">
-        <v>712</v>
-      </c>
-      <c r="B368" s="0" t="s">
-        <v>713</v>
-      </c>
-      <c r="C368" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="369" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="0" t="s">
-        <v>714</v>
-      </c>
-      <c r="B369" s="0" t="s">
-        <v>715</v>
-      </c>
-      <c r="C369" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="370" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="0" t="s">
-        <v>716</v>
-      </c>
-      <c r="B370" s="0" t="s">
-        <v>717</v>
-      </c>
-      <c r="C370" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="371" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="0" t="s">
-        <v>718</v>
-      </c>
-      <c r="B371" s="0" t="s">
-        <v>719</v>
-      </c>
-      <c r="C371" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="372" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="0" t="s">
-        <v>720</v>
-      </c>
-      <c r="B372" s="0" t="s">
-        <v>721</v>
-      </c>
-      <c r="C372" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="373" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="0" t="s">
-        <v>722</v>
-      </c>
-      <c r="B373" s="0" t="s">
-        <v>723</v>
-      </c>
-      <c r="C373" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="374" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="0" t="s">
-        <v>724</v>
-      </c>
-      <c r="B374" s="0" t="s">
-        <v>725</v>
-      </c>
-      <c r="C374" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="375" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="0" t="s">
-        <v>726</v>
-      </c>
-      <c r="B375" s="0" t="s">
-        <v>676</v>
-      </c>
-      <c r="C375" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="376" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="0" t="s">
-        <v>727</v>
-      </c>
-      <c r="B376" s="0" t="s">
-        <v>728</v>
-      </c>
-      <c r="C376" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="377" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="0" t="s">
-        <v>729</v>
-      </c>
-      <c r="B377" s="0" t="s">
-        <v>730</v>
-      </c>
-      <c r="C377" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="378" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="0" t="s">
-        <v>731</v>
-      </c>
-      <c r="B378" s="0" t="s">
-        <v>732</v>
-      </c>
-      <c r="C378" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="379" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="0" t="s">
-        <v>733</v>
-      </c>
-      <c r="B379" s="0" t="s">
-        <v>734</v>
-      </c>
-      <c r="C379" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="380" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="0" t="s">
-        <v>735</v>
-      </c>
-      <c r="B380" s="0" t="s">
-        <v>736</v>
-      </c>
-      <c r="C380" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="381" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="0" t="s">
-        <v>737</v>
-      </c>
-      <c r="B381" s="0" t="s">
-        <v>738</v>
-      </c>
-      <c r="C381" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="382" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="0" t="s">
-        <v>739</v>
-      </c>
-      <c r="B382" s="0" t="s">
-        <v>740</v>
-      </c>
-      <c r="C382" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="383" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="0" t="s">
-        <v>741</v>
-      </c>
-      <c r="B383" s="0" t="s">
-        <v>742</v>
-      </c>
-      <c r="C383" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="384" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="0" t="s">
-        <v>743</v>
-      </c>
-      <c r="B384" s="0" t="s">
-        <v>744</v>
-      </c>
-      <c r="C384" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="385" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="0" t="s">
-        <v>745</v>
-      </c>
-      <c r="B385" s="0" t="s">
-        <v>746</v>
-      </c>
-      <c r="C385" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="386" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="0" t="s">
-        <v>747</v>
-      </c>
-      <c r="B386" s="0" t="s">
-        <v>748</v>
-      </c>
-      <c r="C386" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="387" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="0" t="s">
-        <v>749</v>
-      </c>
-      <c r="B387" s="0" t="s">
-        <v>750</v>
-      </c>
-      <c r="C387" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="388" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="0" t="s">
-        <v>751</v>
-      </c>
-      <c r="B388" s="0" t="s">
-        <v>752</v>
-      </c>
-      <c r="C388" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="389" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="0" t="s">
-        <v>753</v>
-      </c>
-      <c r="B389" s="0" t="s">
-        <v>754</v>
-      </c>
-      <c r="C389" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="390" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="0" t="s">
-        <v>755</v>
-      </c>
-      <c r="B390" s="0" t="s">
-        <v>756</v>
-      </c>
-      <c r="C390" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="391" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="0" t="s">
-        <v>757</v>
-      </c>
-      <c r="B391" s="0" t="s">
-        <v>758</v>
-      </c>
-      <c r="C391" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="392" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="0" t="s">
-        <v>759</v>
-      </c>
-      <c r="B392" s="0" t="s">
-        <v>760</v>
-      </c>
-      <c r="C392" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="393" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="0" t="s">
-        <v>761</v>
-      </c>
-      <c r="B393" s="0" t="s">
-        <v>762</v>
-      </c>
-      <c r="C393" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="394" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="0" t="s">
-        <v>763</v>
-      </c>
-      <c r="B394" s="0" t="s">
-        <v>764</v>
-      </c>
-      <c r="C394" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="395" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="0" t="s">
-        <v>765</v>
-      </c>
-      <c r="B395" s="0" t="s">
-        <v>766</v>
-      </c>
-      <c r="C395" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="396" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="0" t="s">
-        <v>767</v>
-      </c>
-      <c r="B396" s="0" t="s">
-        <v>768</v>
-      </c>
-      <c r="C396" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="397" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="0" t="s">
-        <v>769</v>
-      </c>
-      <c r="B397" s="0" t="s">
-        <v>770</v>
-      </c>
-      <c r="C397" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="398" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="0" t="s">
-        <v>771</v>
-      </c>
-      <c r="B398" s="0" t="s">
-        <v>772</v>
-      </c>
-      <c r="C398" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="399" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="0" t="s">
-        <v>773</v>
-      </c>
-      <c r="B399" s="0" t="s">
-        <v>774</v>
-      </c>
-      <c r="C399" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="400" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="0" t="s">
-        <v>775</v>
-      </c>
-      <c r="B400" s="0" t="s">
-        <v>776</v>
-      </c>
-      <c r="C400" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="401" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="0" t="s">
-        <v>777</v>
-      </c>
-      <c r="B401" s="0" t="s">
-        <v>778</v>
-      </c>
-      <c r="C401" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="402" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="0" t="s">
-        <v>779</v>
-      </c>
-      <c r="B402" s="0" t="s">
-        <v>780</v>
-      </c>
-      <c r="C402" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="403" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="0" t="s">
-        <v>781</v>
-      </c>
-      <c r="B403" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C403" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="404" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="0" t="s">
-        <v>782</v>
-      </c>
-      <c r="B404" s="0" t="s">
-        <v>783</v>
-      </c>
-      <c r="C404" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="405" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="0" t="s">
-        <v>784</v>
-      </c>
-      <c r="B405" s="0" t="s">
-        <v>785</v>
-      </c>
-      <c r="C405" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="406" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="0" t="s">
-        <v>786</v>
-      </c>
-      <c r="B406" s="0" t="s">
-        <v>787</v>
-      </c>
-      <c r="C406" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="407" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="0" t="s">
-        <v>788</v>
-      </c>
-      <c r="B407" s="0" t="s">
-        <v>789</v>
-      </c>
-      <c r="C407" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="408" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="0" t="s">
-        <v>790</v>
-      </c>
-      <c r="B408" s="0" t="s">
-        <v>791</v>
-      </c>
-      <c r="C408" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="409" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="0" t="s">
-        <v>792</v>
-      </c>
-      <c r="B409" s="0" t="s">
-        <v>793</v>
-      </c>
-      <c r="C409" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="410" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="0" t="s">
-        <v>794</v>
-      </c>
-      <c r="B410" s="0" t="s">
-        <v>795</v>
-      </c>
-      <c r="C410" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="411" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="0" t="s">
-        <v>796</v>
-      </c>
-      <c r="B411" s="0" t="s">
-        <v>797</v>
-      </c>
-      <c r="C411" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="412" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="0" t="s">
-        <v>798</v>
-      </c>
-      <c r="B412" s="0" t="s">
-        <v>780</v>
-      </c>
-      <c r="C412" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="413" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="0" t="s">
-        <v>799</v>
-      </c>
-      <c r="B413" s="0" t="s">
-        <v>800</v>
-      </c>
-      <c r="C413" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="414" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="0" t="s">
-        <v>801</v>
-      </c>
-      <c r="B414" s="0" t="s">
-        <v>802</v>
-      </c>
-      <c r="C414" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="415" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="0" t="s">
-        <v>803</v>
-      </c>
-      <c r="B415" s="0" t="s">
-        <v>804</v>
-      </c>
-      <c r="C415" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="416" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="0" t="s">
-        <v>805</v>
-      </c>
-      <c r="B416" s="0" t="s">
-        <v>806</v>
-      </c>
-      <c r="C416" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="417" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="0" t="s">
-        <v>807</v>
-      </c>
-      <c r="B417" s="0" t="s">
-        <v>808</v>
-      </c>
-      <c r="C417" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="418" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="0" t="s">
-        <v>809</v>
-      </c>
-      <c r="B418" s="0" t="s">
-        <v>810</v>
-      </c>
-      <c r="C418" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="419" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="0" t="s">
-        <v>811</v>
-      </c>
-      <c r="B419" s="0" t="s">
-        <v>812</v>
-      </c>
-      <c r="C419" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="420" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="0" t="s">
-        <v>813</v>
-      </c>
-      <c r="B420" s="0" t="s">
-        <v>814</v>
-      </c>
-      <c r="C420" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="421" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="0" t="s">
-        <v>815</v>
-      </c>
-      <c r="B421" s="0" t="s">
-        <v>816</v>
-      </c>
-      <c r="C421" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="422" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="0" t="s">
-        <v>817</v>
-      </c>
-      <c r="B422" s="0" t="s">
-        <v>818</v>
-      </c>
-      <c r="C422" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="0" t="s">
-        <v>819</v>
-      </c>
-      <c r="B423" s="0" t="s">
-        <v>820</v>
-      </c>
-      <c r="C423" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="424" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="0" t="s">
-        <v>821</v>
-      </c>
-      <c r="B424" s="0" t="s">
-        <v>822</v>
-      </c>
-      <c r="C424" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="425" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="0" t="s">
-        <v>823</v>
-      </c>
-      <c r="B425" s="0" t="s">
-        <v>824</v>
-      </c>
-      <c r="C425" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="426" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="0" t="s">
-        <v>825</v>
-      </c>
-      <c r="B426" s="0" t="s">
-        <v>826</v>
-      </c>
-      <c r="C426" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="427" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="0" t="s">
-        <v>827</v>
-      </c>
-      <c r="B427" s="0" t="s">
-        <v>828</v>
-      </c>
-      <c r="C427" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="428" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="0" t="s">
-        <v>829</v>
-      </c>
-      <c r="B428" s="0" t="s">
-        <v>830</v>
-      </c>
-      <c r="C428" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="429" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="0" t="s">
-        <v>831</v>
-      </c>
-      <c r="B429" s="0" t="s">
-        <v>832</v>
-      </c>
-      <c r="C429" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="430" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="0" t="s">
-        <v>833</v>
-      </c>
-      <c r="B430" s="0" t="s">
-        <v>834</v>
-      </c>
-      <c r="C430" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="431" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="0" t="s">
-        <v>835</v>
-      </c>
-      <c r="B431" s="0" t="s">
-        <v>836</v>
-      </c>
-      <c r="C431" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="432" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A432" s="0" t="s">
-        <v>837</v>
-      </c>
-      <c r="B432" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="C432" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="433" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="0" t="s">
-        <v>838</v>
-      </c>
-      <c r="B433" s="0" t="s">
-        <v>839</v>
-      </c>
-      <c r="C433" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="434" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="0" t="s">
-        <v>840</v>
-      </c>
-      <c r="B434" s="0" t="s">
-        <v>841</v>
-      </c>
-      <c r="C434" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="435" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="0" t="s">
-        <v>842</v>
-      </c>
-      <c r="B435" s="0" t="s">
-        <v>843</v>
-      </c>
-      <c r="C435" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="436" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="0" t="s">
-        <v>844</v>
-      </c>
-      <c r="B436" s="0" t="s">
-        <v>845</v>
-      </c>
-      <c r="C436" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="437" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="0" t="s">
-        <v>708</v>
-      </c>
-      <c r="B437" s="0" t="s">
-        <v>846</v>
-      </c>
-      <c r="C437" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="438" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="0" t="s">
-        <v>847</v>
-      </c>
-      <c r="B438" s="0" t="s">
-        <v>795</v>
-      </c>
-      <c r="C438" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="439" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="0" t="s">
-        <v>848</v>
-      </c>
-      <c r="B439" s="0" t="s">
-        <v>849</v>
-      </c>
-      <c r="C439" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="440" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A440" s="0" t="s">
-        <v>850</v>
-      </c>
-      <c r="B440" s="0" t="s">
-        <v>851</v>
-      </c>
-      <c r="C440" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="441" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A441" s="0" t="s">
-        <v>678</v>
-      </c>
-      <c r="B441" s="0" t="s">
-        <v>678</v>
-      </c>
-      <c r="C441" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="442" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="0" t="s">
-        <v>852</v>
-      </c>
-      <c r="B442" s="0" t="s">
-        <v>853</v>
-      </c>
-      <c r="C442" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="443" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="0" t="s">
-        <v>854</v>
-      </c>
-      <c r="B443" s="0" t="s">
-        <v>855</v>
-      </c>
-      <c r="C443" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="444" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A444" s="0" t="s">
-        <v>856</v>
-      </c>
-      <c r="B444" s="0" t="s">
-        <v>857</v>
-      </c>
-      <c r="C444" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="445" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A445" s="0" t="s">
-        <v>858</v>
-      </c>
-      <c r="B445" s="0" t="s">
-        <v>859</v>
-      </c>
-      <c r="C445" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="446" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A446" s="0" t="s">
-        <v>860</v>
-      </c>
-      <c r="B446" s="0" t="s">
-        <v>861</v>
-      </c>
-      <c r="C446" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="447" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A447" s="0" t="s">
-        <v>862</v>
-      </c>
-      <c r="B447" s="0" t="s">
-        <v>863</v>
-      </c>
-      <c r="C447" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="448" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A448" s="0" t="s">
-        <v>864</v>
-      </c>
-      <c r="B448" s="0" t="s">
-        <v>865</v>
-      </c>
-      <c r="C448" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="449" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="0" t="s">
-        <v>866</v>
-      </c>
-      <c r="B449" s="0" t="s">
-        <v>867</v>
-      </c>
-      <c r="C449" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="450" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A450" s="0" t="s">
-        <v>868</v>
-      </c>
-      <c r="B450" s="0" t="s">
-        <v>869</v>
-      </c>
-      <c r="C450" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="451" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A451" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B451" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="C451" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="452" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A452" s="0" t="s">
-        <v>870</v>
-      </c>
-      <c r="B452" s="0" t="s">
-        <v>871</v>
-      </c>
-      <c r="C452" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="453" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A453" s="0" t="s">
-        <v>872</v>
-      </c>
-      <c r="B453" s="0" t="s">
-        <v>873</v>
-      </c>
-      <c r="C453" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="454" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A454" s="0" t="s">
-        <v>874</v>
-      </c>
-      <c r="B454" s="0" t="s">
-        <v>875</v>
-      </c>
-      <c r="C454" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="455" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A455" s="0" t="s">
-        <v>876</v>
-      </c>
-      <c r="B455" s="0" t="s">
-        <v>877</v>
-      </c>
-      <c r="C455" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="456" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="0" t="s">
-        <v>878</v>
-      </c>
-      <c r="B456" s="0" t="s">
-        <v>879</v>
-      </c>
-      <c r="C456" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="457" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="0" t="s">
-        <v>880</v>
-      </c>
-      <c r="B457" s="0" t="s">
-        <v>881</v>
-      </c>
-      <c r="C457" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="458" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="0" t="s">
-        <v>882</v>
-      </c>
-      <c r="B458" s="0" t="s">
-        <v>883</v>
-      </c>
-      <c r="C458" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="459" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="0" t="s">
-        <v>884</v>
-      </c>
-      <c r="B459" s="0" t="s">
-        <v>885</v>
-      </c>
-      <c r="C459" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="460" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A460" s="0" t="s">
-        <v>886</v>
-      </c>
-      <c r="B460" s="0" t="s">
-        <v>887</v>
-      </c>
-      <c r="C460" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="461" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A461" s="0" t="s">
-        <v>888</v>
-      </c>
-      <c r="B461" s="0" t="s">
-        <v>889</v>
-      </c>
-      <c r="C461" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="462" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A462" s="0" t="s">
-        <v>890</v>
-      </c>
-      <c r="B462" s="0" t="s">
-        <v>891</v>
-      </c>
-      <c r="C462" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="463" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A463" s="0" t="s">
-        <v>892</v>
-      </c>
-      <c r="B463" s="0" t="s">
-        <v>893</v>
-      </c>
-      <c r="C463" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="464" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A464" s="0" t="s">
-        <v>765</v>
-      </c>
-      <c r="B464" s="0" t="s">
-        <v>894</v>
-      </c>
-      <c r="C464" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="465" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A465" s="0" t="s">
-        <v>895</v>
-      </c>
-      <c r="B465" s="0" t="s">
-        <v>896</v>
-      </c>
-      <c r="C465" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="466" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A466" s="0" t="s">
-        <v>897</v>
-      </c>
-      <c r="B466" s="0" t="s">
-        <v>898</v>
-      </c>
-      <c r="C466" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="467" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A467" s="0" t="s">
-        <v>899</v>
-      </c>
-      <c r="B467" s="0" t="s">
-        <v>900</v>
-      </c>
-      <c r="C467" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="468" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A468" s="0" t="s">
-        <v>901</v>
-      </c>
-      <c r="B468" s="0" t="s">
-        <v>902</v>
-      </c>
-      <c r="C468" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="469" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A469" s="0" t="s">
-        <v>903</v>
-      </c>
-      <c r="B469" s="0" t="s">
-        <v>904</v>
-      </c>
-      <c r="C469" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="470" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A470" s="0" t="s">
-        <v>905</v>
-      </c>
-      <c r="B470" s="0" t="s">
-        <v>906</v>
-      </c>
-      <c r="C470" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="471" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A471" s="0" t="s">
-        <v>907</v>
-      </c>
-      <c r="B471" s="0" t="s">
-        <v>908</v>
-      </c>
-      <c r="C471" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="472" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A472" s="0" t="s">
-        <v>909</v>
-      </c>
-      <c r="B472" s="0" t="s">
-        <v>910</v>
-      </c>
-      <c r="C472" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="473" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="0" t="s">
-        <v>911</v>
-      </c>
-      <c r="B473" s="0" t="s">
-        <v>912</v>
-      </c>
-      <c r="C473" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="474" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="0" t="s">
-        <v>913</v>
-      </c>
-      <c r="B474" s="0" t="s">
-        <v>914</v>
-      </c>
-      <c r="C474" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="475" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A475" s="0" t="s">
-        <v>915</v>
-      </c>
-      <c r="B475" s="0" t="s">
-        <v>916</v>
-      </c>
-      <c r="C475" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="476" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A476" s="0" t="s">
-        <v>917</v>
-      </c>
-      <c r="B476" s="0" t="s">
-        <v>918</v>
-      </c>
-      <c r="C476" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="477" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A477" s="0" t="s">
-        <v>919</v>
-      </c>
-      <c r="B477" s="0" t="s">
-        <v>920</v>
-      </c>
-      <c r="C477" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="478" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="0" t="s">
-        <v>921</v>
-      </c>
-      <c r="B478" s="0" t="s">
-        <v>922</v>
-      </c>
-      <c r="C478" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="479" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A479" s="0" t="s">
-        <v>923</v>
-      </c>
-      <c r="B479" s="0" t="s">
-        <v>924</v>
-      </c>
-      <c r="C479" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="480" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A480" s="0" t="s">
-        <v>925</v>
-      </c>
-      <c r="B480" s="0" t="s">
-        <v>926</v>
-      </c>
-      <c r="C480" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="481" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A481" s="0" t="s">
-        <v>927</v>
-      </c>
-      <c r="B481" s="0" t="s">
-        <v>928</v>
-      </c>
-      <c r="C481" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="482" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A482" s="0" t="s">
-        <v>929</v>
-      </c>
-      <c r="B482" s="0" t="s">
-        <v>930</v>
-      </c>
-      <c r="C482" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="483" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A483" s="0" t="s">
-        <v>931</v>
-      </c>
-      <c r="B483" s="0" t="s">
-        <v>932</v>
-      </c>
-      <c r="C483" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="484" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A484" s="0" t="s">
-        <v>933</v>
-      </c>
-      <c r="B484" s="0" t="s">
-        <v>934</v>
-      </c>
-      <c r="C484" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="485" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A485" s="0" t="s">
-        <v>935</v>
-      </c>
-      <c r="B485" s="0" t="s">
-        <v>936</v>
-      </c>
-      <c r="C485" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="486" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A486" s="0" t="s">
-        <v>937</v>
-      </c>
-      <c r="B486" s="0" t="s">
-        <v>926</v>
-      </c>
-      <c r="C486" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="487" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A487" s="0" t="s">
-        <v>938</v>
-      </c>
-      <c r="B487" s="0" t="s">
-        <v>939</v>
-      </c>
-      <c r="C487" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="488" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A488" s="0" t="s">
-        <v>940</v>
-      </c>
-      <c r="B488" s="0" t="s">
-        <v>941</v>
-      </c>
-      <c r="C488" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="489" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A489" s="0" t="s">
-        <v>942</v>
-      </c>
-      <c r="B489" s="0" t="s">
-        <v>943</v>
-      </c>
-      <c r="C489" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="490" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A490" s="0" t="s">
-        <v>944</v>
-      </c>
-      <c r="B490" s="0" t="s">
-        <v>945</v>
-      </c>
-      <c r="C490" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="491" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A491" s="0" t="s">
-        <v>946</v>
-      </c>
-      <c r="B491" s="0" t="s">
-        <v>947</v>
-      </c>
-      <c r="C491" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="492" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A492" s="0" t="s">
-        <v>948</v>
-      </c>
-      <c r="B492" s="0" t="s">
-        <v>949</v>
-      </c>
-      <c r="C492" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="493" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A493" s="0" t="s">
-        <v>950</v>
-      </c>
-      <c r="B493" s="0" t="s">
-        <v>951</v>
-      </c>
-      <c r="C493" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="494" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A494" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="B494" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="C494" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="495" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A495" s="0" t="s">
-        <v>952</v>
-      </c>
-      <c r="B495" s="0" t="s">
-        <v>949</v>
-      </c>
-      <c r="C495" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="496" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A496" s="0" t="s">
-        <v>953</v>
-      </c>
-      <c r="B496" s="0" t="s">
-        <v>954</v>
-      </c>
-      <c r="C496" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="497" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A497" s="0" t="s">
-        <v>955</v>
-      </c>
-      <c r="B497" s="0" t="s">
-        <v>956</v>
-      </c>
-      <c r="C497" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="498" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A498" s="0" t="s">
-        <v>957</v>
-      </c>
-      <c r="B498" s="0" t="s">
-        <v>958</v>
-      </c>
-      <c r="C498" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="499" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A499" s="0" t="s">
-        <v>959</v>
-      </c>
-      <c r="B499" s="0" t="s">
-        <v>960</v>
-      </c>
-      <c r="C499" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="500" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A500" s="0" t="s">
-        <v>961</v>
-      </c>
-      <c r="B500" s="0" t="s">
-        <v>962</v>
-      </c>
-      <c r="C500" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="501" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A501" s="0" t="s">
-        <v>963</v>
-      </c>
-      <c r="B501" s="0" t="s">
-        <v>964</v>
-      </c>
-      <c r="C501" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="502" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A502" s="0" t="s">
-        <v>965</v>
-      </c>
-      <c r="B502" s="0" t="s">
-        <v>966</v>
-      </c>
-      <c r="C502" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="503" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A503" s="0" t="s">
-        <v>967</v>
-      </c>
-      <c r="B503" s="0" t="s">
-        <v>968</v>
-      </c>
-      <c r="C503" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="504" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A504" s="0" t="s">
-        <v>765</v>
-      </c>
-      <c r="B504" s="0" t="s">
-        <v>766</v>
-      </c>
-      <c r="C504" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="505" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A505" s="0" t="s">
-        <v>969</v>
-      </c>
-      <c r="B505" s="0" t="s">
-        <v>970</v>
-      </c>
-      <c r="C505" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="506" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A506" s="0" t="s">
-        <v>594</v>
-      </c>
-      <c r="B506" s="0" t="s">
-        <v>971</v>
-      </c>
-      <c r="C506" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="507" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A507" s="0" t="s">
-        <v>972</v>
-      </c>
-      <c r="B507" s="0" t="s">
-        <v>973</v>
-      </c>
-      <c r="C507" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="508" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A508" s="0" t="s">
-        <v>974</v>
-      </c>
-      <c r="B508" s="0" t="s">
-        <v>975</v>
-      </c>
-      <c r="C508" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="509" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A509" s="0" t="s">
-        <v>976</v>
-      </c>
-      <c r="B509" s="0" t="s">
-        <v>977</v>
-      </c>
-      <c r="C509" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="510" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A510" s="0" t="s">
-        <v>978</v>
-      </c>
-      <c r="B510" s="0" t="s">
-        <v>979</v>
-      </c>
-      <c r="C510" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A511" s="0" t="s">
-        <v>980</v>
-      </c>
-      <c r="B511" s="5" t="s">
-        <v>981</v>
-      </c>
-      <c r="C511" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="512" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A512" s="1" t="s">
-        <v>982</v>
-      </c>
-      <c r="B512" s="0" t="s">
-        <v>983</v>
-      </c>
-      <c r="C512" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="513" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A513" s="0" t="s">
-        <v>984</v>
-      </c>
-      <c r="B513" s="0" t="s">
-        <v>983</v>
-      </c>
-      <c r="C513" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="514" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A514" s="1" t="s">
-        <v>985</v>
-      </c>
-      <c r="B514" s="0" t="s">
-        <v>986</v>
-      </c>
-      <c r="C514" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="515" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A515" s="1" t="s">
-        <v>987</v>
-      </c>
-      <c r="B515" s="0" t="s">
-        <v>988</v>
-      </c>
-      <c r="C515" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A516" s="0" t="s">
-        <v>989</v>
-      </c>
-      <c r="B516" s="0" t="s">
-        <v>990</v>
-      </c>
-      <c r="C516" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A517" s="0" t="s">
-        <v>991</v>
-      </c>
-      <c r="B517" s="0" t="s">
-        <v>992</v>
-      </c>
-      <c r="C517" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A518" s="0" t="s">
-        <v>993</v>
-      </c>
-      <c r="B518" s="0" t="s">
-        <v>994</v>
-      </c>
-      <c r="C518" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="519" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A519" s="0" t="s">
-        <v>995</v>
-      </c>
-      <c r="B519" s="0" t="s">
-        <v>996</v>
-      </c>
-      <c r="C519" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A520" s="0" t="s">
-        <v>997</v>
-      </c>
-      <c r="B520" s="0" t="s">
-        <v>998</v>
-      </c>
-      <c r="C520" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A521" s="0" t="s">
-        <v>999</v>
-      </c>
-      <c r="B521" s="0" t="s">
-        <v>998</v>
-      </c>
       <c r="C521" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/public/translation/EngTranslate.xlsx
+++ b/public/translation/EngTranslate.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="1000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="1001">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -3024,6 +3024,9 @@
   </si>
   <si>
     <t xml:space="preserve">report_card/mfis/manara-girls/printAll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrintAll MFISG</t>
   </si>
 </sst>
 </file>
@@ -3218,10 +3221,8 @@
   </sheetPr>
   <dimension ref="A1:C521"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A506" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B519" activeCellId="0" sqref="B519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8935,7 +8936,7 @@
         <v>999</v>
       </c>
       <c r="B519" s="0" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="C519" s="0" t="n">
         <v>1</v>

--- a/public/translation/EngTranslate.xlsx
+++ b/public/translation/EngTranslate.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="1004">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -2972,15 +2972,18 @@
     <t xml:space="preserve">Attendance Report</t>
   </si>
   <si>
-    <t xml:space="preserve">report_card/fgl</t>
+    <t xml:space="preserve">report_card/fgls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report Card Fgl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">report_card</t>
   </si>
   <si>
     <t xml:space="preserve">Report Card</t>
   </si>
   <si>
-    <t xml:space="preserve">report_card</t>
-  </si>
-  <si>
     <t xml:space="preserve">attendance/viewAllAttendance</t>
   </si>
   <si>
@@ -3005,13 +3008,13 @@
     <t xml:space="preserve">Report Card Forsan</t>
   </si>
   <si>
-    <t xml:space="preserve">report_card/mfis/boys</t>
+    <t xml:space="preserve">report_card/mfis/mfisb</t>
   </si>
   <si>
     <t xml:space="preserve">Report Card MFISB</t>
   </si>
   <si>
-    <t xml:space="preserve">report_card/mfis/girls</t>
+    <t xml:space="preserve">report_card/mfis/mfisg</t>
   </si>
   <si>
     <t xml:space="preserve">Report Card MFISG</t>
@@ -3027,6 +3030,12 @@
   </si>
   <si>
     <t xml:space="preserve">PrintAll MFISG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">report_card/allow_levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allow Levels</t>
   </si>
 </sst>
 </file>
@@ -3219,10 +3228,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C521"/>
+  <dimension ref="A1:C522"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A506" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B519" activeCellId="0" sqref="B519"/>
+      <selection pane="topLeft" activeCell="A510" activeCellId="0" sqref="A510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8848,7 +8857,7 @@
         <v>984</v>
       </c>
       <c r="B511" s="0" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="C511" s="0" t="n">
         <v>1</v>
@@ -8856,10 +8865,10 @@
     </row>
     <row r="512" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B512" s="0" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="C512" s="0" t="n">
         <v>1</v>
@@ -8867,10 +8876,10 @@
     </row>
     <row r="513" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="1" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B513" s="0" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C513" s="0" t="n">
         <v>1</v>
@@ -8878,10 +8887,10 @@
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="0" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B514" s="0" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C514" s="0" t="n">
         <v>1</v>
@@ -8889,10 +8898,10 @@
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="0" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B515" s="0" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C515" s="0" t="n">
         <v>1</v>
@@ -8900,10 +8909,10 @@
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="0" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B516" s="0" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C516" s="0" t="n">
         <v>1</v>
@@ -8911,10 +8920,10 @@
     </row>
     <row r="517" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="0" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B517" s="0" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C517" s="0" t="n">
         <v>1</v>
@@ -8922,10 +8931,10 @@
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="0" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B518" s="0" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="C518" s="0" t="n">
         <v>1</v>
@@ -8933,10 +8942,10 @@
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="0" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B519" s="0" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C519" s="0" t="n">
         <v>1</v>
@@ -8963,6 +8972,17 @@
         <v>1</v>
       </c>
       <c r="C521" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A522" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B522" s="0" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C522" s="0" t="n">
         <v>1</v>
       </c>
     </row>
